--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,12 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="63">
   <si>
     <t>Rodada 1</t>
   </si>
   <si>
     <t>Rodada 2</t>
+  </si>
+  <si>
+    <t>Rodada 3</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -106,9 +109,6 @@
   </si>
   <si>
     <t>cartola scheuer</t>
-  </si>
-  <si>
-    <t>Remo Santo Ângelo</t>
   </si>
   <si>
     <t>Analove10 ITAQUI GRANDE!!</t>
@@ -574,23 +574,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -598,10 +601,13 @@
       <c r="C2">
         <v>75.68994140625</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>87.02001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -609,10 +615,13 @@
       <c r="C3">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>86.7998046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -620,10 +629,13 @@
       <c r="C4">
         <v>96.18994140625</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>87.0498046875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -631,10 +643,13 @@
       <c r="C5">
         <v>102.990234375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>54.1201171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -642,10 +657,13 @@
       <c r="C6">
         <v>59.219970703125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>95.5498046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -653,10 +671,13 @@
       <c r="C7">
         <v>67.39013671875</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>85.52001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -664,10 +685,13 @@
       <c r="C8">
         <v>95.2900390625</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>86.9501953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -675,10 +699,13 @@
       <c r="C9">
         <v>92.81982421875</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>68.52001953125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -686,10 +713,13 @@
       <c r="C10">
         <v>60.449951171875</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>59.969970703125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -697,10 +727,13 @@
       <c r="C11">
         <v>82.02001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>77.419921875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -708,10 +741,13 @@
       <c r="C12">
         <v>82.83984375</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>71.6201171875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -719,10 +755,13 @@
       <c r="C13">
         <v>74.490234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -730,10 +769,13 @@
       <c r="C14">
         <v>80.58984375</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>58.6201171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -741,10 +783,13 @@
       <c r="C15">
         <v>85.990234375</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>48.300048828125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -752,10 +797,13 @@
       <c r="C16">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>84.7001953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -763,10 +811,13 @@
       <c r="C17">
         <v>96.7900390625</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>80.10009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -774,10 +825,13 @@
       <c r="C18">
         <v>77.490234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>75.419921875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -785,10 +839,13 @@
       <c r="C19">
         <v>86.919921875</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>58.60009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -796,10 +853,13 @@
       <c r="C20">
         <v>71.22021484375</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>90.2001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -807,10 +867,13 @@
       <c r="C21">
         <v>68.18994140625</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>63.300048828125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -818,10 +881,13 @@
       <c r="C22">
         <v>86.490234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>70.10009765625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -829,10 +895,13 @@
       <c r="C23">
         <v>73.18994140625</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>68.419921875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -840,10 +909,13 @@
       <c r="C24">
         <v>73.83984375</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>77.1201171875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -851,412 +923,512 @@
       <c r="C25">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>75.10009765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>72.97998046875</v>
+        <v>72.58984375</v>
       </c>
       <c r="C26">
-        <v>91.8798828125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>76.18994140625</v>
+      </c>
+      <c r="D26">
+        <v>67.39990234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>72.58984375</v>
+        <v>72.5498046875</v>
       </c>
       <c r="C27">
-        <v>76.18994140625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>81.68994140625</v>
+      </c>
+      <c r="D27">
+        <v>82.669921875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>72.5498046875</v>
+        <v>72.3798828125</v>
       </c>
       <c r="C28">
-        <v>81.68994140625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>79.2900390625</v>
+      </c>
+      <c r="D28">
+        <v>82.169921875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>72.3798828125</v>
+        <v>72.2900390625</v>
       </c>
       <c r="C29">
-        <v>79.2900390625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>56.820068359375</v>
+      </c>
+      <c r="D29">
+        <v>91.990234375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>72.2900390625</v>
+        <v>72.240234375</v>
       </c>
       <c r="C30">
-        <v>56.820068359375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>103.18994140625</v>
+      </c>
+      <c r="D30">
+        <v>92.35009765625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>72.240234375</v>
+        <v>71.08984375</v>
       </c>
       <c r="C31">
-        <v>103.18994140625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>71.39013671875</v>
+      </c>
+      <c r="D31">
+        <v>56.39990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>71.08984375</v>
+        <v>70.18994140625</v>
       </c>
       <c r="C32">
-        <v>71.39013671875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>87.89013671875</v>
+      </c>
+      <c r="D32">
+        <v>77.919921875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>70.18994140625</v>
+        <v>69.4501953125</v>
       </c>
       <c r="C33">
-        <v>87.89013671875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>87.990234375</v>
+      </c>
+      <c r="D33">
+        <v>72.9501953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>69.4501953125</v>
+        <v>69.39990234375</v>
       </c>
       <c r="C34">
-        <v>87.990234375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>83.0400390625</v>
+      </c>
+      <c r="D34">
+        <v>83.60009765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>69.39990234375</v>
+        <v>68.47998046875</v>
       </c>
       <c r="C35">
-        <v>83.0400390625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>81.1201171875</v>
+      </c>
+      <c r="D35">
+        <v>53.840087890625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>68.47998046875</v>
+        <v>68.39990234375</v>
       </c>
       <c r="C36">
-        <v>81.1201171875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>72.89013671875</v>
+      </c>
+      <c r="D36">
+        <v>38.219970703125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>68.39990234375</v>
+        <v>67.990234375</v>
       </c>
       <c r="C37">
-        <v>72.89013671875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>86.39013671875</v>
+      </c>
+      <c r="D37">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>67.990234375</v>
+        <v>67.68994140625</v>
       </c>
       <c r="C38">
-        <v>86.39013671875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>85.990234375</v>
+      </c>
+      <c r="D38">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
+        <v>67.14013671875</v>
+      </c>
+      <c r="C39">
+        <v>67.81982421875</v>
+      </c>
+      <c r="D39">
+        <v>68.64990234375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>66.68994140625</v>
+      </c>
+      <c r="C40">
+        <v>74.39013671875</v>
+      </c>
+      <c r="D40">
+        <v>75.419921875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>66.60009765625</v>
+      </c>
+      <c r="C41">
+        <v>73.31982421875</v>
+      </c>
+      <c r="D41">
+        <v>99.5498046875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>66.5</v>
+      </c>
+      <c r="C42">
+        <v>103.6201171875</v>
+      </c>
+      <c r="D42">
+        <v>76.89990234375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>66.2001953125</v>
+      </c>
+      <c r="C43">
+        <v>102.89013671875</v>
+      </c>
+      <c r="D43">
+        <v>74.2998046875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>66.14990234375</v>
+      </c>
+      <c r="C44">
+        <v>76.47998046875</v>
+      </c>
+      <c r="D44">
+        <v>47.219970703125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>65.39990234375</v>
+      </c>
+      <c r="C45">
+        <v>59.679931640625</v>
+      </c>
+      <c r="D45">
+        <v>61.699951171875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>64.7900390625</v>
+      </c>
+      <c r="C46">
+        <v>94.47998046875</v>
+      </c>
+      <c r="D46">
+        <v>65.1201171875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>72.68994140625</v>
+      </c>
+      <c r="D47">
+        <v>81.52001953125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>63.64990234375</v>
+      </c>
+      <c r="C48">
         <v>67.68994140625</v>
       </c>
-      <c r="C39">
-        <v>85.990234375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>67.14013671875</v>
-      </c>
-      <c r="C40">
-        <v>67.81982421875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>66.68994140625</v>
-      </c>
-      <c r="C41">
-        <v>74.39013671875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="D48">
+        <v>71.2001953125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>63.5</v>
+      </c>
+      <c r="C49">
+        <v>46.919921875</v>
+      </c>
+      <c r="D49">
+        <v>57.77001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>63.489990234375</v>
+      </c>
+      <c r="C50">
+        <v>91.419921875</v>
+      </c>
+      <c r="D50">
+        <v>63.1201171875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>63.080078125</v>
+      </c>
+      <c r="C51">
+        <v>60.8701171875</v>
+      </c>
+      <c r="D51">
+        <v>74.02001953125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>61.550048828125</v>
+      </c>
+      <c r="C52">
+        <v>99.39013671875</v>
+      </c>
+      <c r="D52">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>61.14990234375</v>
+      </c>
+      <c r="C53">
+        <v>104.169921875</v>
+      </c>
+      <c r="D53">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>60.550048828125</v>
+      </c>
+      <c r="C54">
+        <v>96.990234375</v>
+      </c>
+      <c r="D54">
+        <v>71.39990234375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>88.2900390625</v>
+      </c>
+      <c r="D55">
+        <v>63.699951171875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>58.989990234375</v>
+      </c>
+      <c r="C56">
+        <v>55.179931640625</v>
+      </c>
+      <c r="D56">
+        <v>68.1201171875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>56.3798828125</v>
+      </c>
+      <c r="C57">
+        <v>80.6201171875</v>
+      </c>
+      <c r="D57">
+        <v>47.35009765625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>53.639892578125</v>
+      </c>
+      <c r="C58">
+        <v>80.97021484375</v>
+      </c>
+      <c r="D58">
+        <v>68.5498046875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>50.030029296875</v>
+      </c>
+      <c r="C59">
+        <v>60.8798828125</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>47.929931640625</v>
+      </c>
+      <c r="C60">
+        <v>79.68994140625</v>
+      </c>
+      <c r="D60">
+        <v>59.719970703125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
         <v>42</v>
-      </c>
-      <c r="B42">
-        <v>66.60009765625</v>
-      </c>
-      <c r="C42">
-        <v>73.31982421875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>66.5</v>
-      </c>
-      <c r="C43">
-        <v>103.6201171875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>66.2001953125</v>
-      </c>
-      <c r="C44">
-        <v>102.89013671875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>66.14990234375</v>
-      </c>
-      <c r="C45">
-        <v>76.47998046875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>65.39990234375</v>
-      </c>
-      <c r="C46">
-        <v>59.679931640625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>64.7900390625</v>
-      </c>
-      <c r="C47">
-        <v>94.47998046875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>64</v>
-      </c>
-      <c r="C48">
-        <v>72.68994140625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>63.64990234375</v>
-      </c>
-      <c r="C49">
-        <v>67.68994140625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>63.5</v>
-      </c>
-      <c r="C50">
-        <v>46.919921875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>63.489990234375</v>
-      </c>
-      <c r="C51">
-        <v>91.419921875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>63.080078125</v>
-      </c>
-      <c r="C52">
-        <v>60.8701171875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>61.550048828125</v>
-      </c>
-      <c r="C53">
-        <v>99.39013671875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>61.14990234375</v>
-      </c>
-      <c r="C54">
-        <v>104.169921875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>60.550048828125</v>
-      </c>
-      <c r="C55">
-        <v>96.990234375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>59</v>
-      </c>
-      <c r="C56">
-        <v>88.2900390625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>58.989990234375</v>
-      </c>
-      <c r="C57">
-        <v>55.179931640625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>56.3798828125</v>
-      </c>
-      <c r="C58">
-        <v>80.6201171875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>53.639892578125</v>
-      </c>
-      <c r="C59">
-        <v>80.97021484375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>50.030029296875</v>
-      </c>
-      <c r="C60">
-        <v>60.8798828125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>47.929931640625</v>
-      </c>
-      <c r="C61">
-        <v>79.68994140625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1451,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1287,7 +1459,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1295,7 +1467,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1303,7 +1475,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1311,7 +1483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1319,7 +1491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1327,7 +1499,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1335,7 +1507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1343,7 +1515,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1351,7 +1523,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1359,7 +1531,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1367,7 +1539,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1375,7 +1547,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1383,7 +1555,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1391,7 +1563,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1399,7 +1571,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1407,7 +1579,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1415,7 +1587,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1423,7 +1595,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1431,7 +1603,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1439,7 +1611,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1447,7 +1619,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1455,7 +1627,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1463,7 +1635,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1471,7 +1643,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1479,7 +1651,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1487,7 +1659,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1495,7 +1667,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1503,7 +1675,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1511,7 +1683,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1519,7 +1691,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1527,7 +1699,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1707,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1543,7 +1715,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1551,7 +1723,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1559,7 +1731,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1567,7 +1739,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1575,7 +1747,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1583,7 +1755,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1591,7 +1763,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1599,7 +1771,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1607,7 +1779,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1615,7 +1787,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1623,7 +1795,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1631,7 +1803,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1639,7 +1811,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1647,7 +1819,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1655,7 +1827,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1663,7 +1835,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1671,7 +1843,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1679,7 +1851,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1687,7 +1859,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1695,7 +1867,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1703,7 +1875,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1711,7 +1883,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1719,7 +1891,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1727,7 +1899,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1735,7 +1907,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1743,17 +1915,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -1764,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1777,7 +1941,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1785,7 +1949,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1793,7 +1957,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1801,7 +1965,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1809,7 +1973,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1817,7 +1981,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1825,7 +1989,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1833,7 +1997,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1841,7 +2005,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1849,7 +2013,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1857,7 +2021,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1865,7 +2029,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1873,7 +2037,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1881,7 +2045,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1889,7 +2053,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1897,7 +2061,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1905,7 +2069,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1913,7 +2077,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1921,7 +2085,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1929,7 +2093,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1937,7 +2101,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1945,7 +2109,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1953,7 +2117,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1961,7 +2125,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1969,7 +2133,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1977,7 +2141,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1985,7 +2149,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1993,7 +2157,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2001,7 +2165,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2009,7 +2173,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2017,7 +2181,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2025,7 +2189,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2033,7 +2197,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2041,7 +2205,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2049,7 +2213,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2057,7 +2221,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2065,7 +2229,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2073,7 +2237,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2081,7 +2245,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2089,7 +2253,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2097,7 +2261,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2105,7 +2269,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2113,7 +2277,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2121,7 +2285,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2129,7 +2293,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2137,7 +2301,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2145,7 +2309,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2153,7 +2317,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2161,7 +2325,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2169,7 +2333,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2177,7 +2341,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2185,7 +2349,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2193,7 +2357,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2201,7 +2365,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2209,7 +2373,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2217,7 +2381,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2225,7 +2389,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2233,7 +2397,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2241,17 +2405,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -2262,7 +2418,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2275,7 +2431,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2283,7 +2439,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2291,7 +2447,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2299,7 +2455,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2307,7 +2463,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2315,7 +2471,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2323,7 +2479,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2331,7 +2487,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2339,7 +2495,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2347,7 +2503,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2355,7 +2511,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2363,7 +2519,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2371,7 +2527,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2379,7 +2535,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2387,7 +2543,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2395,7 +2551,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2403,7 +2559,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2411,7 +2567,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2419,7 +2575,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2427,7 +2583,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2435,7 +2591,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2443,7 +2599,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2451,7 +2607,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2459,7 +2615,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2467,7 +2623,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2475,7 +2631,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2483,7 +2639,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2491,7 +2647,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2499,7 +2655,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2507,7 +2663,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2515,7 +2671,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2523,7 +2679,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2531,7 +2687,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2539,7 +2695,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2547,7 +2703,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2555,7 +2711,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2563,7 +2719,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2571,7 +2727,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2579,7 +2735,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2587,7 +2743,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2595,7 +2751,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2603,7 +2759,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2611,7 +2767,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2619,7 +2775,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2627,7 +2783,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2635,7 +2791,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2643,7 +2799,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2651,7 +2807,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2659,7 +2815,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2667,7 +2823,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2675,7 +2831,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2683,7 +2839,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2691,7 +2847,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2699,7 +2855,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2707,7 +2863,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2715,7 +2871,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2723,7 +2879,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2731,7 +2887,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2739,17 +2895,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -2760,7 +2908,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2773,7 +2921,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2781,7 +2929,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2789,7 +2937,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2797,7 +2945,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2805,7 +2953,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2813,7 +2961,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2821,7 +2969,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2829,7 +2977,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2837,7 +2985,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2845,7 +2993,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2853,7 +3001,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2861,7 +3009,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2869,7 +3017,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2877,7 +3025,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2885,7 +3033,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2893,7 +3041,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2901,7 +3049,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2909,7 +3057,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2917,7 +3065,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2925,7 +3073,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2933,7 +3081,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2941,7 +3089,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2949,7 +3097,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2957,7 +3105,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2965,7 +3113,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2973,7 +3121,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2981,7 +3129,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2989,7 +3137,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2997,7 +3145,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3005,7 +3153,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3013,7 +3161,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3021,7 +3169,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3029,7 +3177,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3037,7 +3185,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3045,7 +3193,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3053,7 +3201,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3061,7 +3209,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3069,7 +3217,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3077,7 +3225,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3085,7 +3233,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3093,7 +3241,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3101,7 +3249,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3109,7 +3257,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3117,7 +3265,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3125,7 +3273,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3133,7 +3281,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3141,7 +3289,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3149,7 +3297,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3157,7 +3305,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3165,7 +3313,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3173,7 +3321,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3181,7 +3329,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3189,7 +3337,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3197,7 +3345,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3205,7 +3353,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3213,7 +3361,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3221,7 +3369,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3229,7 +3377,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3237,17 +3385,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -3258,7 +3398,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3271,7 +3411,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3279,7 +3419,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3287,7 +3427,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3295,7 +3435,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3303,7 +3443,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3311,7 +3451,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3319,7 +3459,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3327,7 +3467,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3335,7 +3475,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3343,7 +3483,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3351,7 +3491,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3359,7 +3499,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3367,7 +3507,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3375,7 +3515,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3383,7 +3523,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3391,7 +3531,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3399,7 +3539,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3407,7 +3547,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3415,7 +3555,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3423,7 +3563,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3431,7 +3571,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3439,7 +3579,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3447,7 +3587,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3455,7 +3595,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3463,7 +3603,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3471,7 +3611,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3479,7 +3619,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3487,7 +3627,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3495,7 +3635,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3503,7 +3643,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3511,7 +3651,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3519,7 +3659,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3527,7 +3667,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3535,7 +3675,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3543,7 +3683,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3551,7 +3691,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3559,7 +3699,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3567,7 +3707,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3575,7 +3715,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3583,7 +3723,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3591,7 +3731,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3599,7 +3739,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3607,7 +3747,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3615,7 +3755,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3623,7 +3763,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3631,7 +3771,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3639,7 +3779,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3647,7 +3787,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3655,7 +3795,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3663,7 +3803,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3671,7 +3811,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3679,7 +3819,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3687,7 +3827,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3695,7 +3835,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3703,7 +3843,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3711,7 +3851,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3719,7 +3859,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3727,7 +3867,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3735,17 +3875,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -3756,7 +3888,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3769,7 +3901,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3777,7 +3909,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3785,7 +3917,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3793,7 +3925,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3801,7 +3933,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3809,7 +3941,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3817,7 +3949,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3825,7 +3957,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3833,7 +3965,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3841,7 +3973,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3849,7 +3981,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3857,7 +3989,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3865,7 +3997,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3873,7 +4005,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3881,7 +4013,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3889,7 +4021,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3897,7 +4029,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3905,7 +4037,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3913,7 +4045,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3921,7 +4053,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3929,7 +4061,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3937,7 +4069,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3945,7 +4077,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3953,7 +4085,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3961,7 +4093,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3969,7 +4101,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3977,7 +4109,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3985,7 +4117,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3993,7 +4125,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4001,7 +4133,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4009,7 +4141,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4017,7 +4149,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4025,7 +4157,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4033,7 +4165,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4041,7 +4173,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4049,7 +4181,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4057,7 +4189,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4065,7 +4197,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4073,7 +4205,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4081,7 +4213,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4089,7 +4221,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4097,7 +4229,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4105,7 +4237,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4113,7 +4245,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4121,7 +4253,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4129,7 +4261,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4137,7 +4269,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4145,7 +4277,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4153,7 +4285,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4161,7 +4293,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4169,7 +4301,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4177,7 +4309,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4185,7 +4317,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4193,7 +4325,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4201,7 +4333,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4209,7 +4341,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4217,7 +4349,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4225,7 +4357,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4233,17 +4365,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -4254,23 +4378,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -4278,10 +4405,13 @@
       <c r="C2">
         <v>75.68994140625</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>87.02001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -4289,10 +4419,13 @@
       <c r="C3">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>86.7998046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -4300,10 +4433,13 @@
       <c r="C4">
         <v>96.18994140625</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>87.0498046875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -4311,10 +4447,13 @@
       <c r="C5">
         <v>102.990234375</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>54.1201171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -4322,10 +4461,13 @@
       <c r="C6">
         <v>59.219970703125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>95.5498046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -4333,10 +4475,13 @@
       <c r="C7">
         <v>67.39013671875</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>85.52001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -4344,10 +4489,13 @@
       <c r="C8">
         <v>95.2900390625</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>86.9501953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -4355,10 +4503,13 @@
       <c r="C9">
         <v>92.81982421875</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>68.52001953125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -4366,10 +4517,13 @@
       <c r="C10">
         <v>60.449951171875</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>59.969970703125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -4377,10 +4531,13 @@
       <c r="C11">
         <v>82.02001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>77.419921875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -4388,10 +4545,13 @@
       <c r="C12">
         <v>82.83984375</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>71.6201171875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -4399,10 +4559,13 @@
       <c r="C13">
         <v>74.490234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -4410,10 +4573,13 @@
       <c r="C14">
         <v>80.58984375</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>58.6201171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -4421,10 +4587,13 @@
       <c r="C15">
         <v>85.990234375</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>48.300048828125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -4432,10 +4601,13 @@
       <c r="C16">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>84.7001953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -4443,10 +4615,13 @@
       <c r="C17">
         <v>96.7900390625</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>80.10009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -4454,10 +4629,13 @@
       <c r="C18">
         <v>77.490234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>75.419921875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -4465,10 +4643,13 @@
       <c r="C19">
         <v>86.919921875</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>58.60009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -4476,10 +4657,13 @@
       <c r="C20">
         <v>71.22021484375</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>90.2001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -4487,10 +4671,13 @@
       <c r="C21">
         <v>68.18994140625</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>63.300048828125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -4498,10 +4685,13 @@
       <c r="C22">
         <v>86.490234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>70.10009765625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -4509,10 +4699,13 @@
       <c r="C23">
         <v>73.18994140625</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>68.419921875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -4520,10 +4713,13 @@
       <c r="C24">
         <v>73.83984375</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>77.1201171875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -4531,412 +4727,512 @@
       <c r="C25">
         <v>86.39013671875</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>75.10009765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>72.97998046875</v>
+        <v>72.58984375</v>
       </c>
       <c r="C26">
-        <v>91.8798828125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>76.18994140625</v>
+      </c>
+      <c r="D26">
+        <v>67.39990234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>72.58984375</v>
+        <v>72.5498046875</v>
       </c>
       <c r="C27">
-        <v>76.18994140625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>81.68994140625</v>
+      </c>
+      <c r="D27">
+        <v>82.669921875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>72.5498046875</v>
+        <v>72.3798828125</v>
       </c>
       <c r="C28">
-        <v>81.68994140625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>79.2900390625</v>
+      </c>
+      <c r="D28">
+        <v>82.169921875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>72.3798828125</v>
+        <v>72.2900390625</v>
       </c>
       <c r="C29">
-        <v>79.2900390625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>56.820068359375</v>
+      </c>
+      <c r="D29">
+        <v>91.990234375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>72.2900390625</v>
+        <v>72.240234375</v>
       </c>
       <c r="C30">
-        <v>56.820068359375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>103.18994140625</v>
+      </c>
+      <c r="D30">
+        <v>92.35009765625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>72.240234375</v>
+        <v>71.08984375</v>
       </c>
       <c r="C31">
-        <v>103.18994140625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>71.39013671875</v>
+      </c>
+      <c r="D31">
+        <v>56.39990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>71.08984375</v>
+        <v>70.18994140625</v>
       </c>
       <c r="C32">
-        <v>71.39013671875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>87.89013671875</v>
+      </c>
+      <c r="D32">
+        <v>77.919921875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>70.18994140625</v>
+        <v>69.4501953125</v>
       </c>
       <c r="C33">
-        <v>87.89013671875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>87.990234375</v>
+      </c>
+      <c r="D33">
+        <v>72.9501953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>69.4501953125</v>
+        <v>69.39990234375</v>
       </c>
       <c r="C34">
-        <v>87.990234375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>83.0400390625</v>
+      </c>
+      <c r="D34">
+        <v>83.60009765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>69.39990234375</v>
+        <v>68.47998046875</v>
       </c>
       <c r="C35">
-        <v>83.0400390625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>81.1201171875</v>
+      </c>
+      <c r="D35">
+        <v>53.840087890625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>68.47998046875</v>
+        <v>68.39990234375</v>
       </c>
       <c r="C36">
-        <v>81.1201171875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>72.89013671875</v>
+      </c>
+      <c r="D36">
+        <v>38.219970703125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>68.39990234375</v>
+        <v>67.990234375</v>
       </c>
       <c r="C37">
-        <v>72.89013671875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>86.39013671875</v>
+      </c>
+      <c r="D37">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>67.990234375</v>
+        <v>67.68994140625</v>
       </c>
       <c r="C38">
-        <v>86.39013671875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>85.990234375</v>
+      </c>
+      <c r="D38">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
+        <v>67.14013671875</v>
+      </c>
+      <c r="C39">
+        <v>67.81982421875</v>
+      </c>
+      <c r="D39">
+        <v>68.64990234375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>66.68994140625</v>
+      </c>
+      <c r="C40">
+        <v>74.39013671875</v>
+      </c>
+      <c r="D40">
+        <v>75.419921875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>66.60009765625</v>
+      </c>
+      <c r="C41">
+        <v>73.31982421875</v>
+      </c>
+      <c r="D41">
+        <v>99.5498046875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>66.5</v>
+      </c>
+      <c r="C42">
+        <v>103.6201171875</v>
+      </c>
+      <c r="D42">
+        <v>76.89990234375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>66.2001953125</v>
+      </c>
+      <c r="C43">
+        <v>102.89013671875</v>
+      </c>
+      <c r="D43">
+        <v>74.2998046875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>66.14990234375</v>
+      </c>
+      <c r="C44">
+        <v>76.47998046875</v>
+      </c>
+      <c r="D44">
+        <v>47.219970703125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>65.39990234375</v>
+      </c>
+      <c r="C45">
+        <v>59.679931640625</v>
+      </c>
+      <c r="D45">
+        <v>61.699951171875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>64.7900390625</v>
+      </c>
+      <c r="C46">
+        <v>94.47998046875</v>
+      </c>
+      <c r="D46">
+        <v>65.1201171875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>72.68994140625</v>
+      </c>
+      <c r="D47">
+        <v>81.52001953125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>63.64990234375</v>
+      </c>
+      <c r="C48">
         <v>67.68994140625</v>
       </c>
-      <c r="C39">
-        <v>85.990234375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>67.14013671875</v>
-      </c>
-      <c r="C40">
-        <v>67.81982421875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>66.68994140625</v>
-      </c>
-      <c r="C41">
-        <v>74.39013671875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="D48">
+        <v>71.2001953125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>63.5</v>
+      </c>
+      <c r="C49">
+        <v>46.919921875</v>
+      </c>
+      <c r="D49">
+        <v>57.77001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>63.489990234375</v>
+      </c>
+      <c r="C50">
+        <v>91.419921875</v>
+      </c>
+      <c r="D50">
+        <v>63.1201171875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>63.080078125</v>
+      </c>
+      <c r="C51">
+        <v>60.8701171875</v>
+      </c>
+      <c r="D51">
+        <v>74.02001953125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>61.550048828125</v>
+      </c>
+      <c r="C52">
+        <v>99.39013671875</v>
+      </c>
+      <c r="D52">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>61.14990234375</v>
+      </c>
+      <c r="C53">
+        <v>104.169921875</v>
+      </c>
+      <c r="D53">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>60.550048828125</v>
+      </c>
+      <c r="C54">
+        <v>96.990234375</v>
+      </c>
+      <c r="D54">
+        <v>71.39990234375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>88.2900390625</v>
+      </c>
+      <c r="D55">
+        <v>63.699951171875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>58.989990234375</v>
+      </c>
+      <c r="C56">
+        <v>55.179931640625</v>
+      </c>
+      <c r="D56">
+        <v>68.1201171875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>56.3798828125</v>
+      </c>
+      <c r="C57">
+        <v>80.6201171875</v>
+      </c>
+      <c r="D57">
+        <v>47.35009765625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>53.639892578125</v>
+      </c>
+      <c r="C58">
+        <v>80.97021484375</v>
+      </c>
+      <c r="D58">
+        <v>68.5498046875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>50.030029296875</v>
+      </c>
+      <c r="C59">
+        <v>60.8798828125</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>47.929931640625</v>
+      </c>
+      <c r="C60">
+        <v>79.68994140625</v>
+      </c>
+      <c r="D60">
+        <v>59.719970703125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
         <v>42</v>
-      </c>
-      <c r="B42">
-        <v>66.60009765625</v>
-      </c>
-      <c r="C42">
-        <v>73.31982421875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>66.5</v>
-      </c>
-      <c r="C43">
-        <v>103.6201171875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>66.2001953125</v>
-      </c>
-      <c r="C44">
-        <v>102.89013671875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>66.14990234375</v>
-      </c>
-      <c r="C45">
-        <v>76.47998046875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>65.39990234375</v>
-      </c>
-      <c r="C46">
-        <v>59.679931640625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>64.7900390625</v>
-      </c>
-      <c r="C47">
-        <v>94.47998046875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>64</v>
-      </c>
-      <c r="C48">
-        <v>72.68994140625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>63.64990234375</v>
-      </c>
-      <c r="C49">
-        <v>67.68994140625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>63.5</v>
-      </c>
-      <c r="C50">
-        <v>46.919921875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>63.489990234375</v>
-      </c>
-      <c r="C51">
-        <v>91.419921875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>63.080078125</v>
-      </c>
-      <c r="C52">
-        <v>60.8701171875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>61.550048828125</v>
-      </c>
-      <c r="C53">
-        <v>99.39013671875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>61.14990234375</v>
-      </c>
-      <c r="C54">
-        <v>104.169921875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>60.550048828125</v>
-      </c>
-      <c r="C55">
-        <v>96.990234375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>59</v>
-      </c>
-      <c r="C56">
-        <v>88.2900390625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>58.989990234375</v>
-      </c>
-      <c r="C57">
-        <v>55.179931640625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>56.3798828125</v>
-      </c>
-      <c r="C58">
-        <v>80.6201171875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>53.639892578125</v>
-      </c>
-      <c r="C59">
-        <v>80.97021484375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>50.030029296875</v>
-      </c>
-      <c r="C60">
-        <v>60.8798828125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>47.929931640625</v>
-      </c>
-      <c r="C61">
-        <v>79.68994140625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +5242,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A62"/>
+  <dimension ref="A2:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4954,306 +5250,301 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5264,7 +5555,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5280,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>199.18017578125</v>
+        <v>279.6298828125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5288,63 +5579,63 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>192.580078125</v>
+        <v>273.52978515625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>186.72998046875</v>
+        <v>267.7802734375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>179.97998046875</v>
+        <v>266.93017578125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>179.77978515625</v>
+        <v>266.7998046875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>176.81005859375</v>
+        <v>257.0400390625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>175.58984375</v>
+        <v>255.68994140625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>175.43017578125</v>
+        <v>253.30029296875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>172.33984375</v>
+        <v>249.999755859375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5352,391 +5643,391 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>170.1201171875</v>
+        <v>247.02001953125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>169.09033203125</v>
+        <v>246.76025390625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>165.9404296875</v>
+        <v>245.330078125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>165.330078125</v>
+        <v>243.39013671875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>165.31982421875</v>
+        <v>243.360107421875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>164.85986328125</v>
+        <v>242.1201171875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>164.7001953125</v>
+        <v>239.4697265625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>163.7099609375</v>
+        <v>236.9501953125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>161.240234375</v>
+        <v>236.90966796875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>161.18017578125</v>
+        <v>236.75048828125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>160.940185546875</v>
+        <v>236.0400390625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>160.83984375</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>159.47998046875</v>
+        <v>234.580078125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>159.27001953125</v>
+        <v>233.83984375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>158.080078125</v>
+        <v>231.30029296875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>157.540283203125</v>
+        <v>231.2802734375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>157.4404296875</v>
+        <v>230.60009765625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>156.4404296875</v>
+        <v>230.490234375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>155.0703125</v>
+        <v>230.390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>154.909912109375</v>
+        <v>228.940185546875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>154.449951171875</v>
+        <v>224.73974609375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>154.38037109375</v>
+        <v>224.39013671875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>154.23974609375</v>
+        <v>222.31005859375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>153.68017578125</v>
+        <v>221.100341796875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>152.43994140625</v>
+        <v>219.4599609375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>151.669921875</v>
+        <v>218.2099609375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B37">
-        <v>149.60009765625</v>
+        <v>218.030029296875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>148.77978515625</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>147.61962890625</v>
+        <v>216.1796875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>147.2900390625</v>
+        <v>215.69970703125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>147.27978515625</v>
+        <v>214.240478515625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>146.55029296875</v>
+        <v>212.4404296875</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>143.429931640625</v>
+        <v>210.989990234375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>142.8798828125</v>
+        <v>206.179931640625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>142.6298828125</v>
+        <v>206.08984375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>142.47998046875</v>
+        <v>203.60986328125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>141.2900390625</v>
+        <v>203.440185546875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>141.080078125</v>
+        <v>203.39990234375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>139.919921875</v>
+        <v>203.159912109375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>137</v>
+        <v>202.5400390625</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>136.68994140625</v>
+        <v>198.8798828125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>134.9599609375</v>
+        <v>197.97021484375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>134.610107421875</v>
+        <v>189.849853515625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>131.33984375</v>
+        <v>187.33984375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>129.110107421875</v>
+        <v>186.77978515625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>127.619873046875</v>
+        <v>184.35009765625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>125.079833984375</v>
+        <v>182.2900390625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>123.9501953125</v>
+        <v>179.510009765625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B59">
-        <v>114.169921875</v>
+        <v>168.18994140625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5744,15 +6035,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>110.909912109375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61">
-        <v>110.419921875</v>
+        <v>166.909912109375</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +6045,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5775,7 +6058,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5783,7 +6066,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5791,7 +6074,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5799,7 +6082,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5807,7 +6090,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5815,7 +6098,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5823,7 +6106,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5831,7 +6114,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5839,7 +6122,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5847,7 +6130,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5855,7 +6138,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5863,7 +6146,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5871,7 +6154,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5879,7 +6162,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5887,7 +6170,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5895,7 +6178,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5903,7 +6186,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5911,7 +6194,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5919,7 +6202,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5927,7 +6210,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5935,7 +6218,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5943,7 +6226,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5951,7 +6234,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5959,7 +6242,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5967,7 +6250,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5975,7 +6258,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5983,7 +6266,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5991,7 +6274,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5999,7 +6282,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6007,7 +6290,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6015,7 +6298,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6023,7 +6306,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6031,7 +6314,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6039,7 +6322,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6047,7 +6330,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6055,7 +6338,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6063,7 +6346,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6071,7 +6354,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6079,7 +6362,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6087,7 +6370,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6095,7 +6378,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6103,7 +6386,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6111,7 +6394,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6119,7 +6402,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6127,7 +6410,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6135,7 +6418,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6143,7 +6426,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6151,7 +6434,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6159,7 +6442,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6167,7 +6450,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6175,7 +6458,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6183,7 +6466,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6191,7 +6474,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6199,7 +6482,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6207,7 +6490,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6215,7 +6498,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6223,7 +6506,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6231,7 +6514,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6239,17 +6522,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -6260,7 +6535,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6273,7 +6548,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -6281,7 +6556,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -6289,7 +6564,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -6297,7 +6572,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -6305,7 +6580,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -6313,7 +6588,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -6321,7 +6596,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -6329,7 +6604,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -6337,7 +6612,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -6345,7 +6620,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -6353,7 +6628,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -6361,7 +6636,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -6369,7 +6644,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -6377,7 +6652,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -6385,7 +6660,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -6393,7 +6668,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -6401,7 +6676,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -6409,7 +6684,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -6417,7 +6692,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -6425,7 +6700,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -6433,7 +6708,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6441,7 +6716,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6449,7 +6724,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6457,7 +6732,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6465,289 +6740,281 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>72.97998046875</v>
+        <v>72.58984375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>72.58984375</v>
+        <v>72.5498046875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>72.5498046875</v>
+        <v>72.3798828125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>72.3798828125</v>
+        <v>72.2900390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>72.2900390625</v>
+        <v>72.240234375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>72.240234375</v>
+        <v>71.08984375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>71.08984375</v>
+        <v>70.18994140625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>70.18994140625</v>
+        <v>69.4501953125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>69.4501953125</v>
+        <v>69.39990234375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>69.39990234375</v>
+        <v>68.47998046875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>68.47998046875</v>
+        <v>68.39990234375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>68.39990234375</v>
+        <v>67.990234375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>67.990234375</v>
+        <v>67.68994140625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>67.68994140625</v>
+        <v>67.14013671875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>67.14013671875</v>
+        <v>66.68994140625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>66.68994140625</v>
+        <v>66.60009765625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>66.60009765625</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>66.5</v>
+        <v>66.2001953125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>66.2001953125</v>
+        <v>66.14990234375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>66.14990234375</v>
+        <v>65.39990234375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>65.39990234375</v>
+        <v>64.7900390625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>64.7900390625</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>64</v>
+        <v>63.64990234375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>63.64990234375</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>63.5</v>
+        <v>63.489990234375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>63.489990234375</v>
+        <v>63.080078125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>63.080078125</v>
+        <v>61.550048828125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>61.550048828125</v>
+        <v>61.14990234375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>61.14990234375</v>
+        <v>60.550048828125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>60.550048828125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>59</v>
+        <v>58.989990234375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>58.989990234375</v>
+        <v>56.3798828125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>56.3798828125</v>
+        <v>53.639892578125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>53.639892578125</v>
+        <v>50.030029296875</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>50.030029296875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>47.929931640625</v>
       </c>
     </row>
@@ -6758,7 +7025,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6771,66 +7038,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>104.169921875</v>
+        <v>195.5400390625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>103.6201171875</v>
+        <v>183.23974609375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>103.18994140625</v>
+        <v>182.240234375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>102.990234375</v>
+        <v>181.81005859375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>102.89013671875</v>
+        <v>180.52001953125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>99.39013671875</v>
+        <v>177.740234375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>96.990234375</v>
+        <v>177.18994140625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>96.7900390625</v>
+        <v>176.89013671875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6838,415 +7105,407 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>96.18994140625</v>
+        <v>173.18994140625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>95.2900390625</v>
+        <v>172.86962890625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>94.47998046875</v>
+        <v>168.39013671875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>93.0400390625</v>
+        <v>166.64013671875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>92.81982421875</v>
+        <v>165.81005859375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>91.8798828125</v>
+        <v>164.35986328125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>91.419921875</v>
+        <v>163.31005859375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>88.2900390625</v>
+        <v>162.91015625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>87.990234375</v>
+        <v>162.7099609375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>87.89013671875</v>
+        <v>161.490234375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>86.919921875</v>
+        <v>161.4599609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>86.490234375</v>
+        <v>161.42041015625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>86.39013671875</v>
+        <v>161.33984375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>86.39013671875</v>
+        <v>160.9404296875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>86.39013671875</v>
+        <v>159.60009765625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>85.990234375</v>
+        <v>159.43994140625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>85.990234375</v>
+        <v>157.1103515625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>83.0400390625</v>
+        <v>156.59033203125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>82.83984375</v>
+        <v>154.769775390625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>82.02001953125</v>
+        <v>154.5400390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>81.68994140625</v>
+        <v>154.4599609375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>81.1201171875</v>
+        <v>154.2099609375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>80.97021484375</v>
+        <v>152.91015625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>80.6201171875</v>
+        <v>152.91015625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B34">
-        <v>80.58984375</v>
+        <v>151.989990234375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>79.68994140625</v>
+        <v>150.9599609375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>79.2900390625</v>
+        <v>149.81005859375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>77.490234375</v>
+        <v>149.52001953125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>76.47998046875</v>
+        <v>148.810302734375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>76.18994140625</v>
+        <v>145.52001953125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>75.68994140625</v>
+        <v>144.93994140625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>74.490234375</v>
+        <v>143.58984375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>74.39013671875</v>
+        <v>141.60986328125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>73.83984375</v>
+        <v>139.409912109375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>73.31982421875</v>
+        <v>139.2099609375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>73.18994140625</v>
+        <v>138.89013671875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>72.89013671875</v>
+        <v>136.4697265625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>72.68994140625</v>
+        <v>134.960205078125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>71.39013671875</v>
+        <v>134.89013671875</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>71.22021484375</v>
+        <v>134.290283203125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>68.18994140625</v>
+        <v>131.489990234375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>67.81982421875</v>
+        <v>130.490234375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>67.68994140625</v>
+        <v>127.97021484375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>67.39013671875</v>
+        <v>127.7900390625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>60.8798828125</v>
+        <v>123.699951171875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>60.8701171875</v>
+        <v>123.300048828125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>60.449951171875</v>
+        <v>121.3798828125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>59.679931640625</v>
+        <v>120.419921875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>59.219970703125</v>
+        <v>116.8798828125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>56.820068359375</v>
+        <v>111.110107421875</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>55.179931640625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61">
-        <v>46.919921875</v>
+        <v>104.68994140625</v>
       </c>
     </row>
   </sheetData>
@@ -7256,7 +7515,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7269,7 +7528,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7277,7 +7536,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7285,7 +7544,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7293,7 +7552,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7301,7 +7560,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7309,7 +7568,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7317,7 +7576,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7325,7 +7584,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7333,7 +7592,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7341,7 +7600,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7349,7 +7608,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7357,7 +7616,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7365,7 +7624,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7373,7 +7632,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7381,7 +7640,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7389,7 +7648,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7397,7 +7656,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7405,7 +7664,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7413,7 +7672,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7421,7 +7680,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7429,7 +7688,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7437,7 +7696,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7445,7 +7704,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7453,7 +7712,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7461,7 +7720,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7469,7 +7728,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7477,7 +7736,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7485,7 +7744,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7493,7 +7752,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7501,7 +7760,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7509,7 +7768,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7517,7 +7776,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7525,7 +7784,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7533,7 +7792,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7541,7 +7800,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7549,7 +7808,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7557,7 +7816,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7565,7 +7824,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7573,7 +7832,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7581,7 +7840,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7589,7 +7848,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7597,7 +7856,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7605,7 +7864,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7613,7 +7872,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7621,7 +7880,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7629,7 +7888,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7637,7 +7896,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7645,7 +7904,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7653,7 +7912,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7661,7 +7920,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7669,7 +7928,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7677,7 +7936,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7685,7 +7944,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7693,7 +7952,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7701,7 +7960,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7709,7 +7968,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7717,7 +7976,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7725,7 +7984,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7733,17 +7992,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -7754,7 +8005,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7767,7 +8018,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7775,7 +8026,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7783,7 +8034,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7791,7 +8042,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7799,7 +8050,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7807,7 +8058,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7815,7 +8066,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7823,7 +8074,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7831,7 +8082,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7839,7 +8090,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7847,7 +8098,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7855,7 +8106,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7863,7 +8114,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7871,7 +8122,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7879,7 +8130,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7887,7 +8138,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7895,7 +8146,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7903,7 +8154,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7911,7 +8162,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7919,7 +8170,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7927,7 +8178,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7935,7 +8186,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7943,7 +8194,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7951,7 +8202,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7959,7 +8210,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7967,7 +8218,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7975,7 +8226,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7983,7 +8234,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7991,7 +8242,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7999,7 +8250,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8007,7 +8258,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8015,7 +8266,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8023,7 +8274,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8031,7 +8282,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8039,7 +8290,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8047,7 +8298,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8055,7 +8306,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8063,7 +8314,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8071,7 +8322,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8079,7 +8330,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8087,7 +8338,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8095,7 +8346,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8103,7 +8354,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8111,7 +8362,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8119,7 +8370,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8127,7 +8378,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8135,7 +8386,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8143,7 +8394,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8151,7 +8402,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8159,7 +8410,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8167,7 +8418,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8175,7 +8426,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8183,7 +8434,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8191,7 +8442,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8199,7 +8450,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8207,7 +8458,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8215,7 +8466,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8223,7 +8474,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8231,17 +8482,9 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
         <v>0</v>
       </c>
     </row>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="64">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Cril Futebol Club</t>
+  </si>
+  <si>
+    <t>Santo Ângelo United</t>
   </si>
   <si>
     <t>Lider_Rodada</t>
@@ -574,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1421,13 +1424,27 @@
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>72.97998046875</v>
+      </c>
+      <c r="C61">
+        <v>91.8798828125</v>
+      </c>
+      <c r="D61">
+        <v>76.52001953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1438,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1476,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1563,7 +1580,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1571,7 +1588,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1675,7 +1692,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1683,7 +1700,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1691,7 +1708,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1699,7 +1716,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1707,7 +1724,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1715,7 +1732,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1723,7 +1740,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1731,7 +1748,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1739,7 +1756,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1747,7 +1764,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1755,7 +1772,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1763,7 +1780,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1771,7 +1788,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1779,7 +1796,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1787,7 +1804,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1795,7 +1812,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1803,7 +1820,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1811,7 +1828,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1819,7 +1836,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1827,7 +1844,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1835,7 +1852,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1843,7 +1860,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1851,7 +1868,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1859,7 +1876,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1867,7 +1884,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1875,7 +1892,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1883,7 +1900,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1891,7 +1908,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1899,7 +1916,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1907,7 +1924,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1915,9 +1932,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -1928,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1949,7 +1974,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2053,7 +2078,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2061,7 +2086,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2165,7 +2190,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2173,7 +2198,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2181,7 +2206,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2189,7 +2214,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2197,7 +2222,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2205,7 +2230,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2213,7 +2238,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2221,7 +2246,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2229,7 +2254,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2237,7 +2262,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2245,7 +2270,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2253,7 +2278,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2261,7 +2286,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2269,7 +2294,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2277,7 +2302,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2285,7 +2310,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2293,7 +2318,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2301,7 +2326,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2309,7 +2334,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2317,7 +2342,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2325,7 +2350,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2333,7 +2358,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2341,7 +2366,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2349,7 +2374,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2357,7 +2382,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2365,7 +2390,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2373,7 +2398,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2381,7 +2406,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2389,7 +2414,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2397,7 +2422,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2405,9 +2430,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2451,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2439,7 +2472,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2543,7 +2576,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2551,7 +2584,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2655,7 +2688,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2663,7 +2696,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2671,7 +2704,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2679,7 +2712,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2687,7 +2720,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2695,7 +2728,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2703,7 +2736,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2711,7 +2744,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2719,7 +2752,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2727,7 +2760,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2735,7 +2768,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2743,7 +2776,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2751,7 +2784,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2759,7 +2792,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2767,7 +2800,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2775,7 +2808,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2783,7 +2816,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2791,7 +2824,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2799,7 +2832,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2807,7 +2840,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2815,7 +2848,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2823,7 +2856,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2831,7 +2864,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2839,7 +2872,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2847,7 +2880,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2855,7 +2888,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2863,7 +2896,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2871,7 +2904,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2879,7 +2912,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2887,7 +2920,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2895,9 +2928,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -2908,7 +2949,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,7 +2970,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3033,7 +3074,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3041,7 +3082,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3145,7 +3186,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3153,7 +3194,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3161,7 +3202,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3169,7 +3210,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3177,7 +3218,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3185,7 +3226,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3193,7 +3234,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3201,7 +3242,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3209,7 +3250,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3217,7 +3258,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3225,7 +3266,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3233,7 +3274,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3241,7 +3282,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3249,7 +3290,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3257,7 +3298,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3265,7 +3306,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3273,7 +3314,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3281,7 +3322,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3289,7 +3330,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3297,7 +3338,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3305,7 +3346,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3313,7 +3354,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3321,7 +3362,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3329,7 +3370,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3337,7 +3378,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3345,7 +3386,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3353,7 +3394,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3361,7 +3402,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3369,7 +3410,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3377,7 +3418,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3385,9 +3426,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3419,7 +3468,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3523,7 +3572,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3531,7 +3580,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3635,7 +3684,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3643,7 +3692,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3651,7 +3700,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3659,7 +3708,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3667,7 +3716,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3675,7 +3724,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3683,7 +3732,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3691,7 +3740,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3699,7 +3748,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3707,7 +3756,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3715,7 +3764,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3723,7 +3772,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3731,7 +3780,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3739,7 +3788,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3747,7 +3796,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3755,7 +3804,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3763,7 +3812,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3771,7 +3820,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3779,7 +3828,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3787,7 +3836,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3795,7 +3844,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3803,7 +3852,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3811,7 +3860,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3819,7 +3868,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3827,7 +3876,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3835,7 +3884,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3843,7 +3892,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3851,7 +3900,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3859,7 +3908,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3867,7 +3916,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3875,9 +3924,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -3888,7 +3945,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3909,7 +3966,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4013,7 +4070,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4021,7 +4078,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4125,7 +4182,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4133,7 +4190,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4141,7 +4198,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4149,7 +4206,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4157,7 +4214,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4165,7 +4222,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4173,7 +4230,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4181,7 +4238,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4189,7 +4246,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4197,7 +4254,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4205,7 +4262,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4213,7 +4270,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4221,7 +4278,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4229,7 +4286,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4237,7 +4294,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4245,7 +4302,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4253,7 +4310,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4261,7 +4318,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4269,7 +4326,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4277,7 +4334,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4285,7 +4342,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4293,7 +4350,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4301,7 +4358,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4309,7 +4366,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4317,7 +4374,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4325,7 +4382,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4333,7 +4390,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4341,7 +4398,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4349,7 +4406,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4357,7 +4414,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4365,9 +4422,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -4378,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5225,13 +5290,27 @@
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>72.97998046875</v>
+      </c>
+      <c r="C61">
+        <v>91.8798828125</v>
+      </c>
+      <c r="D61">
+        <v>76.52001953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>54</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5242,7 +5321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A61"/>
+  <dimension ref="A2:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5548,6 +5627,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5555,7 +5639,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5688,353 +5772,361 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>239.4697265625</v>
+        <v>241.3798828125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>236.9501953125</v>
+        <v>239.4697265625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>236.90966796875</v>
+        <v>236.9501953125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>236.75048828125</v>
+        <v>236.90966796875</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>236.0400390625</v>
+        <v>236.75048828125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>236</v>
+        <v>236.0400390625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>234.580078125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>233.83984375</v>
+        <v>234.580078125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>231.30029296875</v>
+        <v>233.83984375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B26">
-        <v>231.2802734375</v>
+        <v>231.30029296875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>230.60009765625</v>
+        <v>231.2802734375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>230.490234375</v>
+        <v>230.60009765625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>230.390625</v>
+        <v>230.490234375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>228.940185546875</v>
+        <v>230.390625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>224.73974609375</v>
+        <v>228.940185546875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>224.39013671875</v>
+        <v>224.73974609375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>222.31005859375</v>
+        <v>224.39013671875</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>221.100341796875</v>
+        <v>222.31005859375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>219.4599609375</v>
+        <v>221.100341796875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>218.2099609375</v>
+        <v>219.4599609375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>218.030029296875</v>
+        <v>218.2099609375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>216.5</v>
+        <v>218.030029296875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>216.1796875</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>215.69970703125</v>
+        <v>216.1796875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>214.240478515625</v>
+        <v>215.69970703125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>212.4404296875</v>
+        <v>214.240478515625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>210.989990234375</v>
+        <v>212.4404296875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>206.179931640625</v>
+        <v>210.989990234375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>206.08984375</v>
+        <v>206.179931640625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>203.60986328125</v>
+        <v>206.08984375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B47">
-        <v>203.440185546875</v>
+        <v>203.60986328125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B48">
-        <v>203.39990234375</v>
+        <v>203.440185546875</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>203.159912109375</v>
+        <v>203.39990234375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>202.5400390625</v>
+        <v>203.159912109375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>198.8798828125</v>
+        <v>202.5400390625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>197.97021484375</v>
+        <v>198.8798828125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>189.849853515625</v>
+        <v>197.97021484375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>187.33984375</v>
+        <v>189.849853515625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>186.77978515625</v>
+        <v>187.33984375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>184.35009765625</v>
+        <v>186.77978515625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>182.2900390625</v>
+        <v>184.35009765625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>179.510009765625</v>
+        <v>182.2900390625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>168.18994140625</v>
+        <v>179.510009765625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60">
+        <v>168.18994140625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>166.909912109375</v>
       </c>
     </row>
@@ -6045,7 +6137,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6066,7 +6158,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6170,7 +6262,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6178,7 +6270,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6282,7 +6374,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6290,7 +6382,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6298,7 +6390,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6306,7 +6398,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6314,7 +6406,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6322,7 +6414,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6330,7 +6422,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6338,7 +6430,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6346,7 +6438,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6354,7 +6446,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6362,7 +6454,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6370,7 +6462,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6378,7 +6470,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6386,7 +6478,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6394,7 +6486,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6402,7 +6494,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6410,7 +6502,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6418,7 +6510,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6426,7 +6518,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6434,7 +6526,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6442,7 +6534,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6450,7 +6542,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6458,7 +6550,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6466,7 +6558,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6474,7 +6566,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6482,7 +6574,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6490,7 +6582,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6498,7 +6590,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6506,7 +6598,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6514,7 +6606,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6522,9 +6614,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -6535,7 +6635,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6740,281 +6840,289 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B26">
-        <v>72.58984375</v>
+        <v>72.97998046875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>72.5498046875</v>
+        <v>72.58984375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>72.3798828125</v>
+        <v>72.5498046875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>72.2900390625</v>
+        <v>72.3798828125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>72.240234375</v>
+        <v>72.2900390625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>71.08984375</v>
+        <v>72.240234375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>70.18994140625</v>
+        <v>71.08984375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>69.4501953125</v>
+        <v>70.18994140625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>69.39990234375</v>
+        <v>69.4501953125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>68.47998046875</v>
+        <v>69.39990234375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>68.39990234375</v>
+        <v>68.47998046875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>67.990234375</v>
+        <v>68.39990234375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>67.68994140625</v>
+        <v>67.990234375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>67.14013671875</v>
+        <v>67.68994140625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>66.68994140625</v>
+        <v>67.14013671875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>66.60009765625</v>
+        <v>66.68994140625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>66.5</v>
+        <v>66.60009765625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>66.2001953125</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>66.14990234375</v>
+        <v>66.2001953125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>65.39990234375</v>
+        <v>66.14990234375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>64.7900390625</v>
+        <v>65.39990234375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>64</v>
+        <v>64.7900390625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>63.64990234375</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>63.5</v>
+        <v>63.64990234375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>63.489990234375</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>63.080078125</v>
+        <v>63.489990234375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>61.550048828125</v>
+        <v>63.080078125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>61.14990234375</v>
+        <v>61.550048828125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>60.550048828125</v>
+        <v>61.14990234375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>60.550048828125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>58.989990234375</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>56.3798828125</v>
+        <v>58.989990234375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>53.639892578125</v>
+        <v>56.3798828125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>50.030029296875</v>
+        <v>53.639892578125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>50.030029296875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>47.929931640625</v>
       </c>
     </row>
@@ -7025,7 +7133,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7118,175 +7226,175 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>168.39013671875</v>
+        <v>168.39990234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>166.64013671875</v>
+        <v>168.39013671875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>165.81005859375</v>
+        <v>166.64013671875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>164.35986328125</v>
+        <v>165.81005859375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>163.31005859375</v>
+        <v>164.35986328125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>162.91015625</v>
+        <v>163.31005859375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>162.7099609375</v>
+        <v>162.91015625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>161.490234375</v>
+        <v>162.7099609375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>161.4599609375</v>
+        <v>161.490234375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>161.42041015625</v>
+        <v>161.4599609375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>161.33984375</v>
+        <v>161.42041015625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>160.9404296875</v>
+        <v>161.33984375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>159.60009765625</v>
+        <v>160.9404296875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>159.43994140625</v>
+        <v>159.60009765625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>157.1103515625</v>
+        <v>159.43994140625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>156.59033203125</v>
+        <v>157.1103515625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>154.769775390625</v>
+        <v>156.59033203125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>154.5400390625</v>
+        <v>154.769775390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>154.4599609375</v>
+        <v>154.5400390625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>154.2099609375</v>
+        <v>154.4599609375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>152.91015625</v>
+        <v>154.2099609375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>152.91015625</v>
@@ -7294,217 +7402,225 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>151.989990234375</v>
+        <v>152.91015625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>150.9599609375</v>
+        <v>151.989990234375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>149.81005859375</v>
+        <v>150.9599609375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>149.52001953125</v>
+        <v>149.81005859375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>148.810302734375</v>
+        <v>149.52001953125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>145.52001953125</v>
+        <v>148.810302734375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>144.93994140625</v>
+        <v>145.52001953125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>143.58984375</v>
+        <v>144.93994140625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>141.60986328125</v>
+        <v>143.58984375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>139.409912109375</v>
+        <v>141.60986328125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B44">
-        <v>139.2099609375</v>
+        <v>139.409912109375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>138.89013671875</v>
+        <v>139.2099609375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>136.4697265625</v>
+        <v>138.89013671875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B47">
-        <v>134.960205078125</v>
+        <v>136.4697265625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B48">
-        <v>134.89013671875</v>
+        <v>134.960205078125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>134.290283203125</v>
+        <v>134.89013671875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>131.489990234375</v>
+        <v>134.290283203125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>130.490234375</v>
+        <v>131.489990234375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>127.97021484375</v>
+        <v>130.490234375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>127.7900390625</v>
+        <v>127.97021484375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>123.699951171875</v>
+        <v>127.7900390625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>123.300048828125</v>
+        <v>123.699951171875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>121.3798828125</v>
+        <v>123.300048828125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B57">
-        <v>120.419921875</v>
+        <v>121.3798828125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>116.8798828125</v>
+        <v>120.419921875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>111.110107421875</v>
+        <v>116.8798828125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>111.110107421875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>104.68994140625</v>
       </c>
     </row>
@@ -7515,7 +7631,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7536,7 +7652,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7640,7 +7756,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7648,7 +7764,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7752,7 +7868,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7760,7 +7876,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7768,7 +7884,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7776,7 +7892,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7784,7 +7900,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7792,7 +7908,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7800,7 +7916,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7808,7 +7924,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7816,7 +7932,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7824,7 +7940,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7832,7 +7948,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7840,7 +7956,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7848,7 +7964,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7856,7 +7972,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7864,7 +7980,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7872,7 +7988,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7880,7 +7996,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7888,7 +8004,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7896,7 +8012,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7904,7 +8020,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7912,7 +8028,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7920,7 +8036,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7928,7 +8044,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7936,7 +8052,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7944,7 +8060,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7952,7 +8068,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7960,7 +8076,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7968,7 +8084,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7976,7 +8092,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7984,7 +8100,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7992,9 +8108,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>
@@ -8005,7 +8129,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8026,7 +8150,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8130,7 +8254,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8138,7 +8262,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8242,7 +8366,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8250,7 +8374,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8258,7 +8382,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8266,7 +8390,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8274,7 +8398,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8282,7 +8406,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8290,7 +8414,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8298,7 +8422,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8306,7 +8430,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8314,7 +8438,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8322,7 +8446,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8330,7 +8454,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8338,7 +8462,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8346,7 +8470,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8354,7 +8478,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8362,7 +8486,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8370,7 +8494,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8378,7 +8502,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8386,7 +8510,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8394,7 +8518,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8402,7 +8526,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8410,7 +8534,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8418,7 +8542,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8426,7 +8550,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8434,7 +8558,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8442,7 +8566,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8450,7 +8574,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8458,7 +8582,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8466,7 +8590,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8474,7 +8598,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8482,9 +8606,17 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
     </row>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="65">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Rodada 3</t>
+  </si>
+  <si>
+    <t>Rodada 4</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -577,13 +580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,10 +596,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -607,10 +613,13 @@
       <c r="D2">
         <v>87.02001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>99.66015625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -621,10 +630,13 @@
       <c r="D3">
         <v>86.7998046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>79.580078125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -635,10 +647,13 @@
       <c r="D4">
         <v>87.0498046875</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>81.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -649,10 +664,13 @@
       <c r="D5">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>98.27001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -663,10 +681,13 @@
       <c r="D6">
         <v>95.5498046875</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>85.669921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -677,10 +698,13 @@
       <c r="D7">
         <v>85.52001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>91.7001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -691,10 +715,13 @@
       <c r="D8">
         <v>86.9501953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>85.009765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -705,10 +732,13 @@
       <c r="D9">
         <v>68.52001953125</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>77.27978515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -719,10 +749,13 @@
       <c r="D10">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>86.35986328125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -733,10 +766,13 @@
       <c r="D11">
         <v>77.419921875</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -747,10 +783,13 @@
       <c r="D12">
         <v>71.6201171875</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>74.56982421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -761,10 +800,13 @@
       <c r="D13">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>76.02978515625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -775,10 +817,13 @@
       <c r="D14">
         <v>58.6201171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>96.52978515625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -789,10 +834,13 @@
       <c r="D15">
         <v>48.300048828125</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>71.72021484375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -803,10 +851,13 @@
       <c r="D16">
         <v>84.7001953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>84.47998046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -817,10 +868,13 @@
       <c r="D17">
         <v>80.10009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>63.929931640625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -831,10 +885,13 @@
       <c r="D18">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>90.16015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -845,10 +902,13 @@
       <c r="D19">
         <v>58.60009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>91.39013671875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -859,10 +919,13 @@
       <c r="D20">
         <v>90.2001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>112.81005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -873,10 +936,13 @@
       <c r="D21">
         <v>63.300048828125</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>79.02978515625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -887,10 +953,13 @@
       <c r="D22">
         <v>70.10009765625</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>98.47998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -901,10 +970,13 @@
       <c r="D23">
         <v>68.419921875</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>109.06005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -915,10 +987,13 @@
       <c r="D24">
         <v>77.1201171875</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>88.31982421875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -929,10 +1004,13 @@
       <c r="D25">
         <v>75.10009765625</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -943,10 +1021,13 @@
       <c r="D26">
         <v>67.39990234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>119.31005859375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -957,10 +1038,13 @@
       <c r="D27">
         <v>82.669921875</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>106.6201171875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -971,10 +1055,13 @@
       <c r="D28">
         <v>82.169921875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>104.93017578125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -985,10 +1072,13 @@
       <c r="D29">
         <v>91.990234375</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>62.219970703125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -999,10 +1089,13 @@
       <c r="D30">
         <v>92.35009765625</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>75.6298828125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1013,10 +1106,13 @@
       <c r="D31">
         <v>56.39990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>99.68017578125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1027,10 +1123,13 @@
       <c r="D32">
         <v>77.919921875</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1041,10 +1140,13 @@
       <c r="D33">
         <v>72.9501953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>94.56005859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1055,10 +1157,13 @@
       <c r="D34">
         <v>83.60009765625</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>61.830078125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1069,10 +1174,13 @@
       <c r="D35">
         <v>53.840087890625</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>60.929931640625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1083,10 +1191,13 @@
       <c r="D36">
         <v>38.219970703125</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>77.06005859375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1097,10 +1208,13 @@
       <c r="D37">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>63.820068359375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1111,10 +1225,13 @@
       <c r="D38">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>79.85986328125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1125,10 +1242,13 @@
       <c r="D39">
         <v>68.64990234375</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1139,10 +1259,13 @@
       <c r="D40">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>93.18017578125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1153,10 +1276,13 @@
       <c r="D41">
         <v>99.5498046875</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1167,10 +1293,13 @@
       <c r="D42">
         <v>76.89990234375</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>76.509765625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1181,10 +1310,13 @@
       <c r="D43">
         <v>74.2998046875</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>119.10986328125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1195,10 +1327,13 @@
       <c r="D44">
         <v>47.219970703125</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>97.330078125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1209,10 +1344,13 @@
       <c r="D45">
         <v>61.699951171875</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>90.14990234375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1223,10 +1361,13 @@
       <c r="D46">
         <v>65.1201171875</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>108.16015625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1237,10 +1378,13 @@
       <c r="D47">
         <v>81.52001953125</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>78.6201171875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1251,10 +1395,13 @@
       <c r="D48">
         <v>71.2001953125</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>136.2099609375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -1265,10 +1412,13 @@
       <c r="D49">
         <v>57.77001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>89.27001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -1279,10 +1429,13 @@
       <c r="D50">
         <v>63.1201171875</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -1293,10 +1446,13 @@
       <c r="D51">
         <v>74.02001953125</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>80.259765625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -1307,10 +1463,13 @@
       <c r="D52">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>122.259765625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -1321,10 +1480,13 @@
       <c r="D53">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>51.6298828125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -1335,10 +1497,13 @@
       <c r="D54">
         <v>71.39990234375</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>90.6298828125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -1349,10 +1514,13 @@
       <c r="D55">
         <v>63.699951171875</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>86.72021484375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -1363,10 +1531,13 @@
       <c r="D56">
         <v>68.1201171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -1377,10 +1548,13 @@
       <c r="D57">
         <v>47.35009765625</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>102.56005859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -1391,10 +1565,13 @@
       <c r="D58">
         <v>68.5498046875</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>67.580078125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -1405,10 +1582,13 @@
       <c r="D59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>72.3701171875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -1419,10 +1599,13 @@
       <c r="D60">
         <v>59.719970703125</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>99.6298828125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -1433,19 +1616,25 @@
       <c r="D61">
         <v>76.52001953125</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>71.43017578125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1657,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1476,7 +1665,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1484,7 +1673,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1492,7 +1681,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1500,7 +1689,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1508,7 +1697,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1516,7 +1705,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1524,7 +1713,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1532,7 +1721,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1540,7 +1729,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1548,7 +1737,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1556,7 +1745,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1564,7 +1753,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1572,7 +1761,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1580,7 +1769,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1588,7 +1777,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1596,7 +1785,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1604,7 +1793,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1612,7 +1801,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1620,7 +1809,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1628,7 +1817,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1636,7 +1825,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1644,7 +1833,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1652,7 +1841,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1660,7 +1849,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1668,7 +1857,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1676,7 +1865,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1684,7 +1873,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1692,7 +1881,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1700,7 +1889,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1708,7 +1897,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1716,7 +1905,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1724,7 +1913,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1732,7 +1921,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1740,7 +1929,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1748,7 +1937,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1756,7 +1945,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1764,7 +1953,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1772,7 +1961,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1780,7 +1969,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1788,7 +1977,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1796,7 +1985,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1804,7 +1993,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1812,7 +2001,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1820,7 +2009,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1828,7 +2017,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1836,7 +2025,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1844,7 +2033,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1852,7 +2041,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1860,7 +2049,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1868,7 +2057,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1876,7 +2065,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1884,7 +2073,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +2081,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1900,7 +2089,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1908,7 +2097,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1916,7 +2105,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1924,7 +2113,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1932,7 +2121,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1940,7 +2129,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1966,7 +2155,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1974,7 +2163,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1982,7 +2171,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1990,7 +2179,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1998,7 +2187,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2006,7 +2195,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2014,7 +2203,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2022,7 +2211,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2030,7 +2219,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2038,7 +2227,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2046,7 +2235,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2054,7 +2243,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2062,7 +2251,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2070,7 +2259,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2078,7 +2267,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2086,7 +2275,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2094,7 +2283,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2102,7 +2291,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2110,7 +2299,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2118,7 +2307,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2126,7 +2315,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2134,7 +2323,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2142,7 +2331,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2150,7 +2339,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2158,7 +2347,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2166,7 +2355,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2174,7 +2363,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2182,7 +2371,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2190,7 +2379,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2198,7 +2387,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2206,7 +2395,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2214,7 +2403,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2222,7 +2411,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2230,7 +2419,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2238,7 +2427,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2246,7 +2435,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2254,7 +2443,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2262,7 +2451,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2270,7 +2459,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2278,7 +2467,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2286,7 +2475,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2294,7 +2483,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2302,7 +2491,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2310,7 +2499,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2318,7 +2507,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2326,7 +2515,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2334,7 +2523,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2342,7 +2531,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2350,7 +2539,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2358,7 +2547,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2366,7 +2555,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2374,7 +2563,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2382,7 +2571,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2390,7 +2579,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2398,7 +2587,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2406,7 +2595,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2414,7 +2603,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2422,7 +2611,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2430,7 +2619,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2438,7 +2627,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2464,7 +2653,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2472,7 +2661,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2480,7 +2669,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2488,7 +2677,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2496,7 +2685,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2504,7 +2693,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2512,7 +2701,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2520,7 +2709,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2528,7 +2717,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2536,7 +2725,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2544,7 +2733,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2552,7 +2741,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2560,7 +2749,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2568,7 +2757,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2576,7 +2765,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2584,7 +2773,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2592,7 +2781,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2600,7 +2789,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2608,7 +2797,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2616,7 +2805,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2624,7 +2813,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2632,7 +2821,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2640,7 +2829,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2648,7 +2837,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2656,7 +2845,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2664,7 +2853,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2672,7 +2861,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2680,7 +2869,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2688,7 +2877,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2696,7 +2885,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2704,7 +2893,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2712,7 +2901,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2720,7 +2909,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2728,7 +2917,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2736,7 +2925,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2744,7 +2933,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2752,7 +2941,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2760,7 +2949,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2768,7 +2957,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2776,7 +2965,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2784,7 +2973,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2792,7 +2981,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2800,7 +2989,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2808,7 +2997,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2816,7 +3005,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2824,7 +3013,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2832,7 +3021,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2840,7 +3029,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2848,7 +3037,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2856,7 +3045,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2864,7 +3053,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2872,7 +3061,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2880,7 +3069,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2888,7 +3077,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2896,7 +3085,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2904,7 +3093,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2912,7 +3101,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2920,7 +3109,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2928,7 +3117,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2936,7 +3125,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2962,7 +3151,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2970,7 +3159,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2978,7 +3167,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2986,7 +3175,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2994,7 +3183,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3002,7 +3191,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3010,7 +3199,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3018,7 +3207,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3026,7 +3215,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3034,7 +3223,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3042,7 +3231,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3050,7 +3239,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3058,7 +3247,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3066,7 +3255,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3074,7 +3263,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3082,7 +3271,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3090,7 +3279,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3098,7 +3287,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3106,7 +3295,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3114,7 +3303,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3122,7 +3311,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3130,7 +3319,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3138,7 +3327,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3146,7 +3335,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3154,7 +3343,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3162,7 +3351,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3170,7 +3359,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3178,7 +3367,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3186,7 +3375,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3194,7 +3383,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3202,7 +3391,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3210,7 +3399,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3218,7 +3407,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3226,7 +3415,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3234,7 +3423,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3242,7 +3431,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3250,7 +3439,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3258,7 +3447,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3266,7 +3455,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3274,7 +3463,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3282,7 +3471,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3290,7 +3479,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3298,7 +3487,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3306,7 +3495,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3314,7 +3503,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3322,7 +3511,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3330,7 +3519,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3338,7 +3527,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3346,7 +3535,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3354,7 +3543,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3362,7 +3551,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3370,7 +3559,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3378,7 +3567,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3386,7 +3575,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3394,7 +3583,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3402,7 +3591,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3410,7 +3599,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3418,7 +3607,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3426,7 +3615,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3434,7 +3623,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3460,7 +3649,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3468,7 +3657,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3476,7 +3665,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3484,7 +3673,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3492,7 +3681,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3500,7 +3689,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3508,7 +3697,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3516,7 +3705,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3524,7 +3713,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3532,7 +3721,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3540,7 +3729,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3548,7 +3737,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3556,7 +3745,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3564,7 +3753,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3572,7 +3761,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3580,7 +3769,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3588,7 +3777,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3596,7 +3785,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3604,7 +3793,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3612,7 +3801,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3620,7 +3809,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3628,7 +3817,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3636,7 +3825,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3644,7 +3833,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3652,7 +3841,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3660,7 +3849,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3668,7 +3857,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3676,7 +3865,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3684,7 +3873,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3692,7 +3881,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3700,7 +3889,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3708,7 +3897,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3716,7 +3905,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3724,7 +3913,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3732,7 +3921,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3740,7 +3929,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3748,7 +3937,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3756,7 +3945,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3764,7 +3953,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3772,7 +3961,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3780,7 +3969,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3788,7 +3977,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3796,7 +3985,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3804,7 +3993,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3812,7 +4001,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3820,7 +4009,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3828,7 +4017,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3836,7 +4025,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3844,7 +4033,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3852,7 +4041,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3860,7 +4049,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3868,7 +4057,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3876,7 +4065,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3884,7 +4073,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3892,7 +4081,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3900,7 +4089,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3908,7 +4097,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3916,7 +4105,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3924,7 +4113,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3932,7 +4121,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3958,7 +4147,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3966,7 +4155,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3974,7 +4163,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3982,7 +4171,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3990,7 +4179,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3998,7 +4187,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4006,7 +4195,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4014,7 +4203,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4022,7 +4211,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4030,7 +4219,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4038,7 +4227,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4046,7 +4235,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4054,7 +4243,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4062,7 +4251,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4070,7 +4259,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4078,7 +4267,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4086,7 +4275,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4094,7 +4283,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4102,7 +4291,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4110,7 +4299,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4118,7 +4307,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4126,7 +4315,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4134,7 +4323,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4142,7 +4331,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4150,7 +4339,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4158,7 +4347,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4166,7 +4355,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4174,7 +4363,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4182,7 +4371,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4190,7 +4379,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4198,7 +4387,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4206,7 +4395,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4214,7 +4403,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4222,7 +4411,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4230,7 +4419,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4238,7 +4427,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4246,7 +4435,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4254,7 +4443,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4262,7 +4451,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4270,7 +4459,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4278,7 +4467,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4286,7 +4475,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4294,7 +4483,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4302,7 +4491,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4310,7 +4499,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4318,7 +4507,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4326,7 +4515,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4334,7 +4523,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4342,7 +4531,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4350,7 +4539,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4358,7 +4547,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4366,7 +4555,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4374,7 +4563,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4382,7 +4571,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4390,7 +4579,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4398,7 +4587,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4406,7 +4595,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4414,7 +4603,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4422,7 +4611,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4430,7 +4619,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4443,13 +4632,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4459,10 +4648,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -4473,10 +4665,13 @@
       <c r="D2">
         <v>87.02001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>99.66015625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -4487,10 +4682,13 @@
       <c r="D3">
         <v>86.7998046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>79.580078125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -4501,10 +4699,13 @@
       <c r="D4">
         <v>87.0498046875</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>81.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -4515,10 +4716,13 @@
       <c r="D5">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>98.27001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -4529,10 +4733,13 @@
       <c r="D6">
         <v>95.5498046875</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>85.669921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -4543,10 +4750,13 @@
       <c r="D7">
         <v>85.52001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>91.7001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -4557,10 +4767,13 @@
       <c r="D8">
         <v>86.9501953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>85.009765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -4571,10 +4784,13 @@
       <c r="D9">
         <v>68.52001953125</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>77.27978515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -4585,10 +4801,13 @@
       <c r="D10">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>86.35986328125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -4599,10 +4818,13 @@
       <c r="D11">
         <v>77.419921875</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -4613,10 +4835,13 @@
       <c r="D12">
         <v>71.6201171875</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>74.56982421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -4627,10 +4852,13 @@
       <c r="D13">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>76.02978515625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -4641,10 +4869,13 @@
       <c r="D14">
         <v>58.6201171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>96.52978515625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -4655,10 +4886,13 @@
       <c r="D15">
         <v>48.300048828125</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>71.72021484375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -4669,10 +4903,13 @@
       <c r="D16">
         <v>84.7001953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>84.47998046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -4683,10 +4920,13 @@
       <c r="D17">
         <v>80.10009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>63.929931640625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -4697,10 +4937,13 @@
       <c r="D18">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>90.16015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -4711,10 +4954,13 @@
       <c r="D19">
         <v>58.60009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>91.39013671875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -4725,10 +4971,13 @@
       <c r="D20">
         <v>90.2001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>112.81005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -4739,10 +4988,13 @@
       <c r="D21">
         <v>63.300048828125</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>79.02978515625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -4753,10 +5005,13 @@
       <c r="D22">
         <v>70.10009765625</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>98.47998046875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -4767,10 +5022,13 @@
       <c r="D23">
         <v>68.419921875</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>109.06005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -4781,10 +5039,13 @@
       <c r="D24">
         <v>77.1201171875</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>88.31982421875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -4795,10 +5056,13 @@
       <c r="D25">
         <v>75.10009765625</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -4809,10 +5073,13 @@
       <c r="D26">
         <v>67.39990234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>119.31005859375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -4823,10 +5090,13 @@
       <c r="D27">
         <v>82.669921875</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>106.6201171875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -4837,10 +5107,13 @@
       <c r="D28">
         <v>82.169921875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>104.93017578125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -4851,10 +5124,13 @@
       <c r="D29">
         <v>91.990234375</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>62.219970703125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -4865,10 +5141,13 @@
       <c r="D30">
         <v>92.35009765625</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>75.6298828125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -4879,10 +5158,13 @@
       <c r="D31">
         <v>56.39990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>99.68017578125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -4893,10 +5175,13 @@
       <c r="D32">
         <v>77.919921875</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -4907,10 +5192,13 @@
       <c r="D33">
         <v>72.9501953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>94.56005859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -4921,10 +5209,13 @@
       <c r="D34">
         <v>83.60009765625</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>61.830078125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -4935,10 +5226,13 @@
       <c r="D35">
         <v>53.840087890625</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>60.929931640625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -4949,10 +5243,13 @@
       <c r="D36">
         <v>38.219970703125</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>77.06005859375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -4963,10 +5260,13 @@
       <c r="D37">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>63.820068359375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -4977,10 +5277,13 @@
       <c r="D38">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>79.85986328125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -4991,10 +5294,13 @@
       <c r="D39">
         <v>68.64990234375</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -5005,10 +5311,13 @@
       <c r="D40">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>93.18017578125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -5019,10 +5328,13 @@
       <c r="D41">
         <v>99.5498046875</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -5033,10 +5345,13 @@
       <c r="D42">
         <v>76.89990234375</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>76.509765625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -5047,10 +5362,13 @@
       <c r="D43">
         <v>74.2998046875</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>119.10986328125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -5061,10 +5379,13 @@
       <c r="D44">
         <v>47.219970703125</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>97.330078125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -5075,10 +5396,13 @@
       <c r="D45">
         <v>61.699951171875</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>90.14990234375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -5089,10 +5413,13 @@
       <c r="D46">
         <v>65.1201171875</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>108.16015625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -5103,10 +5430,13 @@
       <c r="D47">
         <v>81.52001953125</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>78.6201171875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -5117,10 +5447,13 @@
       <c r="D48">
         <v>71.2001953125</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>136.2099609375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -5131,10 +5464,13 @@
       <c r="D49">
         <v>57.77001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>89.27001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -5145,10 +5481,13 @@
       <c r="D50">
         <v>63.1201171875</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -5159,10 +5498,13 @@
       <c r="D51">
         <v>74.02001953125</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>80.259765625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -5173,10 +5515,13 @@
       <c r="D52">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>122.259765625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -5187,10 +5532,13 @@
       <c r="D53">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>51.6298828125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -5201,10 +5549,13 @@
       <c r="D54">
         <v>71.39990234375</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>90.6298828125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -5215,10 +5566,13 @@
       <c r="D55">
         <v>63.699951171875</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>86.72021484375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -5229,10 +5583,13 @@
       <c r="D56">
         <v>68.1201171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -5243,10 +5600,13 @@
       <c r="D57">
         <v>47.35009765625</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>102.56005859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -5257,10 +5617,13 @@
       <c r="D58">
         <v>68.5498046875</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>67.580078125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -5271,10 +5634,13 @@
       <c r="D59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>72.3701171875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -5285,10 +5651,13 @@
       <c r="D60">
         <v>59.719970703125</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>99.6298828125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -5299,19 +5668,25 @@
       <c r="D61">
         <v>76.52001953125</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>71.43017578125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5329,307 +5704,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5652,442 +6027,442 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>279.6298828125</v>
+        <v>366.4599609375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B3">
-        <v>273.52978515625</v>
+        <v>365.619873046875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>267.7802734375</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>266.93017578125</v>
+        <v>360.68994140625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>266.7998046875</v>
+        <v>353.10986328125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>257.0400390625</v>
+        <v>351.93994140625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>255.68994140625</v>
+        <v>351.5703125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>253.30029296875</v>
+        <v>349.560546875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>249.999755859375</v>
+        <v>343.52978515625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>247.02001953125</v>
+        <v>343.41015625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>246.76025390625</v>
+        <v>341.52001953125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>245.330078125</v>
+        <v>338.77001953125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>243.39013671875</v>
+        <v>338.75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>243.360107421875</v>
+        <v>338.46044921875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>242.1201171875</v>
+        <v>335.669677734375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>241.3798828125</v>
+        <v>335.48974609375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>239.4697265625</v>
+        <v>334.33984375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>236.9501953125</v>
+        <v>332.55029296875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>236.90966796875</v>
+        <v>329.76025390625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>236.75048828125</v>
+        <v>324.95068359375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>236.0400390625</v>
+        <v>324.85009765625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>236</v>
+        <v>324.759765625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>234.580078125</v>
+        <v>323.52978515625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>233.83984375</v>
+        <v>322.60986328125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>231.30029296875</v>
+        <v>320.650390625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>231.2802734375</v>
+        <v>319.619873046875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B28">
-        <v>230.60009765625</v>
+        <v>319.570068359375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>230.490234375</v>
+        <v>316.06005859375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>230.390625</v>
+        <v>315.98974609375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>228.940185546875</v>
+        <v>313.7001953125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>224.73974609375</v>
+        <v>313.0595703125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>224.39013671875</v>
+        <v>312.900146484375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B34">
-        <v>222.31005859375</v>
+        <v>312.81005859375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>221.100341796875</v>
+        <v>311.93994140625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>219.4599609375</v>
+        <v>311.52001953125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>218.2099609375</v>
+        <v>310.4599609375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>218.030029296875</v>
+        <v>309.68017578125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>216.5</v>
+        <v>298.56005859375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>216.1796875</v>
+        <v>297.8701171875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>215.69970703125</v>
+        <v>297.710205078125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>214.240478515625</v>
+        <v>296.830078125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>212.4404296875</v>
+        <v>295.120361328125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>210.989990234375</v>
+        <v>289.759765625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>206.179931640625</v>
+        <v>288.47021484375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>206.08984375</v>
+        <v>287.179931640625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B47">
-        <v>203.60986328125</v>
+        <v>286.9697265625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>203.440185546875</v>
+        <v>286.91015625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>203.39990234375</v>
+        <v>285.960693359375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>203.159912109375</v>
+        <v>285.209716796875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>202.5400390625</v>
+        <v>283.3203125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B52">
-        <v>198.8798828125</v>
+        <v>280.9697265625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>197.97021484375</v>
+        <v>278.22998046875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>189.849853515625</v>
+        <v>276.9296875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>187.33984375</v>
+        <v>270.739990234375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B56">
-        <v>186.77978515625</v>
+        <v>264.3701171875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6095,39 +6470,39 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>184.35009765625</v>
+        <v>259.2900390625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58">
-        <v>182.2900390625</v>
+        <v>257.7197265625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>179.510009765625</v>
+        <v>257.4599609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>168.18994140625</v>
+        <v>256.570068359375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>166.909912109375</v>
+        <v>239.280029296875</v>
       </c>
     </row>
   </sheetData>
@@ -6150,7 +6525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6158,7 +6533,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6166,7 +6541,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6174,7 +6549,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6182,7 +6557,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6190,7 +6565,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6198,7 +6573,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6206,7 +6581,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6214,7 +6589,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6222,7 +6597,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6230,7 +6605,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6238,7 +6613,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6246,7 +6621,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6254,7 +6629,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6262,7 +6637,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6270,7 +6645,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6278,7 +6653,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6286,7 +6661,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6294,7 +6669,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6302,7 +6677,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6310,7 +6685,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6318,7 +6693,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6326,7 +6701,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6334,7 +6709,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6342,7 +6717,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6350,7 +6725,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6358,7 +6733,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6366,7 +6741,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6374,7 +6749,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6382,7 +6757,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6390,7 +6765,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6398,7 +6773,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6406,7 +6781,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6414,7 +6789,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6422,7 +6797,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6430,7 +6805,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6438,7 +6813,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6446,7 +6821,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6454,7 +6829,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6462,7 +6837,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6470,7 +6845,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6478,7 +6853,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6486,7 +6861,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6494,7 +6869,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6502,7 +6877,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6510,7 +6885,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6518,7 +6893,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6526,7 +6901,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6534,7 +6909,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6542,7 +6917,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6550,7 +6925,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6558,7 +6933,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6566,7 +6941,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6574,7 +6949,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6582,7 +6957,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6590,7 +6965,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6598,7 +6973,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6606,7 +6981,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6614,7 +6989,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6622,7 +6997,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6648,7 +7023,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -6656,7 +7031,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -6664,7 +7039,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -6672,7 +7047,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -6680,7 +7055,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -6688,7 +7063,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -6696,7 +7071,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -6704,7 +7079,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -6712,7 +7087,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -6720,7 +7095,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -6728,7 +7103,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -6736,7 +7111,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -6744,7 +7119,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -6752,7 +7127,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -6760,7 +7135,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -6768,7 +7143,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -6776,7 +7151,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -6784,7 +7159,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -6792,7 +7167,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -6800,7 +7175,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -6808,7 +7183,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6816,7 +7191,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6824,7 +7199,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6832,7 +7207,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6840,7 +7215,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -6848,7 +7223,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -6856,7 +7231,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -6864,7 +7239,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -6872,7 +7247,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -6880,7 +7255,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -6888,7 +7263,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -6896,7 +7271,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -6904,7 +7279,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -6912,7 +7287,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -6920,7 +7295,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -6928,7 +7303,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -6936,7 +7311,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -6944,7 +7319,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -6952,7 +7327,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -6960,7 +7335,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -6968,7 +7343,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -6976,7 +7351,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -6984,7 +7359,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -6992,7 +7367,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -7000,7 +7375,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -7008,7 +7383,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -7016,7 +7391,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -7024,7 +7399,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -7032,7 +7407,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -7040,7 +7415,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -7048,7 +7423,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -7056,7 +7431,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -7064,7 +7439,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -7072,7 +7447,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -7080,7 +7455,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -7088,7 +7463,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -7096,7 +7471,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -7104,7 +7479,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -7112,7 +7487,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -7120,7 +7495,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -7146,178 +7521,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>195.5400390625</v>
+        <v>304.06982421875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>183.23974609375</v>
+        <v>296.2998046875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>182.240234375</v>
+        <v>275.10009765625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>181.81005859375</v>
+        <v>274.23046875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>180.52001953125</v>
+        <v>271.169921875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>177.740234375</v>
+        <v>270.97998046875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>177.18994140625</v>
+        <v>267.76025390625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>176.89013671875</v>
+        <v>267.73974609375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>173.18994140625</v>
+        <v>267.25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>172.86962890625</v>
+        <v>266.39013671875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>168.39990234375</v>
+        <v>264.2998046875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>168.39013671875</v>
+        <v>262.89990234375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>166.64013671875</v>
+        <v>262.3701171875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>165.81005859375</v>
+        <v>262.22021484375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B16">
-        <v>164.35986328125</v>
+        <v>259.02001953125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>163.31005859375</v>
+        <v>257.02978515625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>162.91015625</v>
+        <v>255.50048828125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>162.7099609375</v>
+        <v>255.38037109375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>161.490234375</v>
+        <v>255.0703125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>161.4599609375</v>
+        <v>252.77001953125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>161.42041015625</v>
+        <v>250.669921875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>161.33984375</v>
+        <v>249.41015625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7325,303 +7700,303 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>160.9404296875</v>
+        <v>245.8701171875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>159.60009765625</v>
+        <v>244.6103515625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>159.43994140625</v>
+        <v>243.0703125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>157.1103515625</v>
+        <v>242.990234375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B28">
-        <v>156.59033203125</v>
+        <v>242.77001953125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>154.769775390625</v>
+        <v>242.169921875</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>154.5400390625</v>
+        <v>240.820068359375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>154.4599609375</v>
+        <v>240.439697265625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>154.2099609375</v>
+        <v>239.830078125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>152.91015625</v>
+        <v>239.27978515625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>152.91015625</v>
+        <v>239.039794921875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>151.989990234375</v>
+        <v>238.85009765625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>150.9599609375</v>
+        <v>238.710205078125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>149.81005859375</v>
+        <v>238.61962890625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>149.52001953125</v>
+        <v>236.91015625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>148.810302734375</v>
+        <v>235.73974609375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>145.52001953125</v>
+        <v>232.830078125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>144.93994140625</v>
+        <v>230.5302734375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>143.58984375</v>
+        <v>229.02978515625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>141.60986328125</v>
+        <v>228.47021484375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>139.409912109375</v>
+        <v>227.47021484375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>139.2099609375</v>
+        <v>227.130126953125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>138.89013671875</v>
+        <v>221.030029296875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <v>136.4697265625</v>
+        <v>217.10009765625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>134.960205078125</v>
+        <v>215.14990234375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>134.89013671875</v>
+        <v>213.82958984375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>134.290283203125</v>
+        <v>211.52978515625</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B51">
-        <v>131.489990234375</v>
+        <v>211.0302734375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>130.490234375</v>
+        <v>210.519775390625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>127.97021484375</v>
+        <v>206.77978515625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>127.7900390625</v>
+        <v>206.52001953125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>123.699951171875</v>
+        <v>206.010498046875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>123.300048828125</v>
+        <v>200.300048828125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>121.3798828125</v>
+        <v>196.56982421875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>120.419921875</v>
+        <v>195.89013671875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>116.8798828125</v>
+        <v>193.9599609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>111.110107421875</v>
+        <v>189.25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B61">
-        <v>104.68994140625</v>
+        <v>188.170166015625</v>
       </c>
     </row>
   </sheetData>
@@ -7644,7 +8019,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7652,7 +8027,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7660,7 +8035,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7668,7 +8043,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7676,7 +8051,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7684,7 +8059,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7692,7 +8067,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7700,7 +8075,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7708,7 +8083,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7716,7 +8091,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7724,7 +8099,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7732,7 +8107,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7740,7 +8115,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7748,7 +8123,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7756,7 +8131,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7764,7 +8139,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7772,7 +8147,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7780,7 +8155,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7788,7 +8163,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7796,7 +8171,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7804,7 +8179,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7812,7 +8187,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7820,7 +8195,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7828,7 +8203,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7836,7 +8211,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7844,7 +8219,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7852,7 +8227,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7860,7 +8235,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7868,7 +8243,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7876,7 +8251,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7884,7 +8259,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7892,7 +8267,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7900,7 +8275,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7908,7 +8283,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7916,7 +8291,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7924,7 +8299,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7932,7 +8307,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7940,7 +8315,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7948,7 +8323,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7956,7 +8331,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7964,7 +8339,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7972,7 +8347,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7980,7 +8355,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7988,7 +8363,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7996,7 +8371,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8004,7 +8379,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8012,7 +8387,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8020,7 +8395,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8028,7 +8403,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8036,7 +8411,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8044,7 +8419,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8052,7 +8427,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8060,7 +8435,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8068,7 +8443,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8076,7 +8451,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8084,7 +8459,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8092,7 +8467,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8100,7 +8475,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8108,7 +8483,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8116,7 +8491,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8142,7 +8517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8150,7 +8525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8158,7 +8533,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8166,7 +8541,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8174,7 +8549,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8182,7 +8557,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8190,7 +8565,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8198,7 +8573,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8206,7 +8581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8214,7 +8589,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8222,7 +8597,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8230,7 +8605,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8238,7 +8613,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8246,7 +8621,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8254,7 +8629,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8262,7 +8637,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8270,7 +8645,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8278,7 +8653,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8286,7 +8661,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8294,7 +8669,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8302,7 +8677,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8310,7 +8685,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8318,7 +8693,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8326,7 +8701,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8334,7 +8709,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8342,7 +8717,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8350,7 +8725,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8358,7 +8733,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8366,7 +8741,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8374,7 +8749,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8382,7 +8757,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8390,7 +8765,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8398,7 +8773,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8406,7 +8781,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8414,7 +8789,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8422,7 +8797,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8430,7 +8805,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8438,7 +8813,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8446,7 +8821,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8454,7 +8829,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8462,7 +8837,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8470,7 +8845,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8478,7 +8853,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8486,7 +8861,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8494,7 +8869,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8502,7 +8877,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8510,7 +8885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8518,7 +8893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8526,7 +8901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8534,7 +8909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8542,7 +8917,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8550,7 +8925,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8558,7 +8933,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8566,7 +8941,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8574,7 +8949,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8582,7 +8957,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8590,7 +8965,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8598,7 +8973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8606,7 +8981,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8614,7 +8989,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="66">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Rodada 4</t>
+  </si>
+  <si>
+    <t>Rodada 5</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -580,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,10 +602,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -616,10 +622,13 @@
       <c r="E2">
         <v>99.66015625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -633,10 +642,13 @@
       <c r="E3">
         <v>79.580078125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>73.009765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -650,10 +662,13 @@
       <c r="E4">
         <v>81.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -667,10 +682,13 @@
       <c r="E5">
         <v>98.27001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>92.72998046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -684,10 +702,13 @@
       <c r="E6">
         <v>85.669921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>86.02978515625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -701,10 +722,13 @@
       <c r="E7">
         <v>91.7001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>86.47998046875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -718,10 +742,13 @@
       <c r="E8">
         <v>85.009765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>73.919921875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -735,10 +762,13 @@
       <c r="E9">
         <v>77.27978515625</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>57.919921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -752,10 +782,13 @@
       <c r="E10">
         <v>86.35986328125</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -769,10 +802,13 @@
       <c r="E11">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>86.77001953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -786,10 +822,13 @@
       <c r="E12">
         <v>74.56982421875</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>67.22998046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -803,10 +842,13 @@
       <c r="E13">
         <v>76.02978515625</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>53.52001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -820,10 +862,13 @@
       <c r="E14">
         <v>96.52978515625</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>84.97998046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -837,10 +882,13 @@
       <c r="E15">
         <v>71.72021484375</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>77.080078125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -854,10 +902,13 @@
       <c r="E16">
         <v>84.47998046875</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>72.60986328125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -871,10 +922,13 @@
       <c r="E17">
         <v>63.929931640625</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>74.52001953125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -888,10 +942,13 @@
       <c r="E18">
         <v>90.16015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>81.02001953125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -905,10 +962,13 @@
       <c r="E19">
         <v>91.39013671875</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>64.1201171875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -922,10 +982,13 @@
       <c r="E20">
         <v>112.81005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>71.31005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -939,10 +1002,13 @@
       <c r="E21">
         <v>79.02978515625</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>74.3701171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -956,10 +1022,13 @@
       <c r="E22">
         <v>98.47998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>86.22021484375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -973,10 +1042,13 @@
       <c r="E23">
         <v>109.06005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>87.27001953125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -990,10 +1062,13 @@
       <c r="E24">
         <v>88.31982421875</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>76.419921875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1007,10 +1082,13 @@
       <c r="E25">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>80.919921875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1024,10 +1102,13 @@
       <c r="E26">
         <v>119.31005859375</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>86.6201171875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1041,10 +1122,13 @@
       <c r="E27">
         <v>106.6201171875</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>73.52978515625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1058,10 +1142,13 @@
       <c r="E28">
         <v>104.93017578125</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>66.22021484375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1075,10 +1162,13 @@
       <c r="E29">
         <v>62.219970703125</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>72.02001953125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1092,10 +1182,13 @@
       <c r="E30">
         <v>75.6298828125</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>84.60986328125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1109,10 +1202,13 @@
       <c r="E31">
         <v>99.68017578125</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>67.6201171875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1126,10 +1222,13 @@
       <c r="E32">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>82.18017578125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1143,10 +1242,13 @@
       <c r="E33">
         <v>94.56005859375</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>91.02001953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1160,10 +1262,13 @@
       <c r="E34">
         <v>61.830078125</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>62.409912109375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1177,10 +1282,13 @@
       <c r="E35">
         <v>60.929931640625</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>72.330078125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1194,10 +1302,13 @@
       <c r="E36">
         <v>77.06005859375</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>69.919921875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1211,10 +1322,13 @@
       <c r="E37">
         <v>63.820068359375</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>80.3798828125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1228,10 +1342,13 @@
       <c r="E38">
         <v>79.85986328125</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>71.31982421875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1245,10 +1362,13 @@
       <c r="E39">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>59.919921875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1262,10 +1382,13 @@
       <c r="E40">
         <v>93.18017578125</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1279,10 +1402,13 @@
       <c r="E41">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>83.02978515625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1296,10 +1422,13 @@
       <c r="E42">
         <v>76.509765625</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>70.41015625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1313,10 +1442,13 @@
       <c r="E43">
         <v>119.10986328125</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>69.93017578125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1330,10 +1462,13 @@
       <c r="E44">
         <v>97.330078125</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>88.580078125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1347,10 +1482,13 @@
       <c r="E45">
         <v>90.14990234375</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>58.429931640625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1364,10 +1502,13 @@
       <c r="E46">
         <v>108.16015625</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>83.47998046875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1381,10 +1522,13 @@
       <c r="E47">
         <v>78.6201171875</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>69.3798828125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1398,10 +1542,13 @@
       <c r="E48">
         <v>136.2099609375</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>103.56982421875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -1415,10 +1562,13 @@
       <c r="E49">
         <v>89.27001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>80.8798828125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -1432,10 +1582,13 @@
       <c r="E50">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>93.47021484375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -1449,10 +1602,13 @@
       <c r="E51">
         <v>80.259765625</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>60.14990234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -1466,10 +1622,13 @@
       <c r="E52">
         <v>122.259765625</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>63.39990234375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -1483,10 +1642,13 @@
       <c r="E53">
         <v>51.6298828125</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>84.68017578125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -1500,10 +1662,13 @@
       <c r="E54">
         <v>90.6298828125</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>85.31982421875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -1517,10 +1682,13 @@
       <c r="E55">
         <v>86.72021484375</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>81.72021484375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -1534,10 +1702,13 @@
       <c r="E56">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>40.199951171875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -1551,10 +1722,13 @@
       <c r="E57">
         <v>102.56005859375</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>56.8798828125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -1568,10 +1742,13 @@
       <c r="E58">
         <v>67.580078125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>74.91015625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -1585,10 +1762,13 @@
       <c r="E59">
         <v>72.3701171875</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>54.510009765625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -1602,10 +1782,13 @@
       <c r="E60">
         <v>99.6298828125</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>49.18994140625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -1619,22 +1802,28 @@
       <c r="E61">
         <v>71.43017578125</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>85.1298828125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1846,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1665,7 +1854,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1673,7 +1862,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1681,7 +1870,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1689,7 +1878,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1697,7 +1886,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1705,7 +1894,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1713,7 +1902,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1721,7 +1910,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1729,7 +1918,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1737,7 +1926,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1745,7 +1934,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1753,7 +1942,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1761,7 +1950,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1769,7 +1958,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1777,7 +1966,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1785,7 +1974,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1793,7 +1982,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1801,7 +1990,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1809,7 +1998,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1817,7 +2006,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1825,7 +2014,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1833,7 +2022,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1841,7 +2030,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1849,7 +2038,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1857,7 +2046,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1865,7 +2054,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1873,7 +2062,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1881,7 +2070,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1889,7 +2078,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1897,7 +2086,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1905,7 +2094,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1913,7 +2102,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1921,7 +2110,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1929,7 +2118,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1937,7 +2126,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1945,7 +2134,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1953,7 +2142,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1961,7 +2150,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1969,7 +2158,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1977,7 +2166,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1985,7 +2174,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1993,7 +2182,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2001,7 +2190,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2009,7 +2198,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2017,7 +2206,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2025,7 +2214,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2033,7 +2222,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2041,7 +2230,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2049,7 +2238,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2057,7 +2246,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2065,7 +2254,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2073,7 +2262,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2081,7 +2270,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2089,7 +2278,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2097,7 +2286,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2105,7 +2294,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2113,7 +2302,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2121,7 +2310,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2129,7 +2318,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2155,7 +2344,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2163,7 +2352,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2171,7 +2360,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2179,7 +2368,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2187,7 +2376,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2195,7 +2384,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2203,7 +2392,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2211,7 +2400,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2219,7 +2408,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2227,7 +2416,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2235,7 +2424,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2243,7 +2432,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2251,7 +2440,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2259,7 +2448,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2267,7 +2456,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2275,7 +2464,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2283,7 +2472,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2291,7 +2480,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2299,7 +2488,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2307,7 +2496,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2315,7 +2504,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2323,7 +2512,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2331,7 +2520,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2339,7 +2528,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2347,7 +2536,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2355,7 +2544,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2363,7 +2552,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2371,7 +2560,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2379,7 +2568,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2387,7 +2576,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2395,7 +2584,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2403,7 +2592,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2411,7 +2600,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2419,7 +2608,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2427,7 +2616,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2435,7 +2624,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2443,7 +2632,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2451,7 +2640,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2459,7 +2648,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2467,7 +2656,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2475,7 +2664,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2483,7 +2672,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2491,7 +2680,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2499,7 +2688,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2507,7 +2696,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2515,7 +2704,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2523,7 +2712,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2531,7 +2720,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2539,7 +2728,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2547,7 +2736,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2555,7 +2744,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2563,7 +2752,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2571,7 +2760,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2579,7 +2768,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2587,7 +2776,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2595,7 +2784,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2603,7 +2792,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2611,7 +2800,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2619,7 +2808,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2627,7 +2816,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2653,7 +2842,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2661,7 +2850,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2669,7 +2858,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2677,7 +2866,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2685,7 +2874,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2693,7 +2882,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2701,7 +2890,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2709,7 +2898,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2717,7 +2906,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2725,7 +2914,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2733,7 +2922,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2741,7 +2930,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2749,7 +2938,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2757,7 +2946,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2765,7 +2954,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2773,7 +2962,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2781,7 +2970,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2789,7 +2978,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2797,7 +2986,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2805,7 +2994,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2813,7 +3002,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2821,7 +3010,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2829,7 +3018,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2837,7 +3026,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2845,7 +3034,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2853,7 +3042,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2861,7 +3050,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2869,7 +3058,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2877,7 +3066,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2885,7 +3074,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2893,7 +3082,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2901,7 +3090,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2909,7 +3098,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2917,7 +3106,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2925,7 +3114,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2933,7 +3122,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2941,7 +3130,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2949,7 +3138,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2957,7 +3146,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2965,7 +3154,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2973,7 +3162,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2981,7 +3170,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2989,7 +3178,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2997,7 +3186,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3005,7 +3194,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3013,7 +3202,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3021,7 +3210,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3029,7 +3218,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3037,7 +3226,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3045,7 +3234,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3053,7 +3242,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3061,7 +3250,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3069,7 +3258,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3077,7 +3266,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3085,7 +3274,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3093,7 +3282,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3101,7 +3290,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3109,7 +3298,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3117,7 +3306,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3125,7 +3314,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3151,7 +3340,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3159,7 +3348,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3167,7 +3356,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3175,7 +3364,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3183,7 +3372,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3191,7 +3380,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3199,7 +3388,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3207,7 +3396,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3215,7 +3404,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3223,7 +3412,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3231,7 +3420,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3239,7 +3428,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3247,7 +3436,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3255,7 +3444,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3263,7 +3452,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3271,7 +3460,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3279,7 +3468,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3287,7 +3476,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3295,7 +3484,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3303,7 +3492,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3311,7 +3500,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3319,7 +3508,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3327,7 +3516,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3335,7 +3524,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3343,7 +3532,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3351,7 +3540,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3359,7 +3548,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3367,7 +3556,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3375,7 +3564,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3383,7 +3572,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3391,7 +3580,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3399,7 +3588,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3407,7 +3596,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3415,7 +3604,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3423,7 +3612,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3431,7 +3620,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3439,7 +3628,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3447,7 +3636,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3455,7 +3644,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3463,7 +3652,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3471,7 +3660,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3479,7 +3668,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3487,7 +3676,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3495,7 +3684,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3503,7 +3692,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3511,7 +3700,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3519,7 +3708,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3527,7 +3716,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3535,7 +3724,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3543,7 +3732,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3551,7 +3740,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3559,7 +3748,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3567,7 +3756,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3575,7 +3764,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3583,7 +3772,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3591,7 +3780,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3599,7 +3788,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3607,7 +3796,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3615,7 +3804,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3623,7 +3812,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3649,7 +3838,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3657,7 +3846,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3665,7 +3854,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3673,7 +3862,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3681,7 +3870,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3689,7 +3878,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3697,7 +3886,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3705,7 +3894,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3713,7 +3902,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3721,7 +3910,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3729,7 +3918,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3737,7 +3926,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3745,7 +3934,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3753,7 +3942,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3761,7 +3950,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3769,7 +3958,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3777,7 +3966,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3785,7 +3974,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3793,7 +3982,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3801,7 +3990,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3809,7 +3998,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3817,7 +4006,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3825,7 +4014,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3833,7 +4022,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3841,7 +4030,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3849,7 +4038,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3857,7 +4046,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3865,7 +4054,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3873,7 +4062,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3881,7 +4070,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3889,7 +4078,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3897,7 +4086,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3905,7 +4094,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3913,7 +4102,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3921,7 +4110,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3929,7 +4118,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3937,7 +4126,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3945,7 +4134,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3953,7 +4142,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3961,7 +4150,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3969,7 +4158,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3977,7 +4166,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3985,7 +4174,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3993,7 +4182,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4001,7 +4190,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4009,7 +4198,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4017,7 +4206,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4025,7 +4214,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4033,7 +4222,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4041,7 +4230,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4049,7 +4238,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4057,7 +4246,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4065,7 +4254,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4073,7 +4262,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4081,7 +4270,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4089,7 +4278,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4097,7 +4286,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4105,7 +4294,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4113,7 +4302,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4121,7 +4310,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4147,7 +4336,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4155,7 +4344,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4163,7 +4352,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4171,7 +4360,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4179,7 +4368,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4187,7 +4376,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4195,7 +4384,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4203,7 +4392,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4211,7 +4400,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4219,7 +4408,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4227,7 +4416,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4235,7 +4424,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4243,7 +4432,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4251,7 +4440,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4259,7 +4448,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4267,7 +4456,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4275,7 +4464,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4283,7 +4472,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4291,7 +4480,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4299,7 +4488,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4307,7 +4496,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4315,7 +4504,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4323,7 +4512,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4331,7 +4520,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4339,7 +4528,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4347,7 +4536,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4355,7 +4544,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4363,7 +4552,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4371,7 +4560,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4379,7 +4568,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4387,7 +4576,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4395,7 +4584,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4403,7 +4592,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4411,7 +4600,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4419,7 +4608,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4427,7 +4616,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4435,7 +4624,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4443,7 +4632,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4451,7 +4640,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4459,7 +4648,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4467,7 +4656,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4475,7 +4664,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4483,7 +4672,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4491,7 +4680,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4499,7 +4688,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4507,7 +4696,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4515,7 +4704,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4523,7 +4712,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4531,7 +4720,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4539,7 +4728,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4547,7 +4736,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4555,7 +4744,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4563,7 +4752,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4571,7 +4760,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4579,7 +4768,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4587,7 +4776,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4595,7 +4784,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4603,7 +4792,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4611,7 +4800,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4619,7 +4808,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4632,13 +4821,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4651,10 +4840,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -4668,10 +4860,13 @@
       <c r="E2">
         <v>99.66015625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -4685,10 +4880,13 @@
       <c r="E3">
         <v>79.580078125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>73.009765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -4702,10 +4900,13 @@
       <c r="E4">
         <v>81.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -4719,10 +4920,13 @@
       <c r="E5">
         <v>98.27001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>92.72998046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -4736,10 +4940,13 @@
       <c r="E6">
         <v>85.669921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>86.02978515625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -4753,10 +4960,13 @@
       <c r="E7">
         <v>91.7001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>86.47998046875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -4770,10 +4980,13 @@
       <c r="E8">
         <v>85.009765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>73.919921875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -4787,10 +5000,13 @@
       <c r="E9">
         <v>77.27978515625</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>57.919921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -4804,10 +5020,13 @@
       <c r="E10">
         <v>86.35986328125</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -4821,10 +5040,13 @@
       <c r="E11">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>86.77001953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -4838,10 +5060,13 @@
       <c r="E12">
         <v>74.56982421875</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>67.22998046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -4855,10 +5080,13 @@
       <c r="E13">
         <v>76.02978515625</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>53.52001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -4872,10 +5100,13 @@
       <c r="E14">
         <v>96.52978515625</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>84.97998046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -4889,10 +5120,13 @@
       <c r="E15">
         <v>71.72021484375</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>77.080078125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -4906,10 +5140,13 @@
       <c r="E16">
         <v>84.47998046875</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>72.60986328125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -4923,10 +5160,13 @@
       <c r="E17">
         <v>63.929931640625</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>74.52001953125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -4940,10 +5180,13 @@
       <c r="E18">
         <v>90.16015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>81.02001953125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -4957,10 +5200,13 @@
       <c r="E19">
         <v>91.39013671875</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>64.1201171875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -4974,10 +5220,13 @@
       <c r="E20">
         <v>112.81005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>71.31005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -4991,10 +5240,13 @@
       <c r="E21">
         <v>79.02978515625</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>74.3701171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -5008,10 +5260,13 @@
       <c r="E22">
         <v>98.47998046875</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>86.22021484375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -5025,10 +5280,13 @@
       <c r="E23">
         <v>109.06005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>87.27001953125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -5042,10 +5300,13 @@
       <c r="E24">
         <v>88.31982421875</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>76.419921875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -5059,10 +5320,13 @@
       <c r="E25">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>80.919921875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -5076,10 +5340,13 @@
       <c r="E26">
         <v>119.31005859375</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>86.6201171875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -5093,10 +5360,13 @@
       <c r="E27">
         <v>106.6201171875</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>73.52978515625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -5110,10 +5380,13 @@
       <c r="E28">
         <v>104.93017578125</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>66.22021484375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -5127,10 +5400,13 @@
       <c r="E29">
         <v>62.219970703125</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>72.02001953125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -5144,10 +5420,13 @@
       <c r="E30">
         <v>75.6298828125</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>84.60986328125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -5161,10 +5440,13 @@
       <c r="E31">
         <v>99.68017578125</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>67.6201171875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -5178,10 +5460,13 @@
       <c r="E32">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>82.18017578125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -5195,10 +5480,13 @@
       <c r="E33">
         <v>94.56005859375</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>91.02001953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -5212,10 +5500,13 @@
       <c r="E34">
         <v>61.830078125</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>62.409912109375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -5229,10 +5520,13 @@
       <c r="E35">
         <v>60.929931640625</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>72.330078125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -5246,10 +5540,13 @@
       <c r="E36">
         <v>77.06005859375</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>69.919921875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -5263,10 +5560,13 @@
       <c r="E37">
         <v>63.820068359375</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>80.3798828125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -5280,10 +5580,13 @@
       <c r="E38">
         <v>79.85986328125</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>71.31982421875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -5297,10 +5600,13 @@
       <c r="E39">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>59.919921875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -5314,10 +5620,13 @@
       <c r="E40">
         <v>93.18017578125</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -5331,10 +5640,13 @@
       <c r="E41">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>83.02978515625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -5348,10 +5660,13 @@
       <c r="E42">
         <v>76.509765625</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>70.41015625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -5365,10 +5680,13 @@
       <c r="E43">
         <v>119.10986328125</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>69.93017578125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -5382,10 +5700,13 @@
       <c r="E44">
         <v>97.330078125</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>88.580078125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -5399,10 +5720,13 @@
       <c r="E45">
         <v>90.14990234375</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>58.429931640625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -5416,10 +5740,13 @@
       <c r="E46">
         <v>108.16015625</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>83.47998046875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -5433,10 +5760,13 @@
       <c r="E47">
         <v>78.6201171875</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>69.3798828125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -5450,10 +5780,13 @@
       <c r="E48">
         <v>136.2099609375</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>103.56982421875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -5467,10 +5800,13 @@
       <c r="E49">
         <v>89.27001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>80.8798828125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -5484,10 +5820,13 @@
       <c r="E50">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>93.47021484375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -5501,10 +5840,13 @@
       <c r="E51">
         <v>80.259765625</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>60.14990234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -5518,10 +5860,13 @@
       <c r="E52">
         <v>122.259765625</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>63.39990234375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -5535,10 +5880,13 @@
       <c r="E53">
         <v>51.6298828125</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>84.68017578125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -5552,10 +5900,13 @@
       <c r="E54">
         <v>90.6298828125</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>85.31982421875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -5569,10 +5920,13 @@
       <c r="E55">
         <v>86.72021484375</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>81.72021484375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -5586,10 +5940,13 @@
       <c r="E56">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>40.199951171875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -5603,10 +5960,13 @@
       <c r="E57">
         <v>102.56005859375</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>56.8798828125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -5620,10 +5980,13 @@
       <c r="E58">
         <v>67.580078125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>74.91015625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -5637,10 +6000,13 @@
       <c r="E59">
         <v>72.3701171875</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>54.510009765625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -5654,10 +6020,13 @@
       <c r="E60">
         <v>99.6298828125</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>49.18994140625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -5671,22 +6040,28 @@
       <c r="E61">
         <v>71.43017578125</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>85.1298828125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5704,307 +6079,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6027,482 +6402,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>366.4599609375</v>
+        <v>454.94970703125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>365.619873046875</v>
+        <v>448.8798828125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>362.5</v>
+        <v>444.30029296875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>360.68994140625</v>
+        <v>442.31982421875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>353.10986328125</v>
+        <v>432.43017578125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>351.93994140625</v>
+        <v>429.019775390625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>351.5703125</v>
+        <v>428.02001953125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>349.560546875</v>
+        <v>426.11962890625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>343.52978515625</v>
+        <v>425.85986328125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>343.41015625</v>
+        <v>424.9404296875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>341.52001953125</v>
+        <v>422.10986328125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>338.77001953125</v>
+        <v>421.699462890625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>338.75</v>
+        <v>420.87060546875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>338.46044921875</v>
+        <v>417.36962890625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>335.669677734375</v>
+        <v>417.0595703125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>335.48974609375</v>
+        <v>416.0302734375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>334.33984375</v>
+        <v>415.98046875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>332.55029296875</v>
+        <v>415.970703125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>329.76025390625</v>
+        <v>414.1298828125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>324.95068359375</v>
+        <v>412.02978515625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>324.85009765625</v>
+        <v>411.6201171875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>324.759765625</v>
+        <v>406.370361328125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>323.52978515625</v>
+        <v>404.990234375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>322.60986328125</v>
+        <v>404.889892578125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>320.650390625</v>
+        <v>401.67041015625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>319.619873046875</v>
+        <v>400.9697265625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>319.570068359375</v>
+        <v>398.240234375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>316.06005859375</v>
+        <v>397.93994140625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>315.98974609375</v>
+        <v>394.139892578125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>313.7001953125</v>
+        <v>393.93994140625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>313.0595703125</v>
+        <v>392.85986328125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>312.900146484375</v>
+        <v>392.41015625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>312.81005859375</v>
+        <v>389.4794921875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>311.93994140625</v>
+        <v>381.77978515625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>311.52001953125</v>
+        <v>380.52978515625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B37">
-        <v>310.4599609375</v>
+        <v>379.430419921875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>309.68017578125</v>
+        <v>378.75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>298.56005859375</v>
+        <v>377.8203125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>297.8701171875</v>
+        <v>375.760009765625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>297.710205078125</v>
+        <v>375.500244140625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>296.830078125</v>
+        <v>366.2099609375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>295.120361328125</v>
+        <v>366.18017578125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>289.759765625</v>
+        <v>363.040771484375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>288.47021484375</v>
+        <v>360.280029296875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>287.179931640625</v>
+        <v>359.579833984375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>286.9697265625</v>
+        <v>355.34033203125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>286.91015625</v>
+        <v>345.650146484375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>285.960693359375</v>
+        <v>343.7900390625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>285.209716796875</v>
+        <v>342.39990234375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>283.3203125</v>
+        <v>341.990234375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>280.9697265625</v>
+        <v>340.8896484375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>278.22998046875</v>
+        <v>338.3798828125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>276.9296875</v>
+        <v>338.33984375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>270.739990234375</v>
+        <v>336.759765625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56">
-        <v>264.3701171875</v>
+        <v>336.7001953125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>259.2900390625</v>
+        <v>336.15966796875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>257.7197265625</v>
+        <v>335.359619140625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>257.4599609375</v>
+        <v>326.489990234375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>256.570068359375</v>
+        <v>299.489990234375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>239.280029296875</v>
+        <v>293.7900390625</v>
       </c>
     </row>
   </sheetData>
@@ -6525,7 +6900,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6533,7 +6908,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6541,7 +6916,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6549,7 +6924,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6557,7 +6932,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6565,7 +6940,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6573,7 +6948,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6581,7 +6956,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6589,7 +6964,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6597,7 +6972,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6605,7 +6980,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6613,7 +6988,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6621,7 +6996,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6629,7 +7004,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6637,7 +7012,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6645,7 +7020,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6653,7 +7028,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6661,7 +7036,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6669,7 +7044,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6677,7 +7052,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6685,7 +7060,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6693,7 +7068,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6701,7 +7076,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6709,7 +7084,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6717,7 +7092,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6725,7 +7100,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6733,7 +7108,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6741,7 +7116,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6749,7 +7124,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6757,7 +7132,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6765,7 +7140,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6773,7 +7148,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6781,7 +7156,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6789,7 +7164,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6797,7 +7172,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6805,7 +7180,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6813,7 +7188,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6821,7 +7196,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6829,7 +7204,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6837,7 +7212,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6845,7 +7220,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6853,7 +7228,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -6861,7 +7236,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6869,7 +7244,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6877,7 +7252,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6885,7 +7260,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6893,7 +7268,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6901,7 +7276,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6909,7 +7284,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6917,7 +7292,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6925,7 +7300,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6933,7 +7308,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6941,7 +7316,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6949,7 +7324,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6957,7 +7332,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6965,7 +7340,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6973,7 +7348,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6981,7 +7356,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6989,7 +7364,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6997,7 +7372,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7023,7 +7398,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -7031,7 +7406,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -7039,7 +7414,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -7047,7 +7422,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -7055,7 +7430,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -7063,7 +7438,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -7071,7 +7446,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -7079,7 +7454,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -7087,7 +7462,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -7095,7 +7470,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -7103,7 +7478,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -7111,7 +7486,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -7119,7 +7494,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -7127,7 +7502,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -7135,7 +7510,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -7143,7 +7518,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -7151,7 +7526,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -7159,7 +7534,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -7167,7 +7542,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -7175,7 +7550,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -7183,7 +7558,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -7191,7 +7566,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -7199,7 +7574,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -7207,7 +7582,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -7215,7 +7590,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -7223,7 +7598,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -7231,7 +7606,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -7239,7 +7614,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -7247,7 +7622,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -7255,7 +7630,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -7263,7 +7638,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -7271,7 +7646,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -7279,7 +7654,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -7287,7 +7662,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -7295,7 +7670,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -7303,7 +7678,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -7311,7 +7686,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -7319,7 +7694,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -7327,7 +7702,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -7335,7 +7710,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -7343,7 +7718,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -7351,7 +7726,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -7359,7 +7734,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -7367,7 +7742,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -7375,7 +7750,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -7383,7 +7758,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -7391,7 +7766,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -7399,7 +7774,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -7407,7 +7782,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -7415,7 +7790,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -7423,7 +7798,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -7431,7 +7806,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -7439,7 +7814,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -7447,7 +7822,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -7455,7 +7830,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -7463,7 +7838,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -7471,7 +7846,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -7479,7 +7854,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -7487,7 +7862,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -7495,7 +7870,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -7521,362 +7896,362 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>304.06982421875</v>
+        <v>378.669921875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>296.2998046875</v>
+        <v>367.4697265625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>275.10009765625</v>
+        <v>366.22998046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>274.23046875</v>
+        <v>358.5595703125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>271.169921875</v>
+        <v>355.77978515625</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>270.97998046875</v>
+        <v>351.240234375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>267.76025390625</v>
+        <v>350.76953125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>267.73974609375</v>
+        <v>349.52001953125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>267.25</v>
+        <v>348.1103515625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>266.39013671875</v>
+        <v>346.5205078125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>264.2998046875</v>
+        <v>345.54052734375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>262.89990234375</v>
+        <v>344.7900390625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>262.3701171875</v>
+        <v>344.509765625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>262.22021484375</v>
+        <v>344.33984375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>259.02001953125</v>
+        <v>342.88037109375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>257.02978515625</v>
+        <v>341.29052734375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>255.50048828125</v>
+        <v>341.169921875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>255.38037109375</v>
+        <v>337.93994140625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>255.0703125</v>
+        <v>334.830078125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>252.77001953125</v>
+        <v>332.6103515625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>250.669921875</v>
+        <v>331.09033203125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>249.41015625</v>
+        <v>328.93994140625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>245.8701171875</v>
+        <v>328.05029296875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>244.6103515625</v>
+        <v>327.43994140625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>243.0703125</v>
+        <v>326.469482421875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>242.990234375</v>
+        <v>325.77978515625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>242.77001953125</v>
+        <v>325.72021484375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>242.169921875</v>
+        <v>324.9599609375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>240.820068359375</v>
+        <v>324.09033203125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>240.439697265625</v>
+        <v>320.7197265625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>239.830078125</v>
+        <v>320.430419921875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>239.27978515625</v>
+        <v>319.77001953125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>239.039794921875</v>
+        <v>315.69970703125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>238.85009765625</v>
+        <v>315.340087890625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>238.710205078125</v>
+        <v>314.08984375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>238.61962890625</v>
+        <v>309.610107421875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>236.91015625</v>
+        <v>307.510009765625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>235.73974609375</v>
+        <v>302.2099609375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>232.830078125</v>
+        <v>301.0302734375</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>230.5302734375</v>
+        <v>296.53955078125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>229.02978515625</v>
+        <v>296.259765625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>228.47021484375</v>
+        <v>295.09033203125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B44">
-        <v>227.47021484375</v>
+        <v>292.01025390625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>227.130126953125</v>
+        <v>290.880126953125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>221.030029296875</v>
+        <v>288.229736328125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7884,119 +8259,119 @@
         <v>60</v>
       </c>
       <c r="B47">
-        <v>217.10009765625</v>
+        <v>287.41015625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>215.14990234375</v>
+        <v>284.889892578125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>213.82958984375</v>
+        <v>283.090576171875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>211.52978515625</v>
+        <v>283.05029296875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>211.0302734375</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>210.519775390625</v>
+        <v>275.2998046875</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>206.77978515625</v>
+        <v>274.83984375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>206.52001953125</v>
+        <v>273.74951171875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>206.010498046875</v>
+        <v>269.959716796875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B56">
-        <v>200.300048828125</v>
+        <v>268.22021484375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>196.56982421875</v>
+        <v>260.0400390625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B58">
-        <v>195.89013671875</v>
+        <v>258.090087890625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>193.9599609375</v>
+        <v>253.77978515625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>189.25</v>
+        <v>243.760009765625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>188.170166015625</v>
+        <v>240.5</v>
       </c>
     </row>
   </sheetData>
@@ -8019,7 +8394,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8027,7 +8402,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8035,7 +8410,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8043,7 +8418,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8051,7 +8426,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8059,7 +8434,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8067,7 +8442,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8075,7 +8450,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8083,7 +8458,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8091,7 +8466,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8099,7 +8474,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8107,7 +8482,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8115,7 +8490,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8123,7 +8498,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8131,7 +8506,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8139,7 +8514,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8147,7 +8522,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8155,7 +8530,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8163,7 +8538,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8171,7 +8546,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8179,7 +8554,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8187,7 +8562,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8195,7 +8570,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8203,7 +8578,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8211,7 +8586,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8219,7 +8594,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8227,7 +8602,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8235,7 +8610,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8243,7 +8618,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8251,7 +8626,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8259,7 +8634,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8267,7 +8642,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8275,7 +8650,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8283,7 +8658,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8291,7 +8666,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8299,7 +8674,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8307,7 +8682,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8315,7 +8690,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8323,7 +8698,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8331,7 +8706,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8339,7 +8714,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8347,7 +8722,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8355,7 +8730,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8363,7 +8738,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8371,7 +8746,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8379,7 +8754,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8387,7 +8762,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8395,7 +8770,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8403,7 +8778,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8411,7 +8786,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8419,7 +8794,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8427,7 +8802,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8435,7 +8810,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8443,7 +8818,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8451,7 +8826,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8459,7 +8834,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8467,7 +8842,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8475,7 +8850,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8483,7 +8858,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8491,7 +8866,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8517,7 +8892,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8525,7 +8900,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8533,7 +8908,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8541,7 +8916,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8549,7 +8924,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8557,7 +8932,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8565,7 +8940,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8573,7 +8948,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8581,7 +8956,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8589,7 +8964,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8597,7 +8972,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8605,7 +8980,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8613,7 +8988,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8621,7 +8996,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8629,7 +9004,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8637,7 +9012,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8645,7 +9020,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8653,7 +9028,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8661,7 +9036,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8669,7 +9044,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8677,7 +9052,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8685,7 +9060,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8693,7 +9068,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8701,7 +9076,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8709,7 +9084,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8717,7 +9092,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8725,7 +9100,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8733,7 +9108,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8741,7 +9116,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8749,7 +9124,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8757,7 +9132,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8765,7 +9140,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8773,7 +9148,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8781,7 +9156,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8789,7 +9164,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8797,7 +9172,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8805,7 +9180,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8813,7 +9188,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8821,7 +9196,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8829,7 +9204,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8837,7 +9212,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8845,7 +9220,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8853,7 +9228,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8861,7 +9236,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8869,7 +9244,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8877,7 +9252,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8885,7 +9260,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8893,7 +9268,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8901,7 +9276,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8909,7 +9284,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8917,7 +9292,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8925,7 +9300,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8933,7 +9308,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8941,7 +9316,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8949,7 +9324,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8957,7 +9332,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8965,7 +9340,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8973,7 +9348,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8981,7 +9356,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8989,7 +9364,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="67">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Rodada 5</t>
+  </si>
+  <si>
+    <t>Rodada 6</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -583,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,10 +608,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -625,10 +631,13 @@
       <c r="F2">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>103.259765625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -645,10 +654,13 @@
       <c r="F3">
         <v>73.009765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>78.85986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -665,10 +677,13 @@
       <c r="F4">
         <v>94.259765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -685,10 +700,13 @@
       <c r="F5">
         <v>92.72998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>75.259765625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -705,10 +723,13 @@
       <c r="F6">
         <v>86.02978515625</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>78.919921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -725,10 +746,13 @@
       <c r="F7">
         <v>86.47998046875</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>88.06005859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -745,10 +769,13 @@
       <c r="F8">
         <v>73.919921875</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>88.759765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -765,10 +792,13 @@
       <c r="F9">
         <v>57.919921875</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>84.0498046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -785,10 +815,13 @@
       <c r="F10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -805,10 +838,13 @@
       <c r="F11">
         <v>86.77001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>86.9599609375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -825,10 +861,13 @@
       <c r="F12">
         <v>67.22998046875</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>70.93017578125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -845,10 +884,13 @@
       <c r="F13">
         <v>53.52001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>68.4501953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -865,10 +907,13 @@
       <c r="F14">
         <v>84.97998046875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>98.7998046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -885,10 +930,13 @@
       <c r="F15">
         <v>77.080078125</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>107.66015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -905,10 +953,13 @@
       <c r="F16">
         <v>72.60986328125</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>99.56005859375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -925,10 +976,13 @@
       <c r="F17">
         <v>74.52001953125</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>49.260009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -945,10 +999,13 @@
       <c r="F18">
         <v>81.02001953125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>92.06005859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -965,10 +1022,13 @@
       <c r="F19">
         <v>64.1201171875</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -985,10 +1045,13 @@
       <c r="F20">
         <v>71.31005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>58.300048828125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1005,10 +1068,13 @@
       <c r="F21">
         <v>74.3701171875</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1025,10 +1091,13 @@
       <c r="F22">
         <v>86.22021484375</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>98.16015625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1045,10 +1114,13 @@
       <c r="F23">
         <v>87.27001953125</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>106.06005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1065,10 +1137,13 @@
       <c r="F24">
         <v>76.419921875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1085,10 +1160,13 @@
       <c r="F25">
         <v>80.919921875</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>98.2998046875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1105,10 +1183,13 @@
       <c r="F26">
         <v>86.6201171875</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1125,10 +1206,13 @@
       <c r="F27">
         <v>73.52978515625</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1145,10 +1229,13 @@
       <c r="F28">
         <v>66.22021484375</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>108.56005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1165,10 +1252,13 @@
       <c r="F29">
         <v>72.02001953125</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>48.840087890625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1185,10 +1275,13 @@
       <c r="F30">
         <v>84.60986328125</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>98.06005859375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1205,10 +1298,13 @@
       <c r="F31">
         <v>67.6201171875</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>109.64990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1225,10 +1321,13 @@
       <c r="F32">
         <v>82.18017578125</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>110.31982421875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1245,10 +1344,13 @@
       <c r="F33">
         <v>91.02001953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>106.14990234375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1265,10 +1367,13 @@
       <c r="F34">
         <v>62.409912109375</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>85.16015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1285,10 +1390,13 @@
       <c r="F35">
         <v>72.330078125</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>95.31982421875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1305,10 +1413,13 @@
       <c r="F36">
         <v>69.919921875</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>66.759765625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1325,10 +1436,13 @@
       <c r="F37">
         <v>80.3798828125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>103.66015625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1345,10 +1459,13 @@
       <c r="F38">
         <v>71.31982421875</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>119.85009765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1365,10 +1482,13 @@
       <c r="F39">
         <v>59.919921875</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>46.10009765625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1385,10 +1505,13 @@
       <c r="F40">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>131.6103515625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1405,10 +1528,13 @@
       <c r="F41">
         <v>83.02978515625</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1425,10 +1551,13 @@
       <c r="F42">
         <v>70.41015625</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>110.35986328125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1445,10 +1574,13 @@
       <c r="F43">
         <v>69.93017578125</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>107.7001953125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1465,10 +1597,13 @@
       <c r="F44">
         <v>88.580078125</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>106.93017578125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1485,10 +1620,13 @@
       <c r="F45">
         <v>58.429931640625</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>73.259765625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1505,10 +1643,13 @@
       <c r="F46">
         <v>83.47998046875</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>82.64990234375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1525,10 +1666,13 @@
       <c r="F47">
         <v>69.3798828125</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>92.0498046875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1545,10 +1689,13 @@
       <c r="F48">
         <v>103.56982421875</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>78.56005859375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -1565,10 +1712,13 @@
       <c r="F49">
         <v>80.8798828125</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>59.969970703125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -1585,10 +1735,13 @@
       <c r="F50">
         <v>93.47021484375</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>111.43017578125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -1605,10 +1758,13 @@
       <c r="F51">
         <v>60.14990234375</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>77.47998046875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -1625,10 +1781,13 @@
       <c r="F52">
         <v>63.39990234375</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>88.35986328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -1645,10 +1804,13 @@
       <c r="F53">
         <v>84.68017578125</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>69.60986328125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -1665,10 +1827,13 @@
       <c r="F54">
         <v>85.31982421875</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>100.85986328125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -1685,10 +1850,13 @@
       <c r="F55">
         <v>81.72021484375</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>93.35986328125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -1705,10 +1873,13 @@
       <c r="F56">
         <v>40.199951171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>62.43994140625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -1725,10 +1896,13 @@
       <c r="F57">
         <v>56.8798828125</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>61.8798828125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -1745,10 +1919,13 @@
       <c r="F58">
         <v>74.91015625</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>61.159912109375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -1765,10 +1942,13 @@
       <c r="F59">
         <v>54.510009765625</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>65.5400390625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -1785,10 +1965,13 @@
       <c r="F60">
         <v>49.18994140625</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -1805,25 +1988,31 @@
       <c r="F61">
         <v>85.1298828125</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>68.7001953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
         <v>44</v>
-      </c>
-      <c r="E62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +2035,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1854,7 +2043,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1862,7 +2051,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1870,7 +2059,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1878,7 +2067,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1886,7 +2075,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1894,7 +2083,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1902,7 +2091,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1910,7 +2099,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1918,7 +2107,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1926,7 +2115,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1934,7 +2123,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1942,7 +2131,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1950,7 +2139,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1958,7 +2147,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1966,7 +2155,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1974,7 +2163,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1982,7 +2171,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1990,7 +2179,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1998,7 +2187,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2006,7 +2195,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2014,7 +2203,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2022,7 +2211,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2030,7 +2219,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2038,7 +2227,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2046,7 +2235,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2054,7 +2243,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2062,7 +2251,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2070,7 +2259,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2078,7 +2267,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2086,7 +2275,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2094,7 +2283,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2102,7 +2291,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2110,7 +2299,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2118,7 +2307,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2126,7 +2315,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2134,7 +2323,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2142,7 +2331,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2150,7 +2339,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2158,7 +2347,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2166,7 +2355,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2174,7 +2363,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2182,7 +2371,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2190,7 +2379,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2198,7 +2387,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2206,7 +2395,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2214,7 +2403,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2222,7 +2411,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2230,7 +2419,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2238,7 +2427,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2246,7 +2435,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2254,7 +2443,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2262,7 +2451,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2270,7 +2459,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2278,7 +2467,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2286,7 +2475,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2294,7 +2483,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2302,7 +2491,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2310,7 +2499,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2318,7 +2507,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2344,7 +2533,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2352,7 +2541,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2360,7 +2549,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2368,7 +2557,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2376,7 +2565,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2384,7 +2573,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2392,7 +2581,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2400,7 +2589,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2408,7 +2597,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2416,7 +2605,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2424,7 +2613,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2432,7 +2621,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2440,7 +2629,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2448,7 +2637,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2456,7 +2645,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2464,7 +2653,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2472,7 +2661,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2480,7 +2669,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2488,7 +2677,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2496,7 +2685,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2504,7 +2693,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2512,7 +2701,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2520,7 +2709,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2528,7 +2717,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2536,7 +2725,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2544,7 +2733,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2552,7 +2741,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2560,7 +2749,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2568,7 +2757,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2576,7 +2765,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2584,7 +2773,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2592,7 +2781,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2600,7 +2789,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2608,7 +2797,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2616,7 +2805,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2624,7 +2813,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2632,7 +2821,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2640,7 +2829,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2648,7 +2837,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2656,7 +2845,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2664,7 +2853,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2672,7 +2861,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2680,7 +2869,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2688,7 +2877,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2696,7 +2885,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2704,7 +2893,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2712,7 +2901,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2720,7 +2909,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2728,7 +2917,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2736,7 +2925,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2744,7 +2933,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2752,7 +2941,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2760,7 +2949,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2768,7 +2957,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2776,7 +2965,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2784,7 +2973,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2792,7 +2981,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2800,7 +2989,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2808,7 +2997,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2816,7 +3005,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2842,7 +3031,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2850,7 +3039,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2858,7 +3047,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2866,7 +3055,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2874,7 +3063,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2882,7 +3071,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2890,7 +3079,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2898,7 +3087,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2906,7 +3095,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2914,7 +3103,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2922,7 +3111,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2930,7 +3119,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2938,7 +3127,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2946,7 +3135,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2954,7 +3143,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2962,7 +3151,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2970,7 +3159,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2978,7 +3167,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2986,7 +3175,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2994,7 +3183,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3002,7 +3191,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3010,7 +3199,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3018,7 +3207,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3026,7 +3215,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3034,7 +3223,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3042,7 +3231,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3050,7 +3239,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3058,7 +3247,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3066,7 +3255,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3074,7 +3263,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3082,7 +3271,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3090,7 +3279,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3098,7 +3287,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3106,7 +3295,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3114,7 +3303,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3122,7 +3311,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3130,7 +3319,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3138,7 +3327,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3146,7 +3335,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3154,7 +3343,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3162,7 +3351,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3170,7 +3359,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3178,7 +3367,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3186,7 +3375,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3194,7 +3383,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3202,7 +3391,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3210,7 +3399,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3218,7 +3407,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3226,7 +3415,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3234,7 +3423,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3242,7 +3431,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3250,7 +3439,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3258,7 +3447,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3266,7 +3455,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3274,7 +3463,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3282,7 +3471,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3290,7 +3479,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3298,7 +3487,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3306,7 +3495,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3314,7 +3503,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3340,7 +3529,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3348,7 +3537,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3356,7 +3545,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3364,7 +3553,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3372,7 +3561,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3380,7 +3569,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3388,7 +3577,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3396,7 +3585,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3404,7 +3593,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3412,7 +3601,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3420,7 +3609,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3428,7 +3617,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3436,7 +3625,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3444,7 +3633,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3452,7 +3641,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3460,7 +3649,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3468,7 +3657,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3476,7 +3665,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3484,7 +3673,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3492,7 +3681,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3500,7 +3689,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3508,7 +3697,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3516,7 +3705,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3524,7 +3713,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3532,7 +3721,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3540,7 +3729,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3548,7 +3737,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3556,7 +3745,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3564,7 +3753,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3572,7 +3761,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3580,7 +3769,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3588,7 +3777,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3596,7 +3785,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3604,7 +3793,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3612,7 +3801,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3620,7 +3809,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3628,7 +3817,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3636,7 +3825,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3644,7 +3833,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3652,7 +3841,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3660,7 +3849,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3668,7 +3857,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3676,7 +3865,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3684,7 +3873,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3692,7 +3881,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3700,7 +3889,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3708,7 +3897,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3716,7 +3905,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3724,7 +3913,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3732,7 +3921,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3740,7 +3929,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3748,7 +3937,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3756,7 +3945,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3764,7 +3953,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3772,7 +3961,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3780,7 +3969,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3788,7 +3977,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3796,7 +3985,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3804,7 +3993,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3812,7 +4001,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3838,7 +4027,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3846,7 +4035,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3854,7 +4043,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3862,7 +4051,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3870,7 +4059,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3878,7 +4067,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3886,7 +4075,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3894,7 +4083,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3902,7 +4091,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3910,7 +4099,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3918,7 +4107,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3926,7 +4115,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3934,7 +4123,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3942,7 +4131,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3950,7 +4139,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3958,7 +4147,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3966,7 +4155,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3974,7 +4163,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3982,7 +4171,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3990,7 +4179,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3998,7 +4187,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4006,7 +4195,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4014,7 +4203,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4022,7 +4211,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4030,7 +4219,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4038,7 +4227,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4046,7 +4235,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4054,7 +4243,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4062,7 +4251,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4070,7 +4259,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4078,7 +4267,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4086,7 +4275,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4094,7 +4283,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4102,7 +4291,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4110,7 +4299,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4118,7 +4307,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4126,7 +4315,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4134,7 +4323,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4142,7 +4331,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4150,7 +4339,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4158,7 +4347,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4166,7 +4355,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4174,7 +4363,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4182,7 +4371,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4190,7 +4379,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4198,7 +4387,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4206,7 +4395,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4214,7 +4403,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4222,7 +4411,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4230,7 +4419,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4238,7 +4427,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4246,7 +4435,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4254,7 +4443,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4262,7 +4451,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4270,7 +4459,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4278,7 +4467,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4286,7 +4475,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4294,7 +4483,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4302,7 +4491,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4310,7 +4499,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4336,7 +4525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4344,7 +4533,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4352,7 +4541,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4360,7 +4549,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4368,7 +4557,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4376,7 +4565,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4384,7 +4573,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4392,7 +4581,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4400,7 +4589,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4408,7 +4597,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4416,7 +4605,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4424,7 +4613,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4432,7 +4621,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4440,7 +4629,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4448,7 +4637,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4456,7 +4645,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4464,7 +4653,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4472,7 +4661,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4480,7 +4669,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4488,7 +4677,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4496,7 +4685,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4504,7 +4693,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4512,7 +4701,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4520,7 +4709,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4528,7 +4717,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4536,7 +4725,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4544,7 +4733,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4552,7 +4741,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4560,7 +4749,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4568,7 +4757,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4576,7 +4765,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4584,7 +4773,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4592,7 +4781,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4600,7 +4789,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4608,7 +4797,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4616,7 +4805,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4624,7 +4813,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4632,7 +4821,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4640,7 +4829,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4648,7 +4837,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4656,7 +4845,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4664,7 +4853,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4672,7 +4861,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4680,7 +4869,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4688,7 +4877,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4696,7 +4885,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4704,7 +4893,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4712,7 +4901,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4720,7 +4909,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4728,7 +4917,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4736,7 +4925,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4744,7 +4933,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4752,7 +4941,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4760,7 +4949,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4768,7 +4957,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4776,7 +4965,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4784,7 +4973,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4792,7 +4981,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4800,7 +4989,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4808,7 +4997,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4821,13 +5010,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4843,10 +5032,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -4863,10 +5055,13 @@
       <c r="F2">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>103.259765625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -4883,10 +5078,13 @@
       <c r="F3">
         <v>73.009765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>78.85986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -4903,10 +5101,13 @@
       <c r="F4">
         <v>94.259765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -4923,10 +5124,13 @@
       <c r="F5">
         <v>92.72998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>75.259765625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -4943,10 +5147,13 @@
       <c r="F6">
         <v>86.02978515625</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>78.919921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -4963,10 +5170,13 @@
       <c r="F7">
         <v>86.47998046875</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>88.06005859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -4983,10 +5193,13 @@
       <c r="F8">
         <v>73.919921875</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>88.759765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -5003,10 +5216,13 @@
       <c r="F9">
         <v>57.919921875</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>84.0498046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -5023,10 +5239,13 @@
       <c r="F10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -5043,10 +5262,13 @@
       <c r="F11">
         <v>86.77001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>86.9599609375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -5063,10 +5285,13 @@
       <c r="F12">
         <v>67.22998046875</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>70.93017578125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -5083,10 +5308,13 @@
       <c r="F13">
         <v>53.52001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>68.4501953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -5103,10 +5331,13 @@
       <c r="F14">
         <v>84.97998046875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>98.7998046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -5123,10 +5354,13 @@
       <c r="F15">
         <v>77.080078125</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>107.66015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -5143,10 +5377,13 @@
       <c r="F16">
         <v>72.60986328125</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>99.56005859375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -5163,10 +5400,13 @@
       <c r="F17">
         <v>74.52001953125</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>49.260009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -5183,10 +5423,13 @@
       <c r="F18">
         <v>81.02001953125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>92.06005859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -5203,10 +5446,13 @@
       <c r="F19">
         <v>64.1201171875</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -5223,10 +5469,13 @@
       <c r="F20">
         <v>71.31005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>58.300048828125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -5243,10 +5492,13 @@
       <c r="F21">
         <v>74.3701171875</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -5263,10 +5515,13 @@
       <c r="F22">
         <v>86.22021484375</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>98.16015625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -5283,10 +5538,13 @@
       <c r="F23">
         <v>87.27001953125</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>106.06005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -5303,10 +5561,13 @@
       <c r="F24">
         <v>76.419921875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -5323,10 +5584,13 @@
       <c r="F25">
         <v>80.919921875</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>98.2998046875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -5343,10 +5607,13 @@
       <c r="F26">
         <v>86.6201171875</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -5363,10 +5630,13 @@
       <c r="F27">
         <v>73.52978515625</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -5383,10 +5653,13 @@
       <c r="F28">
         <v>66.22021484375</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>108.56005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -5403,10 +5676,13 @@
       <c r="F29">
         <v>72.02001953125</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>48.840087890625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -5423,10 +5699,13 @@
       <c r="F30">
         <v>84.60986328125</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>98.06005859375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -5443,10 +5722,13 @@
       <c r="F31">
         <v>67.6201171875</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>109.64990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -5463,10 +5745,13 @@
       <c r="F32">
         <v>82.18017578125</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>110.31982421875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -5483,10 +5768,13 @@
       <c r="F33">
         <v>91.02001953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>106.14990234375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -5503,10 +5791,13 @@
       <c r="F34">
         <v>62.409912109375</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>85.16015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -5523,10 +5814,13 @@
       <c r="F35">
         <v>72.330078125</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>95.31982421875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -5543,10 +5837,13 @@
       <c r="F36">
         <v>69.919921875</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>66.759765625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -5563,10 +5860,13 @@
       <c r="F37">
         <v>80.3798828125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>103.66015625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -5583,10 +5883,13 @@
       <c r="F38">
         <v>71.31982421875</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>119.85009765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -5603,10 +5906,13 @@
       <c r="F39">
         <v>59.919921875</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>46.10009765625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -5623,10 +5929,13 @@
       <c r="F40">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>131.6103515625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -5643,10 +5952,13 @@
       <c r="F41">
         <v>83.02978515625</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -5663,10 +5975,13 @@
       <c r="F42">
         <v>70.41015625</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>110.35986328125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -5683,10 +5998,13 @@
       <c r="F43">
         <v>69.93017578125</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>107.7001953125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -5703,10 +6021,13 @@
       <c r="F44">
         <v>88.580078125</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>106.93017578125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -5723,10 +6044,13 @@
       <c r="F45">
         <v>58.429931640625</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>73.259765625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -5743,10 +6067,13 @@
       <c r="F46">
         <v>83.47998046875</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>82.64990234375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -5763,10 +6090,13 @@
       <c r="F47">
         <v>69.3798828125</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>92.0498046875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -5783,10 +6113,13 @@
       <c r="F48">
         <v>103.56982421875</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>78.56005859375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -5803,10 +6136,13 @@
       <c r="F49">
         <v>80.8798828125</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>59.969970703125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -5823,10 +6159,13 @@
       <c r="F50">
         <v>93.47021484375</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>111.43017578125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -5843,10 +6182,13 @@
       <c r="F51">
         <v>60.14990234375</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>77.47998046875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -5863,10 +6205,13 @@
       <c r="F52">
         <v>63.39990234375</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>88.35986328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -5883,10 +6228,13 @@
       <c r="F53">
         <v>84.68017578125</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>69.60986328125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -5903,10 +6251,13 @@
       <c r="F54">
         <v>85.31982421875</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>100.85986328125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -5923,10 +6274,13 @@
       <c r="F55">
         <v>81.72021484375</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>93.35986328125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -5943,10 +6297,13 @@
       <c r="F56">
         <v>40.199951171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>62.43994140625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -5963,10 +6320,13 @@
       <c r="F57">
         <v>56.8798828125</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>61.8798828125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -5983,10 +6343,13 @@
       <c r="F58">
         <v>74.91015625</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>61.159912109375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -6003,10 +6366,13 @@
       <c r="F59">
         <v>54.510009765625</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>65.5400390625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -6023,10 +6389,13 @@
       <c r="F60">
         <v>49.18994140625</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -6043,25 +6412,31 @@
       <c r="F61">
         <v>85.1298828125</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>68.7001953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
         <v>44</v>
-      </c>
-      <c r="E62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6079,307 +6454,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6402,18 +6777,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>454.94970703125</v>
+        <v>552.1396484375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>448.8798828125</v>
+        <v>540.13037109375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6421,119 +6796,119 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>444.30029296875</v>
+        <v>535.009765625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>442.31982421875</v>
+        <v>526.31005859375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>432.43017578125</v>
+        <v>526.080078125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>429.019775390625</v>
+        <v>524.0205078125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>428.02001953125</v>
+        <v>522.12060546875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>426.11962890625</v>
+        <v>520.8798828125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>425.85986328125</v>
+        <v>519.56005859375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>424.9404296875</v>
+        <v>518.08984375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>422.10986328125</v>
+        <v>517.800537109375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>421.699462890625</v>
+        <v>517.379638671875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>420.87060546875</v>
+        <v>514.61962890625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>417.36962890625</v>
+        <v>514.140625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>417.0595703125</v>
+        <v>513.68994140625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>416.0302734375</v>
+        <v>513.55029296875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>415.98046875</v>
+        <v>513.00048828125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6541,39 +6916,39 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>415.970703125</v>
+        <v>508.56005859375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>414.1298828125</v>
+        <v>505.749755859375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>412.02978515625</v>
+        <v>504.9794921875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>411.6201171875</v>
+        <v>504.2998046875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>406.370361328125</v>
+        <v>503.4296875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6581,87 +6956,87 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>404.990234375</v>
+        <v>503.11962890625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>404.889892578125</v>
+        <v>501.6298828125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>401.67041015625</v>
+        <v>500.619384765625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>400.9697265625</v>
+        <v>499.76953125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>398.240234375</v>
+        <v>498.68017578125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>397.93994140625</v>
+        <v>498.580078125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>394.139892578125</v>
+        <v>493.73046875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>393.93994140625</v>
+        <v>491.15966796875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>392.85986328125</v>
+        <v>482.690185546875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>392.41015625</v>
+        <v>480.68017578125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>389.4794921875</v>
+        <v>479.170654296875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6669,215 +7044,215 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>381.77978515625</v>
+        <v>479.160400390625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>380.52978515625</v>
+        <v>475.830078125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>379.430419921875</v>
+        <v>472.790283203125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>378.75</v>
+        <v>470.700927734375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>377.8203125</v>
+        <v>466.9794921875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B40">
-        <v>375.760009765625</v>
+        <v>466.64013671875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>375.500244140625</v>
+        <v>464.57958984375</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>366.2099609375</v>
+        <v>462.439697265625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>366.18017578125</v>
+        <v>458.259765625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>363.040771484375</v>
+        <v>449.68017578125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>360.280029296875</v>
+        <v>445.440185546875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>359.579833984375</v>
+        <v>443.39990234375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B47">
-        <v>355.34033203125</v>
+        <v>432.90966796875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>345.650146484375</v>
+        <v>432.02001953125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>343.7900390625</v>
+        <v>429.2197265625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>342.39990234375</v>
+        <v>415.85986328125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>341.990234375</v>
+        <v>412.009765625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>340.8896484375</v>
+        <v>410.4404296875</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>338.3798828125</v>
+        <v>408.619384765625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>338.33984375</v>
+        <v>406.81005859375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>336.759765625</v>
+        <v>405.669921875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>336.7001953125</v>
+        <v>404.180419921875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>336.15966796875</v>
+        <v>398.309814453125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B58">
-        <v>335.359619140625</v>
+        <v>393.249755859375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>326.489990234375</v>
+        <v>386.98974609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>299.489990234375</v>
+        <v>361.929931640625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>293.7900390625</v>
+        <v>359.330078125</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +7275,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6908,7 +7283,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6916,7 +7291,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6924,7 +7299,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6932,7 +7307,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6940,7 +7315,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6948,7 +7323,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6956,7 +7331,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6964,7 +7339,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6972,7 +7347,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6980,7 +7355,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6988,7 +7363,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6996,7 +7371,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7004,7 +7379,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7012,7 +7387,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7020,7 +7395,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7028,7 +7403,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7036,7 +7411,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7044,7 +7419,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7052,7 +7427,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7060,7 +7435,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7068,7 +7443,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7076,7 +7451,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7084,7 +7459,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7092,7 +7467,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7100,7 +7475,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7108,7 +7483,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7116,7 +7491,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7124,7 +7499,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7132,7 +7507,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7140,7 +7515,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7148,7 +7523,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7156,7 +7531,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7164,7 +7539,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7172,7 +7547,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7180,7 +7555,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7188,7 +7563,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7196,7 +7571,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7204,7 +7579,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7212,7 +7587,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7220,7 +7595,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7228,7 +7603,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7236,7 +7611,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7244,7 +7619,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7252,7 +7627,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7260,7 +7635,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7268,7 +7643,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7276,7 +7651,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7284,7 +7659,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7292,7 +7667,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7300,7 +7675,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7308,7 +7683,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7316,7 +7691,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7324,7 +7699,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7332,7 +7707,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7340,7 +7715,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7348,7 +7723,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7356,7 +7731,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7364,7 +7739,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7372,7 +7747,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7398,7 +7773,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -7406,7 +7781,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -7414,7 +7789,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -7422,7 +7797,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -7430,7 +7805,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -7438,7 +7813,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -7446,7 +7821,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -7454,7 +7829,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -7462,7 +7837,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -7470,7 +7845,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -7478,7 +7853,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -7486,7 +7861,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -7494,7 +7869,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -7502,7 +7877,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -7510,7 +7885,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -7518,7 +7893,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -7526,7 +7901,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -7534,7 +7909,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -7542,7 +7917,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -7550,7 +7925,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -7558,7 +7933,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -7566,7 +7941,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -7574,7 +7949,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -7582,7 +7957,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -7590,7 +7965,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -7598,7 +7973,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -7606,7 +7981,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -7614,7 +7989,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -7622,7 +7997,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -7630,7 +8005,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -7638,7 +8013,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -7646,7 +8021,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -7654,7 +8029,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -7662,7 +8037,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -7670,7 +8045,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -7678,7 +8053,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -7686,7 +8061,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -7694,7 +8069,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -7702,7 +8077,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -7710,7 +8085,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -7718,7 +8093,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -7726,7 +8101,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -7734,7 +8109,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -7742,7 +8117,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -7750,7 +8125,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -7758,7 +8133,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -7766,7 +8141,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -7774,7 +8149,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -7782,7 +8157,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -7790,7 +8165,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -7798,7 +8173,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -7806,7 +8181,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -7814,7 +8189,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -7822,7 +8197,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -7830,7 +8205,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -7838,7 +8213,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -7846,7 +8221,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -7854,7 +8229,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -7862,7 +8237,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -7870,7 +8245,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -7896,482 +8271,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>378.669921875</v>
+        <v>473.93017578125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>367.4697265625</v>
+        <v>457.33056640625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>366.22998046875</v>
+        <v>457.22998046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>358.5595703125</v>
+        <v>455.82958984375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>355.77978515625</v>
+        <v>454.310546875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>351.240234375</v>
+        <v>453.83984375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>350.76953125</v>
+        <v>453.72021484375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>349.52001953125</v>
+        <v>452.67041015625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>348.1103515625</v>
+        <v>448.0498046875</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B11">
-        <v>346.5205078125</v>
+        <v>445.19970703125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>345.54052734375</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>344.7900390625</v>
+        <v>441.17041015625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>344.509765625</v>
+        <v>439.45068359375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>344.33984375</v>
+        <v>438.61962890625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>342.88037109375</v>
+        <v>438.3701171875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>341.29052734375</v>
+        <v>437.7998046875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>341.169921875</v>
+        <v>436.82958984375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>337.93994140625</v>
+        <v>434.39013671875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>334.830078125</v>
+        <v>433.93994140625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>332.6103515625</v>
+        <v>433.89013671875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>331.09033203125</v>
+        <v>430.56982421875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>328.93994140625</v>
+        <v>429.9296875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>328.05029296875</v>
+        <v>423.3701171875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>327.43994140625</v>
+        <v>419.51953125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>326.469482421875</v>
+        <v>419.150390625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>325.77978515625</v>
+        <v>418.06982421875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>325.72021484375</v>
+        <v>416.540283203125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>324.9599609375</v>
+        <v>416.150390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>324.09033203125</v>
+        <v>415.89990234375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B31">
-        <v>320.7197265625</v>
+        <v>413.790283203125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>320.430419921875</v>
+        <v>411.170166015625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>319.77001953125</v>
+        <v>405.389404296875</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>315.69970703125</v>
+        <v>404.740234375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>315.340087890625</v>
+        <v>404.6396484375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>314.08984375</v>
+        <v>403.89013671875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>309.610107421875</v>
+        <v>403.840576171875</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>307.510009765625</v>
+        <v>394.259765625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <v>302.2099609375</v>
+        <v>393.66015625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>301.0302734375</v>
+        <v>393.19970703125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>296.53955078125</v>
+        <v>390.750732421875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>296.259765625</v>
+        <v>387.749755859375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>295.09033203125</v>
+        <v>384.979736328125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>292.01025390625</v>
+        <v>380.58935546875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>290.880126953125</v>
+        <v>376.040283203125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>288.229736328125</v>
+        <v>367.18994140625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>287.41015625</v>
+        <v>364.60009765625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>284.889892578125</v>
+        <v>363.5400390625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>283.090576171875</v>
+        <v>353.170166015625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>283.05029296875</v>
+        <v>352.77978515625</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>281.25</v>
+        <v>350.85986328125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>275.2998046875</v>
+        <v>349.2900390625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>274.83984375</v>
+        <v>346.23974609375</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>273.74951171875</v>
+        <v>343.219482421875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>269.959716796875</v>
+        <v>334.809814453125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>268.22021484375</v>
+        <v>331.890380859375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>260.0400390625</v>
+        <v>328.490234375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B58">
-        <v>258.090087890625</v>
+        <v>324.849853515625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B59">
-        <v>253.77978515625</v>
+        <v>319.849609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>243.760009765625</v>
+        <v>309.300048828125</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>240.5</v>
+        <v>302.93994140625</v>
       </c>
     </row>
   </sheetData>
@@ -8394,7 +8769,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8402,7 +8777,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8410,7 +8785,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8418,7 +8793,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8426,7 +8801,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8434,7 +8809,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8442,7 +8817,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8450,7 +8825,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8458,7 +8833,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8466,7 +8841,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8474,7 +8849,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8482,7 +8857,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8490,7 +8865,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8498,7 +8873,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8506,7 +8881,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8514,7 +8889,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8522,7 +8897,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8530,7 +8905,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8538,7 +8913,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8546,7 +8921,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8554,7 +8929,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8562,7 +8937,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8570,7 +8945,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8578,7 +8953,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8586,7 +8961,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8594,7 +8969,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8602,7 +8977,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8610,7 +8985,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8618,7 +8993,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8626,7 +9001,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8634,7 +9009,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8642,7 +9017,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8650,7 +9025,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8658,7 +9033,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8666,7 +9041,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8674,7 +9049,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8682,7 +9057,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8690,7 +9065,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8698,7 +9073,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8706,7 +9081,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8714,7 +9089,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8722,7 +9097,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8730,7 +9105,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8738,7 +9113,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8746,7 +9121,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8754,7 +9129,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8762,7 +9137,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8770,7 +9145,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8778,7 +9153,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8786,7 +9161,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8794,7 +9169,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8802,7 +9177,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8810,7 +9185,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8818,7 +9193,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8826,7 +9201,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8834,7 +9209,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8842,7 +9217,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8850,7 +9225,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8858,7 +9233,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8866,7 +9241,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8892,7 +9267,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8900,7 +9275,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8908,7 +9283,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8916,7 +9291,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8924,7 +9299,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8932,7 +9307,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8940,7 +9315,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8948,7 +9323,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8956,7 +9331,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8964,7 +9339,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8972,7 +9347,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8980,7 +9355,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8988,7 +9363,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8996,7 +9371,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9004,7 +9379,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9012,7 +9387,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9020,7 +9395,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9028,7 +9403,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -9036,7 +9411,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9044,7 +9419,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9052,7 +9427,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9060,7 +9435,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9068,7 +9443,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9076,7 +9451,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9084,7 +9459,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9092,7 +9467,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9100,7 +9475,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9108,7 +9483,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9116,7 +9491,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9124,7 +9499,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9132,7 +9507,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9140,7 +9515,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9148,7 +9523,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9156,7 +9531,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9164,7 +9539,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9172,7 +9547,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9180,7 +9555,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9188,7 +9563,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9196,7 +9571,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9204,7 +9579,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9212,7 +9587,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9220,7 +9595,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9228,7 +9603,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9236,7 +9611,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9244,7 +9619,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -9252,7 +9627,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -9260,7 +9635,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -9268,7 +9643,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -9276,7 +9651,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9284,7 +9659,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -9292,7 +9667,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9300,7 +9675,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -9308,7 +9683,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9316,7 +9691,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9324,7 +9699,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9332,7 +9707,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9340,7 +9715,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9348,7 +9723,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9356,7 +9731,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9364,7 +9739,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="68">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Rodada 6</t>
+  </si>
+  <si>
+    <t>Rodada 7</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -586,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,10 +614,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -634,10 +640,13 @@
       <c r="G2">
         <v>103.259765625</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>94.33984375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -657,10 +666,13 @@
       <c r="G3">
         <v>78.85986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>90.35986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -680,10 +692,13 @@
       <c r="G4">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>75.89013671875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -703,10 +718,13 @@
       <c r="G5">
         <v>75.259765625</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>80.14013671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -726,10 +744,13 @@
       <c r="G6">
         <v>78.919921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>93.740234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -749,10 +770,13 @@
       <c r="G7">
         <v>88.06005859375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>97.58984375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -772,10 +796,13 @@
       <c r="G8">
         <v>88.759765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>96.10986328125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -795,10 +822,13 @@
       <c r="G9">
         <v>84.0498046875</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>85.81005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -818,10 +848,13 @@
       <c r="G10">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -841,10 +874,13 @@
       <c r="G11">
         <v>86.9599609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>79.7001953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -864,10 +900,13 @@
       <c r="G12">
         <v>70.93017578125</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>79.43994140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -887,10 +926,13 @@
       <c r="G13">
         <v>68.4501953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>85.83984375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -910,10 +952,13 @@
       <c r="G14">
         <v>98.7998046875</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>83.7900390625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -933,10 +978,13 @@
       <c r="G15">
         <v>107.66015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>87.89013671875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -956,10 +1004,13 @@
       <c r="G16">
         <v>99.56005859375</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>87.66015625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -979,10 +1030,13 @@
       <c r="G17">
         <v>49.260009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>79.66015625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1002,10 +1056,13 @@
       <c r="G18">
         <v>92.06005859375</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>104.31005859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1025,10 +1082,13 @@
       <c r="G19">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>105.990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1048,10 +1108,13 @@
       <c r="G20">
         <v>58.300048828125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>99.39013671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1071,10 +1134,13 @@
       <c r="G21">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>116.56005859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1094,10 +1160,13 @@
       <c r="G22">
         <v>98.16015625</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>96.68994140625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1117,10 +1186,13 @@
       <c r="G23">
         <v>106.06005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>127.759765625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1140,10 +1212,13 @@
       <c r="G24">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>98.7900390625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1163,10 +1238,13 @@
       <c r="G25">
         <v>98.2998046875</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>95.7900390625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1186,10 +1264,13 @@
       <c r="G26">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>106.490234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1209,10 +1290,13 @@
       <c r="G27">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>133.8095703125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1232,10 +1316,13 @@
       <c r="G28">
         <v>108.56005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>87.7099609375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1255,10 +1342,13 @@
       <c r="G29">
         <v>48.840087890625</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>114.66015625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1278,10 +1368,13 @@
       <c r="G30">
         <v>98.06005859375</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>85.68994140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1301,10 +1394,13 @@
       <c r="G31">
         <v>109.64990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1324,10 +1420,13 @@
       <c r="G32">
         <v>110.31982421875</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>96.35986328125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1347,10 +1446,13 @@
       <c r="G33">
         <v>106.14990234375</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>113.89013671875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1370,10 +1472,13 @@
       <c r="G34">
         <v>85.16015625</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>100.16015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1393,10 +1498,13 @@
       <c r="G35">
         <v>95.31982421875</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>86.08984375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1416,10 +1524,13 @@
       <c r="G36">
         <v>66.759765625</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>99.2900390625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1439,10 +1550,13 @@
       <c r="G37">
         <v>103.66015625</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>91.5400390625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1462,10 +1576,13 @@
       <c r="G38">
         <v>119.85009765625</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>98.7099609375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1485,10 +1602,13 @@
       <c r="G39">
         <v>46.10009765625</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>89.68994140625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1508,10 +1628,13 @@
       <c r="G40">
         <v>131.6103515625</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>123.83984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1531,10 +1654,13 @@
       <c r="G41">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>105.7099609375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1554,10 +1680,13 @@
       <c r="G42">
         <v>110.35986328125</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>93.5400390625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1577,10 +1706,13 @@
       <c r="G43">
         <v>107.7001953125</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>92.39013671875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1600,10 +1732,13 @@
       <c r="G44">
         <v>106.93017578125</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>85.490234375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1623,10 +1758,13 @@
       <c r="G45">
         <v>73.259765625</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>86.240234375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1646,10 +1784,13 @@
       <c r="G46">
         <v>82.64990234375</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>98.18994140625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1669,10 +1810,13 @@
       <c r="G47">
         <v>92.0498046875</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>94.58984375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1692,10 +1836,13 @@
       <c r="G48">
         <v>78.56005859375</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>119.89013671875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -1715,10 +1862,13 @@
       <c r="G49">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>93.83984375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -1738,10 +1888,13 @@
       <c r="G50">
         <v>111.43017578125</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>93.31005859375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -1761,10 +1914,13 @@
       <c r="G51">
         <v>77.47998046875</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>95.89013671875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -1784,10 +1940,13 @@
       <c r="G52">
         <v>88.35986328125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>91.509765625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -1807,10 +1966,13 @@
       <c r="G53">
         <v>69.60986328125</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>92.35986328125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -1830,10 +1992,13 @@
       <c r="G54">
         <v>100.85986328125</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>96.39013671875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -1853,10 +2018,13 @@
       <c r="G55">
         <v>93.35986328125</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>94.08984375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -1876,10 +2044,13 @@
       <c r="G56">
         <v>62.43994140625</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>105.83984375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -1899,10 +2070,13 @@
       <c r="G57">
         <v>61.8798828125</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>65.14013671875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -1922,10 +2096,13 @@
       <c r="G58">
         <v>61.159912109375</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>96.759765625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -1945,10 +2122,13 @@
       <c r="G59">
         <v>65.5400390625</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>123.81005859375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -1968,10 +2148,13 @@
       <c r="G60">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>141.41015625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -1991,28 +2174,34 @@
       <c r="G61">
         <v>68.7001953125</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>90.740234375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
         <v>45</v>
       </c>
-      <c r="E62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" t="s">
-        <v>44</v>
+      <c r="H62" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2224,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2043,7 +2232,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2051,7 +2240,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2059,7 +2248,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2067,7 +2256,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2075,7 +2264,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2083,7 +2272,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2091,7 +2280,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2099,7 +2288,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2107,7 +2296,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2115,7 +2304,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2123,7 +2312,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2131,7 +2320,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2139,7 +2328,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2147,7 +2336,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2155,7 +2344,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2163,7 +2352,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2171,7 +2360,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2179,7 +2368,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2187,7 +2376,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2195,7 +2384,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2203,7 +2392,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2211,7 +2400,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2219,7 +2408,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2227,7 +2416,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2235,7 +2424,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2243,7 +2432,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2251,7 +2440,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2259,7 +2448,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2267,7 +2456,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2275,7 +2464,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2283,7 +2472,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2291,7 +2480,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2299,7 +2488,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2307,7 +2496,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2315,7 +2504,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2323,7 +2512,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2331,7 +2520,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2339,7 +2528,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2347,7 +2536,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2355,7 +2544,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2363,7 +2552,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2371,7 +2560,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2379,7 +2568,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2387,7 +2576,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2395,7 +2584,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2403,7 +2592,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2411,7 +2600,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2419,7 +2608,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2427,7 +2616,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2435,7 +2624,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2443,7 +2632,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2451,7 +2640,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2459,7 +2648,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2467,7 +2656,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2475,7 +2664,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2483,7 +2672,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2491,7 +2680,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2499,7 +2688,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2507,7 +2696,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2533,7 +2722,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2541,7 +2730,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2549,7 +2738,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2557,7 +2746,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2565,7 +2754,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2573,7 +2762,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2581,7 +2770,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2589,7 +2778,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2597,7 +2786,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2605,7 +2794,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2613,7 +2802,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2621,7 +2810,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2629,7 +2818,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2637,7 +2826,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2645,7 +2834,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2653,7 +2842,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2661,7 +2850,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2669,7 +2858,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2677,7 +2866,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2685,7 +2874,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2693,7 +2882,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2701,7 +2890,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2709,7 +2898,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2717,7 +2906,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2725,7 +2914,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2733,7 +2922,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2741,7 +2930,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2749,7 +2938,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2757,7 +2946,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2765,7 +2954,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2773,7 +2962,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2781,7 +2970,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2789,7 +2978,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2797,7 +2986,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2805,7 +2994,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2813,7 +3002,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2821,7 +3010,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2829,7 +3018,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2837,7 +3026,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2845,7 +3034,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2853,7 +3042,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2861,7 +3050,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2869,7 +3058,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2877,7 +3066,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2885,7 +3074,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2893,7 +3082,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2901,7 +3090,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2909,7 +3098,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2917,7 +3106,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2925,7 +3114,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2933,7 +3122,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2941,7 +3130,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2949,7 +3138,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2957,7 +3146,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2965,7 +3154,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2973,7 +3162,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2981,7 +3170,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2989,7 +3178,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2997,7 +3186,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3005,7 +3194,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3031,7 +3220,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3039,7 +3228,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3047,7 +3236,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3055,7 +3244,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3063,7 +3252,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3071,7 +3260,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3079,7 +3268,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3087,7 +3276,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3095,7 +3284,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3103,7 +3292,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3111,7 +3300,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3119,7 +3308,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3127,7 +3316,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3135,7 +3324,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3143,7 +3332,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3151,7 +3340,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3159,7 +3348,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3167,7 +3356,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3175,7 +3364,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3183,7 +3372,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3191,7 +3380,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3199,7 +3388,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3207,7 +3396,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3215,7 +3404,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3223,7 +3412,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3231,7 +3420,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3239,7 +3428,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3247,7 +3436,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3255,7 +3444,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3263,7 +3452,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3271,7 +3460,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3279,7 +3468,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3287,7 +3476,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3295,7 +3484,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3303,7 +3492,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3311,7 +3500,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3319,7 +3508,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3327,7 +3516,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3335,7 +3524,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3343,7 +3532,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3351,7 +3540,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3359,7 +3548,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3367,7 +3556,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3375,7 +3564,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3383,7 +3572,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3391,7 +3580,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3399,7 +3588,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3407,7 +3596,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3415,7 +3604,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3423,7 +3612,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3431,7 +3620,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3439,7 +3628,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3447,7 +3636,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3455,7 +3644,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3463,7 +3652,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3471,7 +3660,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3479,7 +3668,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3487,7 +3676,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3495,7 +3684,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3503,7 +3692,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3529,7 +3718,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3537,7 +3726,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3545,7 +3734,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3553,7 +3742,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3561,7 +3750,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3569,7 +3758,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3577,7 +3766,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3585,7 +3774,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3593,7 +3782,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3601,7 +3790,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3609,7 +3798,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3617,7 +3806,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3625,7 +3814,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3633,7 +3822,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3641,7 +3830,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3649,7 +3838,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3657,7 +3846,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3665,7 +3854,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3673,7 +3862,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3681,7 +3870,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3689,7 +3878,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3697,7 +3886,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3705,7 +3894,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3713,7 +3902,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3721,7 +3910,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3729,7 +3918,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3737,7 +3926,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3745,7 +3934,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3753,7 +3942,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3761,7 +3950,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3769,7 +3958,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3777,7 +3966,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3785,7 +3974,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3793,7 +3982,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3801,7 +3990,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3809,7 +3998,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3817,7 +4006,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3825,7 +4014,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3833,7 +4022,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3841,7 +4030,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3849,7 +4038,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3857,7 +4046,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3865,7 +4054,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3873,7 +4062,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3881,7 +4070,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3889,7 +4078,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3897,7 +4086,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3905,7 +4094,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3913,7 +4102,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3921,7 +4110,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3929,7 +4118,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3937,7 +4126,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3945,7 +4134,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3953,7 +4142,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3961,7 +4150,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3969,7 +4158,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3977,7 +4166,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3985,7 +4174,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3993,7 +4182,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4001,7 +4190,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4027,7 +4216,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4035,7 +4224,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4043,7 +4232,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4051,7 +4240,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4059,7 +4248,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4067,7 +4256,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4075,7 +4264,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4083,7 +4272,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4091,7 +4280,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4099,7 +4288,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4107,7 +4296,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4115,7 +4304,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4123,7 +4312,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4131,7 +4320,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4139,7 +4328,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4147,7 +4336,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4155,7 +4344,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4163,7 +4352,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4171,7 +4360,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4179,7 +4368,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4187,7 +4376,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4195,7 +4384,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4203,7 +4392,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4211,7 +4400,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4219,7 +4408,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4227,7 +4416,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4235,7 +4424,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4243,7 +4432,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4251,7 +4440,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4259,7 +4448,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4267,7 +4456,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4275,7 +4464,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4283,7 +4472,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4291,7 +4480,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4299,7 +4488,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4307,7 +4496,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4315,7 +4504,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4323,7 +4512,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4331,7 +4520,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4339,7 +4528,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4347,7 +4536,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4355,7 +4544,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4363,7 +4552,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4371,7 +4560,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4379,7 +4568,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4387,7 +4576,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4395,7 +4584,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4403,7 +4592,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4411,7 +4600,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4419,7 +4608,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4427,7 +4616,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4435,7 +4624,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4443,7 +4632,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4451,7 +4640,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4459,7 +4648,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4467,7 +4656,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4475,7 +4664,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4483,7 +4672,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4491,7 +4680,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4499,7 +4688,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4525,7 +4714,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4533,7 +4722,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4541,7 +4730,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4549,7 +4738,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4557,7 +4746,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4565,7 +4754,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4573,7 +4762,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4581,7 +4770,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4589,7 +4778,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4597,7 +4786,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4605,7 +4794,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4613,7 +4802,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4621,7 +4810,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4629,7 +4818,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4637,7 +4826,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4645,7 +4834,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4653,7 +4842,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4661,7 +4850,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4669,7 +4858,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4677,7 +4866,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4685,7 +4874,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4693,7 +4882,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4701,7 +4890,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4709,7 +4898,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4717,7 +4906,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4725,7 +4914,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4733,7 +4922,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4741,7 +4930,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4749,7 +4938,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4757,7 +4946,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4765,7 +4954,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4773,7 +4962,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4781,7 +4970,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4789,7 +4978,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4797,7 +4986,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4805,7 +4994,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4813,7 +5002,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4821,7 +5010,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4829,7 +5018,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4837,7 +5026,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4845,7 +5034,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4853,7 +5042,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4861,7 +5050,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4869,7 +5058,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4877,7 +5066,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4885,7 +5074,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4893,7 +5082,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4901,7 +5090,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4909,7 +5098,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4917,7 +5106,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4925,7 +5114,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4933,7 +5122,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4941,7 +5130,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4949,7 +5138,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4957,7 +5146,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4965,7 +5154,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4973,7 +5162,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4981,7 +5170,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4989,7 +5178,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4997,7 +5186,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5010,13 +5199,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5035,10 +5224,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -5058,10 +5250,13 @@
       <c r="G2">
         <v>103.259765625</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>94.33984375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -5081,10 +5276,13 @@
       <c r="G3">
         <v>78.85986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>90.35986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -5104,10 +5302,13 @@
       <c r="G4">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>75.89013671875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -5127,10 +5328,13 @@
       <c r="G5">
         <v>75.259765625</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>80.14013671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -5150,10 +5354,13 @@
       <c r="G6">
         <v>78.919921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>93.740234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -5173,10 +5380,13 @@
       <c r="G7">
         <v>88.06005859375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>97.58984375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -5196,10 +5406,13 @@
       <c r="G8">
         <v>88.759765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>96.10986328125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -5219,10 +5432,13 @@
       <c r="G9">
         <v>84.0498046875</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>85.81005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -5242,10 +5458,13 @@
       <c r="G10">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -5265,10 +5484,13 @@
       <c r="G11">
         <v>86.9599609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>79.7001953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -5288,10 +5510,13 @@
       <c r="G12">
         <v>70.93017578125</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>79.43994140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -5311,10 +5536,13 @@
       <c r="G13">
         <v>68.4501953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>85.83984375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -5334,10 +5562,13 @@
       <c r="G14">
         <v>98.7998046875</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>83.7900390625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -5357,10 +5588,13 @@
       <c r="G15">
         <v>107.66015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>87.89013671875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -5380,10 +5614,13 @@
       <c r="G16">
         <v>99.56005859375</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>87.66015625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -5403,10 +5640,13 @@
       <c r="G17">
         <v>49.260009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>79.66015625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -5426,10 +5666,13 @@
       <c r="G18">
         <v>92.06005859375</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>104.31005859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -5449,10 +5692,13 @@
       <c r="G19">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>105.990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -5472,10 +5718,13 @@
       <c r="G20">
         <v>58.300048828125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>99.39013671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -5495,10 +5744,13 @@
       <c r="G21">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>116.56005859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -5518,10 +5770,13 @@
       <c r="G22">
         <v>98.16015625</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>96.68994140625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -5541,10 +5796,13 @@
       <c r="G23">
         <v>106.06005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>127.759765625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -5564,10 +5822,13 @@
       <c r="G24">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>98.7900390625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -5587,10 +5848,13 @@
       <c r="G25">
         <v>98.2998046875</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>95.7900390625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -5610,10 +5874,13 @@
       <c r="G26">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>106.490234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -5633,10 +5900,13 @@
       <c r="G27">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>133.8095703125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -5656,10 +5926,13 @@
       <c r="G28">
         <v>108.56005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>87.7099609375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -5679,10 +5952,13 @@
       <c r="G29">
         <v>48.840087890625</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>114.66015625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -5702,10 +5978,13 @@
       <c r="G30">
         <v>98.06005859375</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>85.68994140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -5725,10 +6004,13 @@
       <c r="G31">
         <v>109.64990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -5748,10 +6030,13 @@
       <c r="G32">
         <v>110.31982421875</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>96.35986328125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -5771,10 +6056,13 @@
       <c r="G33">
         <v>106.14990234375</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>113.89013671875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -5794,10 +6082,13 @@
       <c r="G34">
         <v>85.16015625</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>100.16015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -5817,10 +6108,13 @@
       <c r="G35">
         <v>95.31982421875</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>86.08984375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -5840,10 +6134,13 @@
       <c r="G36">
         <v>66.759765625</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>99.2900390625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -5863,10 +6160,13 @@
       <c r="G37">
         <v>103.66015625</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>91.5400390625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -5886,10 +6186,13 @@
       <c r="G38">
         <v>119.85009765625</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>98.7099609375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -5909,10 +6212,13 @@
       <c r="G39">
         <v>46.10009765625</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>89.68994140625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -5932,10 +6238,13 @@
       <c r="G40">
         <v>131.6103515625</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>123.83984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -5955,10 +6264,13 @@
       <c r="G41">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>105.7099609375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -5978,10 +6290,13 @@
       <c r="G42">
         <v>110.35986328125</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>93.5400390625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -6001,10 +6316,13 @@
       <c r="G43">
         <v>107.7001953125</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>92.39013671875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -6024,10 +6342,13 @@
       <c r="G44">
         <v>106.93017578125</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>85.490234375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -6047,10 +6368,13 @@
       <c r="G45">
         <v>73.259765625</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>86.240234375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -6070,10 +6394,13 @@
       <c r="G46">
         <v>82.64990234375</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>98.18994140625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -6093,10 +6420,13 @@
       <c r="G47">
         <v>92.0498046875</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>94.58984375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -6116,10 +6446,13 @@
       <c r="G48">
         <v>78.56005859375</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>119.89013671875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -6139,10 +6472,13 @@
       <c r="G49">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>93.83984375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -6162,10 +6498,13 @@
       <c r="G50">
         <v>111.43017578125</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>93.31005859375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -6185,10 +6524,13 @@
       <c r="G51">
         <v>77.47998046875</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>95.89013671875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -6208,10 +6550,13 @@
       <c r="G52">
         <v>88.35986328125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>91.509765625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -6231,10 +6576,13 @@
       <c r="G53">
         <v>69.60986328125</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>92.35986328125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -6254,10 +6602,13 @@
       <c r="G54">
         <v>100.85986328125</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>96.39013671875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -6277,10 +6628,13 @@
       <c r="G55">
         <v>93.35986328125</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>94.08984375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -6300,10 +6654,13 @@
       <c r="G56">
         <v>62.43994140625</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>105.83984375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -6323,10 +6680,13 @@
       <c r="G57">
         <v>61.8798828125</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>65.14013671875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -6346,10 +6706,13 @@
       <c r="G58">
         <v>61.159912109375</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>96.759765625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -6369,10 +6732,13 @@
       <c r="G59">
         <v>65.5400390625</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>123.81005859375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -6392,10 +6758,13 @@
       <c r="G60">
         <v>96.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>141.41015625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -6415,28 +6784,34 @@
       <c r="G61">
         <v>68.7001953125</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>90.740234375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
         <v>45</v>
       </c>
-      <c r="E62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" t="s">
-        <v>44</v>
+      <c r="H62" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6454,307 +6829,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6777,482 +7152,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>552.1396484375</v>
+        <v>647.8603515625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>540.13037109375</v>
+        <v>646.4794921875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>535.009765625</v>
+        <v>645.849609375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>526.31005859375</v>
+        <v>640.77001953125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>526.080078125</v>
+        <v>636.92919921875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>524.0205078125</v>
+        <v>636.0107421875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>522.12060546875</v>
+        <v>632.80029296875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>520.8798828125</v>
+        <v>632.5205078125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>519.56005859375</v>
+        <v>611.77001953125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>518.08984375</v>
+        <v>611.110595703125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>517.800537109375</v>
+        <v>610.89990234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>517.379638671875</v>
+        <v>610.83056640625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>514.61962890625</v>
+        <v>610.7294921875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>514.140625</v>
+        <v>610.59033203125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>513.68994140625</v>
+        <v>609.1396484375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>513.55029296875</v>
+        <v>608.889404296875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>513.00048828125</v>
+        <v>604.919921875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B19">
-        <v>508.56005859375</v>
+        <v>602.139892578125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>505.749755859375</v>
+        <v>601.35009765625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>504.9794921875</v>
+        <v>601.26025390625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>504.2998046875</v>
+        <v>600.33984375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>503.4296875</v>
+        <v>599.7001953125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>503.11962890625</v>
+        <v>598.04052734375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>501.6298828125</v>
+        <v>597.83984375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>500.619384765625</v>
+        <v>596.8701171875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>499.76953125</v>
+        <v>595.33935546875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>498.68017578125</v>
+        <v>594.359619140625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>498.580078125</v>
+        <v>586.94970703125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>493.73046875</v>
+        <v>586.67041015625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>491.15966796875</v>
+        <v>583.5595703125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>482.690185546875</v>
+        <v>578.999755859375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>480.68017578125</v>
+        <v>578.560791015625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>479.170654296875</v>
+        <v>578.2802734375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>479.160400390625</v>
+        <v>574.31982421875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>475.830078125</v>
+        <v>570.700439453125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>472.790283203125</v>
+        <v>568.8203125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>470.700927734375</v>
+        <v>568.180419921875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B39">
-        <v>466.9794921875</v>
+        <v>566.880126953125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>466.64013671875</v>
+        <v>565.76953125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>464.57958984375</v>
+        <v>558.591064453125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>462.439697265625</v>
+        <v>557.38037109375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>458.259765625</v>
+        <v>552.849609375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>449.68017578125</v>
+        <v>550.3896484375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>445.440185546875</v>
+        <v>545.600341796875</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>443.39990234375</v>
+        <v>529.1201171875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>432.90966796875</v>
+        <v>523.06005859375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>432.02001953125</v>
+        <v>519.2197265625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>429.2197265625</v>
+        <v>518.840576171875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>415.85986328125</v>
+        <v>518.10986328125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>412.009765625</v>
+        <v>511.75</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>410.4404296875</v>
+        <v>504.36962890625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>408.619384765625</v>
+        <v>503.56982421875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>406.81005859375</v>
+        <v>496.2802734375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>405.669921875</v>
+        <v>494.859619140625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>404.180419921875</v>
+        <v>492.539794921875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>398.309814453125</v>
+        <v>492.149658203125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>393.249755859375</v>
+        <v>483.14013671875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59">
-        <v>386.98974609375</v>
+        <v>476.6796875</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>361.929931640625</v>
+        <v>470.81005859375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>359.330078125</v>
+        <v>467.769775390625</v>
       </c>
     </row>
   </sheetData>
@@ -7275,7 +7650,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7283,7 +7658,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7291,7 +7666,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7299,7 +7674,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7307,7 +7682,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7315,7 +7690,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7323,7 +7698,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7331,7 +7706,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7339,7 +7714,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7347,7 +7722,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7355,7 +7730,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7363,7 +7738,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7371,7 +7746,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7379,7 +7754,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7387,7 +7762,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7395,7 +7770,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7403,7 +7778,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7411,7 +7786,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7419,7 +7794,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7427,7 +7802,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7435,7 +7810,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7443,7 +7818,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7451,7 +7826,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7459,7 +7834,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7467,7 +7842,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7475,7 +7850,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7483,7 +7858,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7491,7 +7866,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7499,7 +7874,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7507,7 +7882,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7515,7 +7890,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7523,7 +7898,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7531,7 +7906,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7539,7 +7914,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7547,7 +7922,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7555,7 +7930,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7563,7 +7938,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7571,7 +7946,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7579,7 +7954,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7587,7 +7962,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7595,7 +7970,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7603,7 +7978,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7611,7 +7986,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7619,7 +7994,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7627,7 +8002,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7635,7 +8010,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7643,7 +8018,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7651,7 +8026,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7659,7 +8034,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7667,7 +8042,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7675,7 +8050,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7683,7 +8058,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7691,7 +8066,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7699,7 +8074,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7707,7 +8082,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7715,7 +8090,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7723,7 +8098,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7731,7 +8106,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7739,7 +8114,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7747,7 +8122,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7773,7 +8148,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -7781,7 +8156,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -7789,7 +8164,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -7797,7 +8172,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -7805,7 +8180,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -7813,7 +8188,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -7821,7 +8196,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -7829,7 +8204,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -7837,7 +8212,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -7845,7 +8220,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -7853,7 +8228,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -7861,7 +8236,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -7869,7 +8244,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -7877,7 +8252,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -7885,7 +8260,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -7893,7 +8268,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -7901,7 +8276,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -7909,7 +8284,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -7917,7 +8292,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -7925,7 +8300,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -7933,7 +8308,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -7941,7 +8316,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -7949,7 +8324,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -7957,7 +8332,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -7965,7 +8340,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -7973,7 +8348,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -7981,7 +8356,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -7989,7 +8364,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -7997,7 +8372,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -8005,7 +8380,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -8013,7 +8388,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -8021,7 +8396,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -8029,7 +8404,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -8037,7 +8412,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -8045,7 +8420,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -8053,7 +8428,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -8061,7 +8436,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -8069,7 +8444,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -8077,7 +8452,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -8085,7 +8460,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -8093,7 +8468,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -8101,7 +8476,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -8109,7 +8484,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -8117,7 +8492,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -8125,7 +8500,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -8133,7 +8508,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -8141,7 +8516,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -8149,7 +8524,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -8157,7 +8532,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -8165,7 +8540,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -8173,7 +8548,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -8181,7 +8556,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -8189,7 +8564,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -8197,7 +8572,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -8205,7 +8580,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -8213,7 +8588,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -8221,7 +8596,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -8229,7 +8604,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -8237,7 +8612,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -8245,7 +8620,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -8271,7 +8646,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -8279,7 +8654,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -8287,7 +8662,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -8295,7 +8670,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -8303,7 +8678,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -8311,7 +8686,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -8319,7 +8694,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -8327,7 +8702,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -8335,7 +8710,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -8343,7 +8718,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -8351,7 +8726,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -8359,7 +8734,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -8367,7 +8742,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -8375,7 +8750,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -8383,7 +8758,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -8391,7 +8766,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -8399,7 +8774,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -8407,7 +8782,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -8415,7 +8790,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -8423,7 +8798,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -8431,7 +8806,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -8439,7 +8814,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -8447,7 +8822,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -8455,7 +8830,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -8463,7 +8838,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -8471,7 +8846,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -8479,7 +8854,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -8487,7 +8862,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -8495,7 +8870,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -8503,7 +8878,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -8511,7 +8886,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -8519,7 +8894,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -8527,7 +8902,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -8535,7 +8910,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -8543,7 +8918,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -8551,7 +8926,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -8559,7 +8934,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -8567,7 +8942,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -8575,7 +8950,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -8583,7 +8958,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -8591,7 +8966,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -8599,7 +8974,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -8607,7 +8982,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -8615,7 +8990,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -8623,7 +8998,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -8631,7 +9006,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -8639,7 +9014,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -8647,7 +9022,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -8655,7 +9030,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -8663,7 +9038,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -8671,7 +9046,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -8679,7 +9054,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -8687,7 +9062,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -8695,7 +9070,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -8703,7 +9078,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -8711,7 +9086,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -8719,7 +9094,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -8727,7 +9102,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -8735,7 +9110,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -8743,7 +9118,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -8769,186 +9144,186 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>141.41015625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>133.8095703125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>127.759765625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>123.83984375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>123.81005859375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>119.89013671875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>116.56005859375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>114.66015625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>113.89013671875</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>106.490234375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>105.990234375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>105.83984375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>105.7099609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>104.31005859375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>100.16015625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>99.39013671875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>99.2900390625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>98.7900390625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>98.7099609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>98.18994140625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>97.58984375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>96.759765625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>96.68994140625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8956,295 +9331,295 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>96.39013671875</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>96.35986328125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>96.10986328125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>95.89013671875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>95.7900390625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>94.58984375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>94.33984375</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>94.08984375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>93.83984375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>93.740234375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>93.5400390625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>93.31005859375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>92.990234375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>92.39013671875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>92.35986328125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>91.5400390625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>91.509765625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>90.740234375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>90.35986328125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>89.68994140625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>87.89013671875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>87.7099609375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>87.66015625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>86.240234375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>86.08984375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>85.83984375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>85.81005859375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>85.68994140625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>85.490234375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>83.7900390625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>80.14013671875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>79.7001953125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>79.66015625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>79.43994140625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>75.89013671875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>65.14013671875</v>
       </c>
     </row>
   </sheetData>
@@ -9267,7 +9642,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9275,7 +9650,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9283,7 +9658,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9291,7 +9666,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9299,7 +9674,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9307,7 +9682,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9315,7 +9690,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9323,7 +9698,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9331,7 +9706,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9339,7 +9714,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9347,7 +9722,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9355,7 +9730,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9363,7 +9738,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9371,7 +9746,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9379,7 +9754,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9387,7 +9762,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9395,7 +9770,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9403,7 +9778,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -9411,7 +9786,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9419,7 +9794,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9427,7 +9802,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9435,7 +9810,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9443,7 +9818,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9451,7 +9826,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9459,7 +9834,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9467,7 +9842,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9475,7 +9850,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9483,7 +9858,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9491,7 +9866,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9499,7 +9874,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9507,7 +9882,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9515,7 +9890,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9523,7 +9898,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9531,7 +9906,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9539,7 +9914,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9547,7 +9922,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9555,7 +9930,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9563,7 +9938,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9571,7 +9946,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9579,7 +9954,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9587,7 +9962,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9595,7 +9970,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9603,7 +9978,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9611,7 +9986,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9619,7 +9994,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -9627,7 +10002,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -9635,7 +10010,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -9643,7 +10018,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -9651,7 +10026,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9659,7 +10034,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -9667,7 +10042,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9675,7 +10050,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -9683,7 +10058,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9691,7 +10066,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9699,7 +10074,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9707,7 +10082,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9715,7 +10090,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9723,7 +10098,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9731,7 +10106,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9739,7 +10114,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="69">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Rodada 7</t>
+  </si>
+  <si>
+    <t>Rodada 8</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -589,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,10 +620,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -643,10 +649,13 @@
       <c r="H2">
         <v>94.33984375</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>108.4501953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -669,10 +678,13 @@
       <c r="H3">
         <v>90.35986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>98.14990234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -695,10 +707,13 @@
       <c r="H4">
         <v>75.89013671875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -721,10 +736,13 @@
       <c r="H5">
         <v>80.14013671875</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>82.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -747,10 +765,13 @@
       <c r="H6">
         <v>93.740234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>73.509765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -773,10 +794,13 @@
       <c r="H7">
         <v>97.58984375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>100.68994140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -799,10 +823,13 @@
       <c r="H8">
         <v>96.10986328125</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>103.93017578125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -825,10 +852,13 @@
       <c r="H9">
         <v>85.81005859375</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>89.39990234375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -851,10 +881,13 @@
       <c r="H10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>77.240234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -877,10 +910,13 @@
       <c r="H11">
         <v>79.7001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>134.5400390625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -903,10 +939,13 @@
       <c r="H12">
         <v>79.43994140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>96.93994140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -929,10 +968,13 @@
       <c r="H13">
         <v>85.83984375</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>94.7998046875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -955,10 +997,13 @@
       <c r="H14">
         <v>83.7900390625</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>112.240234375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -981,10 +1026,13 @@
       <c r="H15">
         <v>87.89013671875</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>102.83984375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -1007,10 +1055,13 @@
       <c r="H16">
         <v>87.66015625</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>98.4501953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -1033,10 +1084,13 @@
       <c r="H17">
         <v>79.66015625</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>125.14990234375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1059,10 +1113,13 @@
       <c r="H18">
         <v>104.31005859375</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>98.490234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1085,10 +1142,13 @@
       <c r="H19">
         <v>105.990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>70.89013671875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1111,10 +1171,13 @@
       <c r="H20">
         <v>99.39013671875</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>68.89013671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1137,10 +1200,13 @@
       <c r="H21">
         <v>116.56005859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>92.2900390625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1163,10 +1229,13 @@
       <c r="H22">
         <v>96.68994140625</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>106.64990234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1189,10 +1258,13 @@
       <c r="H23">
         <v>127.759765625</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>139.400390625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1215,10 +1287,13 @@
       <c r="H24">
         <v>98.7900390625</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>76.33984375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1241,10 +1316,13 @@
       <c r="H25">
         <v>95.7900390625</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>99.4501953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1267,10 +1345,13 @@
       <c r="H26">
         <v>106.490234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>135.1904296875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1293,10 +1374,13 @@
       <c r="H27">
         <v>133.8095703125</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>92.97998046875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1319,10 +1403,13 @@
       <c r="H28">
         <v>87.7099609375</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>118.4501953125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1345,10 +1432,13 @@
       <c r="H29">
         <v>114.66015625</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>91.35009765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1371,10 +1461,13 @@
       <c r="H30">
         <v>85.68994140625</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>110.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1397,10 +1490,13 @@
       <c r="H31">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>80.89013671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1423,10 +1519,13 @@
       <c r="H32">
         <v>96.35986328125</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>120.740234375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1449,10 +1548,13 @@
       <c r="H33">
         <v>113.89013671875</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>135.490234375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1475,10 +1577,13 @@
       <c r="H34">
         <v>100.16015625</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>117.5498046875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1501,10 +1606,13 @@
       <c r="H35">
         <v>86.08984375</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>46.89990234375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1527,10 +1635,13 @@
       <c r="H36">
         <v>99.2900390625</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>136.9404296875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1553,10 +1664,13 @@
       <c r="H37">
         <v>91.5400390625</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>83.68994140625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1579,10 +1693,13 @@
       <c r="H38">
         <v>98.7099609375</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>109.14990234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1605,10 +1722,13 @@
       <c r="H39">
         <v>89.68994140625</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>98.60986328125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1631,10 +1751,13 @@
       <c r="H40">
         <v>123.83984375</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>102.43994140625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1657,10 +1780,13 @@
       <c r="H41">
         <v>105.7099609375</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>97.39013671875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1683,10 +1809,13 @@
       <c r="H42">
         <v>93.5400390625</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>112.35009765625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1709,10 +1838,13 @@
       <c r="H43">
         <v>92.39013671875</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>125.14013671875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1735,10 +1867,13 @@
       <c r="H44">
         <v>85.490234375</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>128.4404296875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1761,10 +1896,13 @@
       <c r="H45">
         <v>86.240234375</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>73.2900390625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1787,10 +1925,13 @@
       <c r="H46">
         <v>98.18994140625</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>92.490234375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1813,10 +1954,13 @@
       <c r="H47">
         <v>94.58984375</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>122.83984375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1839,10 +1983,13 @@
       <c r="H48">
         <v>119.89013671875</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>93.0400390625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -1865,10 +2012,13 @@
       <c r="H49">
         <v>93.83984375</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>124.47998046875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -1891,10 +2041,13 @@
       <c r="H50">
         <v>93.31005859375</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>115.2900390625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -1917,10 +2070,13 @@
       <c r="H51">
         <v>95.89013671875</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>45.0400390625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -1943,10 +2099,13 @@
       <c r="H52">
         <v>91.509765625</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>131.349609375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -1969,10 +2128,13 @@
       <c r="H53">
         <v>92.35986328125</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>81.14990234375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -1995,10 +2157,13 @@
       <c r="H54">
         <v>96.39013671875</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>121.93994140625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -2021,10 +2186,13 @@
       <c r="H55">
         <v>94.08984375</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>131.0595703125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -2047,10 +2215,13 @@
       <c r="H56">
         <v>105.83984375</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>120.47998046875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -2073,10 +2244,13 @@
       <c r="H57">
         <v>65.14013671875</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>73.33984375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -2099,10 +2273,13 @@
       <c r="H58">
         <v>96.759765625</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>88.08984375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -2125,10 +2302,13 @@
       <c r="H59">
         <v>123.81005859375</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>86.43017578125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -2151,10 +2331,13 @@
       <c r="H60">
         <v>141.41015625</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>90.5400390625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -2177,31 +2360,37 @@
       <c r="H61">
         <v>90.740234375</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>62.929931640625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" t="s">
         <v>46</v>
       </c>
-      <c r="E62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2413,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2232,7 +2421,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2240,7 +2429,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2248,7 +2437,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2256,7 +2445,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2264,7 +2453,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2272,7 +2461,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2280,7 +2469,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2288,7 +2477,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2296,7 +2485,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2304,7 +2493,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2312,7 +2501,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2320,7 +2509,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2328,7 +2517,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2336,7 +2525,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2344,7 +2533,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2352,7 +2541,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2360,7 +2549,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2368,7 +2557,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2376,7 +2565,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2384,7 +2573,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2392,7 +2581,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2400,7 +2589,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2408,7 +2597,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2416,7 +2605,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2424,7 +2613,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2432,7 +2621,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2440,7 +2629,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2448,7 +2637,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2456,7 +2645,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2464,7 +2653,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2472,7 +2661,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2480,7 +2669,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2488,7 +2677,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2496,7 +2685,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2504,7 +2693,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2512,7 +2701,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2520,7 +2709,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2528,7 +2717,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2536,7 +2725,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2544,7 +2733,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2552,7 +2741,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2560,7 +2749,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2568,7 +2757,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2576,7 +2765,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2584,7 +2773,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2592,7 +2781,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2600,7 +2789,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2608,7 +2797,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2616,7 +2805,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2624,7 +2813,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2632,7 +2821,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2640,7 +2829,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2648,7 +2837,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2656,7 +2845,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2664,7 +2853,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2672,7 +2861,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2680,7 +2869,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2688,7 +2877,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2696,7 +2885,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2722,7 +2911,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2730,7 +2919,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2738,7 +2927,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2746,7 +2935,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2754,7 +2943,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2762,7 +2951,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2770,7 +2959,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2778,7 +2967,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2786,7 +2975,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2794,7 +2983,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2802,7 +2991,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2810,7 +2999,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2818,7 +3007,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2826,7 +3015,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2834,7 +3023,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2842,7 +3031,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2850,7 +3039,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2858,7 +3047,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2866,7 +3055,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2874,7 +3063,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2882,7 +3071,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2890,7 +3079,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2898,7 +3087,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2906,7 +3095,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2914,7 +3103,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2922,7 +3111,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2930,7 +3119,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2938,7 +3127,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2946,7 +3135,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2954,7 +3143,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2962,7 +3151,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2970,7 +3159,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2978,7 +3167,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2986,7 +3175,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2994,7 +3183,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3002,7 +3191,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3010,7 +3199,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3018,7 +3207,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3026,7 +3215,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3034,7 +3223,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3042,7 +3231,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3050,7 +3239,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3058,7 +3247,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3066,7 +3255,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3074,7 +3263,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3082,7 +3271,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3090,7 +3279,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3098,7 +3287,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3106,7 +3295,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3114,7 +3303,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3122,7 +3311,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3130,7 +3319,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3138,7 +3327,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3146,7 +3335,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3154,7 +3343,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3162,7 +3351,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3170,7 +3359,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3178,7 +3367,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3186,7 +3375,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3194,7 +3383,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3220,7 +3409,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3228,7 +3417,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3236,7 +3425,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3244,7 +3433,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3252,7 +3441,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3260,7 +3449,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3268,7 +3457,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3276,7 +3465,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3284,7 +3473,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3292,7 +3481,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3300,7 +3489,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3308,7 +3497,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3316,7 +3505,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3324,7 +3513,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3332,7 +3521,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3340,7 +3529,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3348,7 +3537,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3356,7 +3545,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3364,7 +3553,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3372,7 +3561,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3380,7 +3569,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3388,7 +3577,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3396,7 +3585,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3404,7 +3593,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3412,7 +3601,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3420,7 +3609,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3428,7 +3617,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3436,7 +3625,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3444,7 +3633,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3452,7 +3641,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3460,7 +3649,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3468,7 +3657,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3476,7 +3665,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3484,7 +3673,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3492,7 +3681,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3500,7 +3689,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3508,7 +3697,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3516,7 +3705,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3524,7 +3713,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3532,7 +3721,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3540,7 +3729,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3548,7 +3737,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3556,7 +3745,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3564,7 +3753,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3572,7 +3761,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3580,7 +3769,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3588,7 +3777,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3596,7 +3785,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3604,7 +3793,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3612,7 +3801,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3620,7 +3809,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3628,7 +3817,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3636,7 +3825,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3644,7 +3833,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3652,7 +3841,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3660,7 +3849,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3668,7 +3857,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3676,7 +3865,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3684,7 +3873,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3692,7 +3881,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3718,7 +3907,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3726,7 +3915,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3734,7 +3923,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3742,7 +3931,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3750,7 +3939,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3758,7 +3947,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3766,7 +3955,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3774,7 +3963,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3782,7 +3971,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3790,7 +3979,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3798,7 +3987,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3806,7 +3995,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3814,7 +4003,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3822,7 +4011,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3830,7 +4019,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3838,7 +4027,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3846,7 +4035,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3854,7 +4043,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3862,7 +4051,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3870,7 +4059,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3878,7 +4067,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3886,7 +4075,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3894,7 +4083,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3902,7 +4091,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3910,7 +4099,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3918,7 +4107,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3926,7 +4115,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3934,7 +4123,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3942,7 +4131,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3950,7 +4139,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3958,7 +4147,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3966,7 +4155,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3974,7 +4163,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3982,7 +4171,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3990,7 +4179,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3998,7 +4187,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4006,7 +4195,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4014,7 +4203,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4022,7 +4211,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4030,7 +4219,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4038,7 +4227,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4046,7 +4235,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4054,7 +4243,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4062,7 +4251,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4070,7 +4259,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4078,7 +4267,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4086,7 +4275,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4094,7 +4283,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4102,7 +4291,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4110,7 +4299,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4118,7 +4307,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4126,7 +4315,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4134,7 +4323,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4142,7 +4331,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4150,7 +4339,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4158,7 +4347,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4166,7 +4355,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4174,7 +4363,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4182,7 +4371,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4190,7 +4379,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4216,7 +4405,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4224,7 +4413,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4232,7 +4421,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4240,7 +4429,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4248,7 +4437,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4256,7 +4445,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4264,7 +4453,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4272,7 +4461,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4280,7 +4469,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4288,7 +4477,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4296,7 +4485,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4304,7 +4493,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4312,7 +4501,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4320,7 +4509,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4328,7 +4517,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4336,7 +4525,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4344,7 +4533,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4352,7 +4541,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4360,7 +4549,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4368,7 +4557,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4376,7 +4565,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4384,7 +4573,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4392,7 +4581,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4400,7 +4589,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4408,7 +4597,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4416,7 +4605,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4424,7 +4613,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4432,7 +4621,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4440,7 +4629,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4448,7 +4637,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4456,7 +4645,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4464,7 +4653,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4472,7 +4661,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4480,7 +4669,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4488,7 +4677,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4496,7 +4685,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4504,7 +4693,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4512,7 +4701,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4520,7 +4709,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4528,7 +4717,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4536,7 +4725,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4544,7 +4733,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4552,7 +4741,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4560,7 +4749,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4568,7 +4757,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4576,7 +4765,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4584,7 +4773,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4592,7 +4781,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4600,7 +4789,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4608,7 +4797,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4616,7 +4805,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4624,7 +4813,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4632,7 +4821,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4640,7 +4829,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4648,7 +4837,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4656,7 +4845,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4664,7 +4853,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4672,7 +4861,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4680,7 +4869,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4688,7 +4877,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4714,7 +4903,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4722,7 +4911,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4730,7 +4919,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4738,7 +4927,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4746,7 +4935,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4754,7 +4943,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4762,7 +4951,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4770,7 +4959,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4778,7 +4967,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4786,7 +4975,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4794,7 +4983,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4802,7 +4991,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4810,7 +4999,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4818,7 +5007,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4826,7 +5015,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4834,7 +5023,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4842,7 +5031,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4850,7 +5039,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4858,7 +5047,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4866,7 +5055,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4874,7 +5063,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4882,7 +5071,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4890,7 +5079,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4898,7 +5087,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4906,7 +5095,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4914,7 +5103,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4922,7 +5111,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4930,7 +5119,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4938,7 +5127,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4946,7 +5135,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4954,7 +5143,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4962,7 +5151,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4970,7 +5159,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4978,7 +5167,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4986,7 +5175,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4994,7 +5183,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5002,7 +5191,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5010,7 +5199,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5018,7 +5207,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5026,7 +5215,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5034,7 +5223,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5042,7 +5231,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5050,7 +5239,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5058,7 +5247,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5066,7 +5255,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5074,7 +5263,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5082,7 +5271,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5090,7 +5279,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5098,7 +5287,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5106,7 +5295,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5114,7 +5303,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5122,7 +5311,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5130,7 +5319,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5138,7 +5327,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5146,7 +5335,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5154,7 +5343,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5162,7 +5351,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5170,7 +5359,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5178,7 +5367,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5186,7 +5375,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5199,13 +5388,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5227,10 +5416,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -5253,10 +5445,13 @@
       <c r="H2">
         <v>94.33984375</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>108.4501953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -5279,10 +5474,13 @@
       <c r="H3">
         <v>90.35986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>98.14990234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -5305,10 +5503,13 @@
       <c r="H4">
         <v>75.89013671875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -5331,10 +5532,13 @@
       <c r="H5">
         <v>80.14013671875</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>82.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -5357,10 +5561,13 @@
       <c r="H6">
         <v>93.740234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>73.509765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -5383,10 +5590,13 @@
       <c r="H7">
         <v>97.58984375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>100.68994140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -5409,10 +5619,13 @@
       <c r="H8">
         <v>96.10986328125</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>103.93017578125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -5435,10 +5648,13 @@
       <c r="H9">
         <v>85.81005859375</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>89.39990234375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -5461,10 +5677,13 @@
       <c r="H10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>77.240234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -5487,10 +5706,13 @@
       <c r="H11">
         <v>79.7001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>134.5400390625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -5513,10 +5735,13 @@
       <c r="H12">
         <v>79.43994140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>96.93994140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -5539,10 +5764,13 @@
       <c r="H13">
         <v>85.83984375</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>94.7998046875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -5565,10 +5793,13 @@
       <c r="H14">
         <v>83.7900390625</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>112.240234375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -5591,10 +5822,13 @@
       <c r="H15">
         <v>87.89013671875</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>102.83984375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -5617,10 +5851,13 @@
       <c r="H16">
         <v>87.66015625</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>98.4501953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -5643,10 +5880,13 @@
       <c r="H17">
         <v>79.66015625</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>125.14990234375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -5669,10 +5909,13 @@
       <c r="H18">
         <v>104.31005859375</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>98.490234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -5695,10 +5938,13 @@
       <c r="H19">
         <v>105.990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>70.89013671875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -5721,10 +5967,13 @@
       <c r="H20">
         <v>99.39013671875</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>68.89013671875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -5747,10 +5996,13 @@
       <c r="H21">
         <v>116.56005859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>92.2900390625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -5773,10 +6025,13 @@
       <c r="H22">
         <v>96.68994140625</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>106.64990234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -5799,10 +6054,13 @@
       <c r="H23">
         <v>127.759765625</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>139.400390625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -5825,10 +6083,13 @@
       <c r="H24">
         <v>98.7900390625</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>76.33984375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -5851,10 +6112,13 @@
       <c r="H25">
         <v>95.7900390625</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>99.4501953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -5877,10 +6141,13 @@
       <c r="H26">
         <v>106.490234375</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>135.1904296875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -5903,10 +6170,13 @@
       <c r="H27">
         <v>133.8095703125</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>92.97998046875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -5929,10 +6199,13 @@
       <c r="H28">
         <v>87.7099609375</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>118.4501953125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -5955,10 +6228,13 @@
       <c r="H29">
         <v>114.66015625</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>91.35009765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -5981,10 +6257,13 @@
       <c r="H30">
         <v>85.68994140625</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>110.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -6007,10 +6286,13 @@
       <c r="H31">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>80.89013671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -6033,10 +6315,13 @@
       <c r="H32">
         <v>96.35986328125</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>120.740234375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -6059,10 +6344,13 @@
       <c r="H33">
         <v>113.89013671875</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>135.490234375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -6085,10 +6373,13 @@
       <c r="H34">
         <v>100.16015625</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>117.5498046875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -6111,10 +6402,13 @@
       <c r="H35">
         <v>86.08984375</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>46.89990234375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -6137,10 +6431,13 @@
       <c r="H36">
         <v>99.2900390625</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>136.9404296875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -6163,10 +6460,13 @@
       <c r="H37">
         <v>91.5400390625</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>83.68994140625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -6189,10 +6489,13 @@
       <c r="H38">
         <v>98.7099609375</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>109.14990234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -6215,10 +6518,13 @@
       <c r="H39">
         <v>89.68994140625</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>98.60986328125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -6241,10 +6547,13 @@
       <c r="H40">
         <v>123.83984375</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>102.43994140625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -6267,10 +6576,13 @@
       <c r="H41">
         <v>105.7099609375</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>97.39013671875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -6293,10 +6605,13 @@
       <c r="H42">
         <v>93.5400390625</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>112.35009765625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -6319,10 +6634,13 @@
       <c r="H43">
         <v>92.39013671875</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>125.14013671875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -6345,10 +6663,13 @@
       <c r="H44">
         <v>85.490234375</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>128.4404296875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -6371,10 +6692,13 @@
       <c r="H45">
         <v>86.240234375</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>73.2900390625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -6397,10 +6721,13 @@
       <c r="H46">
         <v>98.18994140625</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>92.490234375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -6423,10 +6750,13 @@
       <c r="H47">
         <v>94.58984375</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>122.83984375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -6449,10 +6779,13 @@
       <c r="H48">
         <v>119.89013671875</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>93.0400390625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -6475,10 +6808,13 @@
       <c r="H49">
         <v>93.83984375</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>124.47998046875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -6501,10 +6837,13 @@
       <c r="H50">
         <v>93.31005859375</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>115.2900390625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -6527,10 +6866,13 @@
       <c r="H51">
         <v>95.89013671875</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>45.0400390625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -6553,10 +6895,13 @@
       <c r="H52">
         <v>91.509765625</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>131.349609375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -6579,10 +6924,13 @@
       <c r="H53">
         <v>92.35986328125</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>81.14990234375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -6605,10 +6953,13 @@
       <c r="H54">
         <v>96.39013671875</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>121.93994140625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -6631,10 +6982,13 @@
       <c r="H55">
         <v>94.08984375</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>131.0595703125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -6657,10 +7011,13 @@
       <c r="H56">
         <v>105.83984375</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>120.47998046875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -6683,10 +7040,13 @@
       <c r="H57">
         <v>65.14013671875</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>73.33984375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -6709,10 +7069,13 @@
       <c r="H58">
         <v>96.759765625</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>88.08984375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -6735,10 +7098,13 @@
       <c r="H59">
         <v>123.81005859375</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>86.43017578125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -6761,10 +7127,13 @@
       <c r="H60">
         <v>141.41015625</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>90.5400390625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -6787,31 +7156,37 @@
       <c r="H61">
         <v>90.740234375</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>62.929931640625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G62" t="s">
         <v>46</v>
       </c>
-      <c r="E62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6829,307 +7204,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7152,482 +7527,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>647.8603515625</v>
+        <v>785.25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>646.4794921875</v>
+        <v>771.5009765625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>645.849609375</v>
+        <v>767.99072265625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>640.77001953125</v>
+        <v>757.66064453125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>636.92919921875</v>
+        <v>754.9296875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>636.0107421875</v>
+        <v>750.30029296875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>632.80029296875</v>
+        <v>740.239013671875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>632.5205078125</v>
+        <v>733.81005859375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>611.77001953125</v>
+        <v>729.9091796875</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>611.110595703125</v>
+        <v>726.400634765625</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>610.89990234375</v>
+        <v>725.66015625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>610.83056640625</v>
+        <v>724.079833984375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>610.7294921875</v>
+        <v>721.919921875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>610.59033203125</v>
+        <v>719.71044921875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>609.1396484375</v>
+        <v>717.48046875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>608.889404296875</v>
+        <v>714.65966796875</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>604.919921875</v>
+        <v>712.8203125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>602.139892578125</v>
+        <v>711.2802734375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>601.35009765625</v>
+        <v>710.18994140625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>601.26025390625</v>
+        <v>709.48974609375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>600.33984375</v>
+        <v>706.52978515625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>599.7001953125</v>
+        <v>699.80029296875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>598.04052734375</v>
+        <v>697.939697265625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>597.83984375</v>
+        <v>696.620849609375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>596.8701171875</v>
+        <v>696.53076171875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>595.33935546875</v>
+        <v>695.7998046875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>594.359619140625</v>
+        <v>693.4892578125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>586.94970703125</v>
+        <v>689.3603515625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>586.67041015625</v>
+        <v>686.39990234375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>583.5595703125</v>
+        <v>682.400390625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>578.999755859375</v>
+        <v>676.89990234375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B33">
-        <v>578.560791015625</v>
+        <v>675.689453125</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>578.2802734375</v>
+        <v>671.289794921875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>574.31982421875</v>
+        <v>667.869384765625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>570.700439453125</v>
+        <v>664.85986328125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>568.8203125</v>
+        <v>663.150146484375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>568.180419921875</v>
+        <v>661.430908203125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>566.880126953125</v>
+        <v>657.560546875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>565.76953125</v>
+        <v>654.390380859375</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>558.591064453125</v>
+        <v>649.71044921875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>557.38037109375</v>
+        <v>648.2099609375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>552.849609375</v>
+        <v>647.450927734375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>550.3896484375</v>
+        <v>642.109375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>545.600341796875</v>
+        <v>639.78955078125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>529.1201171875</v>
+        <v>629.480224609375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>523.06005859375</v>
+        <v>626.06005859375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B48">
-        <v>519.2197265625</v>
+        <v>620.310302734375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>518.840576171875</v>
+        <v>616.629638671875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B50">
-        <v>518.10986328125</v>
+        <v>610.190673828125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>511.75</v>
+        <v>596.4599609375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B52">
-        <v>504.36962890625</v>
+        <v>591.65966796875</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>503.56982421875</v>
+        <v>591.080078125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>496.2802734375</v>
+        <v>588.249755859375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>494.859619140625</v>
+        <v>585.51953125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B56">
-        <v>492.539794921875</v>
+        <v>575.28955078125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B57">
-        <v>492.149658203125</v>
+        <v>569.5703125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>483.14013671875</v>
+        <v>568.149658203125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>476.6796875</v>
+        <v>565.009765625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>470.81005859375</v>
+        <v>556.7900390625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>467.769775390625</v>
+        <v>544.14990234375</v>
       </c>
     </row>
   </sheetData>
@@ -7650,7 +8025,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7658,7 +8033,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7666,7 +8041,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7674,7 +8049,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7682,7 +8057,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7690,7 +8065,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7698,7 +8073,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7706,7 +8081,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7714,7 +8089,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7722,7 +8097,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7730,7 +8105,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7738,7 +8113,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7746,7 +8121,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7754,7 +8129,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7762,7 +8137,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7770,7 +8145,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7778,7 +8153,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7786,7 +8161,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7794,7 +8169,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7802,7 +8177,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7810,7 +8185,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7818,7 +8193,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7826,7 +8201,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7834,7 +8209,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7842,7 +8217,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7850,7 +8225,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7858,7 +8233,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7866,7 +8241,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7874,7 +8249,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7882,7 +8257,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7890,7 +8265,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7898,7 +8273,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7906,7 +8281,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7914,7 +8289,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7922,7 +8297,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7930,7 +8305,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7938,7 +8313,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7946,7 +8321,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7954,7 +8329,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7962,7 +8337,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7970,7 +8345,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7978,7 +8353,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7986,7 +8361,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7994,7 +8369,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8002,7 +8377,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8010,7 +8385,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8018,7 +8393,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8026,7 +8401,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8034,7 +8409,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8042,7 +8417,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8050,7 +8425,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8058,7 +8433,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8066,7 +8441,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8074,7 +8449,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8082,7 +8457,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8090,7 +8465,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8098,7 +8473,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8106,7 +8481,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8114,7 +8489,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8122,7 +8497,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8148,7 +8523,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -8156,7 +8531,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -8164,7 +8539,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -8172,7 +8547,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -8180,7 +8555,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -8188,7 +8563,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -8196,7 +8571,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -8204,7 +8579,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -8212,7 +8587,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -8220,7 +8595,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -8228,7 +8603,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -8236,7 +8611,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -8244,7 +8619,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -8252,7 +8627,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -8260,7 +8635,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -8268,7 +8643,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -8276,7 +8651,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -8284,7 +8659,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -8292,7 +8667,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -8300,7 +8675,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -8308,7 +8683,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -8316,7 +8691,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -8324,7 +8699,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -8332,7 +8707,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -8340,7 +8715,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -8348,7 +8723,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -8356,7 +8731,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -8364,7 +8739,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -8372,7 +8747,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -8380,7 +8755,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -8388,7 +8763,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -8396,7 +8771,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -8404,7 +8779,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -8412,7 +8787,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -8420,7 +8795,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -8428,7 +8803,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -8436,7 +8811,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -8444,7 +8819,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -8452,7 +8827,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -8460,7 +8835,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -8468,7 +8843,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -8476,7 +8851,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -8484,7 +8859,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -8492,7 +8867,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -8500,7 +8875,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -8508,7 +8883,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -8516,7 +8891,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -8524,7 +8899,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -8532,7 +8907,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -8540,7 +8915,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -8548,7 +8923,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -8556,7 +8931,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -8564,7 +8939,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -8572,7 +8947,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -8580,7 +8955,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -8588,7 +8963,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -8596,7 +8971,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -8604,7 +8979,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -8612,7 +8987,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -8620,7 +8995,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -8646,7 +9021,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -8654,7 +9029,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -8662,7 +9037,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -8670,7 +9045,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -8678,7 +9053,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -8686,7 +9061,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -8694,7 +9069,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -8702,7 +9077,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -8710,7 +9085,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -8718,7 +9093,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -8726,7 +9101,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -8734,7 +9109,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -8742,7 +9117,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -8750,7 +9125,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -8758,7 +9133,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -8766,7 +9141,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -8774,7 +9149,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -8782,7 +9157,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -8790,7 +9165,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -8798,7 +9173,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -8806,7 +9181,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -8814,7 +9189,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -8822,7 +9197,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -8830,7 +9205,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -8838,7 +9213,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -8846,7 +9221,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -8854,7 +9229,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -8862,7 +9237,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -8870,7 +9245,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -8878,7 +9253,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -8886,7 +9261,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -8894,7 +9269,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -8902,7 +9277,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -8910,7 +9285,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -8918,7 +9293,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -8926,7 +9301,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -8934,7 +9309,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -8942,7 +9317,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -8950,7 +9325,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -8958,7 +9333,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -8966,7 +9341,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -8974,7 +9349,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -8982,7 +9357,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -8990,7 +9365,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -8998,7 +9373,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -9006,7 +9381,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -9014,7 +9389,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -9022,7 +9397,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -9030,7 +9405,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -9038,7 +9413,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -9046,7 +9421,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -9054,7 +9429,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -9062,7 +9437,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -9070,7 +9445,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -9078,7 +9453,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -9086,7 +9461,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -9094,7 +9469,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -9102,7 +9477,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -9110,7 +9485,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -9118,7 +9493,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -9144,482 +9519,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>141.41015625</v>
+        <v>267.16015625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>133.8095703125</v>
+        <v>249.38037109375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>127.759765625</v>
+        <v>241.6806640625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>123.83984375</v>
+        <v>236.23046875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>123.81005859375</v>
+        <v>231.9501953125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>119.89013671875</v>
+        <v>226.78955078125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>116.56005859375</v>
+        <v>226.31982421875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>114.66015625</v>
+        <v>226.27978515625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>113.89013671875</v>
+        <v>225.1494140625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B11">
-        <v>106.490234375</v>
+        <v>222.859375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>105.990234375</v>
+        <v>218.330078125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>105.83984375</v>
+        <v>218.31982421875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>105.7099609375</v>
+        <v>217.7099609375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>104.31005859375</v>
+        <v>217.5302734375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>100.16015625</v>
+        <v>217.4296875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>99.39013671875</v>
+        <v>217.10009765625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>99.2900390625</v>
+        <v>214.240234375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <v>98.7900390625</v>
+        <v>213.9306640625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>98.7099609375</v>
+        <v>212.93017578125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>98.18994140625</v>
+        <v>210.240234375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>97.58984375</v>
+        <v>208.85009765625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>96.759765625</v>
+        <v>208.60009765625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>96.68994140625</v>
+        <v>207.85986328125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>96.39013671875</v>
+        <v>206.16015625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>96.35986328125</v>
+        <v>206.01025390625</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B27">
-        <v>96.10986328125</v>
+        <v>205.89013671875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>95.89013671875</v>
+        <v>204.81005859375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>95.7900390625</v>
+        <v>203.33984375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>94.58984375</v>
+        <v>203.10009765625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>94.33984375</v>
+        <v>202.80029296875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>94.08984375</v>
+        <v>202.7900390625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>93.83984375</v>
+        <v>200.0400390625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>93.740234375</v>
+        <v>198.27978515625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>93.5400390625</v>
+        <v>196.0302734375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>93.31005859375</v>
+        <v>195.83984375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>92.990234375</v>
+        <v>195.240234375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>92.39013671875</v>
+        <v>190.72998046875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B39">
-        <v>92.35986328125</v>
+        <v>190.68017578125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>91.5400390625</v>
+        <v>188.509765625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>91.509765625</v>
+        <v>188.2998046875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>90.740234375</v>
+        <v>186.1103515625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>90.35986328125</v>
+        <v>184.849609375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>180.6396484375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>89.68994140625</v>
+        <v>176.88037109375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>87.89013671875</v>
+        <v>176.3798828125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>87.7099609375</v>
+        <v>175.22998046875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>87.66015625</v>
+        <v>175.2099609375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>86.240234375</v>
+        <v>175.1298828125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B50">
-        <v>86.08984375</v>
+        <v>173.88037109375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>85.83984375</v>
+        <v>173.509765625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>85.81005859375</v>
+        <v>168.2802734375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>85.68994140625</v>
+        <v>167.25</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>85.490234375</v>
+        <v>167.240234375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>83.7900390625</v>
+        <v>162.84033203125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>80.14013671875</v>
+        <v>159.5302734375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B57">
-        <v>79.7001953125</v>
+        <v>153.670166015625</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>79.66015625</v>
+        <v>141.89013671875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>79.43994140625</v>
+        <v>140.93017578125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>75.89013671875</v>
+        <v>138.47998046875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>65.14013671875</v>
+        <v>132.98974609375</v>
       </c>
     </row>
   </sheetData>
@@ -9642,7 +10017,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9650,7 +10025,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9658,7 +10033,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9666,7 +10041,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9674,7 +10049,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9682,7 +10057,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9690,7 +10065,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9698,7 +10073,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9706,7 +10081,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9714,7 +10089,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9722,7 +10097,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9730,7 +10105,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9738,7 +10113,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9746,7 +10121,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9754,7 +10129,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9762,7 +10137,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9770,7 +10145,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9778,7 +10153,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -9786,7 +10161,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9794,7 +10169,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9802,7 +10177,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9810,7 +10185,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9818,7 +10193,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9826,7 +10201,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9834,7 +10209,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9842,7 +10217,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9850,7 +10225,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9858,7 +10233,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9866,7 +10241,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9874,7 +10249,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9882,7 +10257,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9890,7 +10265,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9898,7 +10273,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9906,7 +10281,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9914,7 +10289,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9922,7 +10297,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9930,7 +10305,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9938,7 +10313,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9946,7 +10321,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9954,7 +10329,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9962,7 +10337,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9970,7 +10345,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9978,7 +10353,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9986,7 +10361,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9994,7 +10369,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10002,7 +10377,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10010,7 +10385,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10018,7 +10393,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10026,7 +10401,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10034,7 +10409,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10042,7 +10417,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10050,7 +10425,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10058,7 +10433,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -10066,7 +10441,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10074,7 +10449,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10082,7 +10457,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10090,7 +10465,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -10098,7 +10473,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10106,7 +10481,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10114,7 +10489,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="70">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Rodada 8</t>
+  </si>
+  <si>
+    <t>Rodada 9</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -592,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,10 +626,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -652,10 +658,13 @@
       <c r="I2">
         <v>108.4501953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>60.570068359375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -681,10 +690,13 @@
       <c r="I3">
         <v>98.14990234375</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>65.419921875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -710,10 +722,13 @@
       <c r="I4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>24.6300048828125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -739,10 +754,13 @@
       <c r="I5">
         <v>82.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>102.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -768,10 +786,13 @@
       <c r="I6">
         <v>73.509765625</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -797,10 +818,13 @@
       <c r="I7">
         <v>100.68994140625</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>79.06982421875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -826,10 +850,13 @@
       <c r="I8">
         <v>103.93017578125</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>77.89990234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -855,10 +882,13 @@
       <c r="I9">
         <v>89.39990234375</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>65.6298828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -884,10 +914,13 @@
       <c r="I10">
         <v>77.240234375</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>54.97998046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -913,10 +946,13 @@
       <c r="I11">
         <v>134.5400390625</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>81.35009765625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -942,10 +978,13 @@
       <c r="I12">
         <v>96.93994140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>57.85009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -971,10 +1010,13 @@
       <c r="I13">
         <v>94.7998046875</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>71.56982421875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -1000,10 +1042,13 @@
       <c r="I14">
         <v>112.240234375</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>67.7001953125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -1029,10 +1074,13 @@
       <c r="I15">
         <v>102.83984375</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>67.2001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -1058,10 +1106,13 @@
       <c r="I16">
         <v>98.4501953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>60.419921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -1087,10 +1138,13 @@
       <c r="I17">
         <v>125.14990234375</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>54.719970703125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1116,10 +1170,13 @@
       <c r="I18">
         <v>98.490234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>62.969970703125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1145,10 +1202,13 @@
       <c r="I19">
         <v>70.89013671875</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>59.02001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1174,10 +1234,13 @@
       <c r="I20">
         <v>68.89013671875</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>98.2001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1203,10 +1266,13 @@
       <c r="I21">
         <v>92.2900390625</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>89.7001953125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1232,10 +1298,13 @@
       <c r="I22">
         <v>106.64990234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1261,10 +1330,13 @@
       <c r="I23">
         <v>139.400390625</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>78.31982421875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1290,10 +1362,13 @@
       <c r="I24">
         <v>76.33984375</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>81.7001953125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1319,10 +1394,13 @@
       <c r="I25">
         <v>99.4501953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>73.27001953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1348,10 +1426,13 @@
       <c r="I26">
         <v>135.1904296875</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>74.31982421875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1377,10 +1458,13 @@
       <c r="I27">
         <v>92.97998046875</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>60.449951171875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1406,10 +1490,13 @@
       <c r="I28">
         <v>118.4501953125</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1435,10 +1522,13 @@
       <c r="I29">
         <v>91.35009765625</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>114.330078125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1464,10 +1554,13 @@
       <c r="I30">
         <v>110.14990234375</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>62.1201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1493,10 +1586,13 @@
       <c r="I31">
         <v>80.89013671875</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>88.39990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1522,10 +1618,13 @@
       <c r="I32">
         <v>120.740234375</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>76.47021484375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1551,10 +1650,13 @@
       <c r="I33">
         <v>135.490234375</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>56.8701171875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1580,10 +1682,13 @@
       <c r="I34">
         <v>117.5498046875</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>69.47998046875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1609,10 +1714,13 @@
       <c r="I35">
         <v>46.89990234375</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>71.22021484375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1638,10 +1746,13 @@
       <c r="I36">
         <v>136.9404296875</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>50.320068359375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1667,10 +1778,13 @@
       <c r="I37">
         <v>83.68994140625</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>67.68017578125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1696,10 +1810,13 @@
       <c r="I38">
         <v>109.14990234375</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>83.89990234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1725,10 +1842,13 @@
       <c r="I39">
         <v>98.60986328125</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>73.7001953125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1754,10 +1874,13 @@
       <c r="I40">
         <v>102.43994140625</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>59.6201171875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1783,10 +1906,13 @@
       <c r="I41">
         <v>97.39013671875</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>75.5498046875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1812,10 +1938,13 @@
       <c r="I42">
         <v>112.35009765625</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>76.02001953125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1841,10 +1970,13 @@
       <c r="I43">
         <v>125.14013671875</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>96.669921875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -1870,10 +2002,13 @@
       <c r="I44">
         <v>128.4404296875</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>66.77001953125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -1899,10 +2034,13 @@
       <c r="I45">
         <v>73.2900390625</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>66.72998046875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -1928,10 +2066,13 @@
       <c r="I46">
         <v>92.490234375</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>91.56982421875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -1957,10 +2098,13 @@
       <c r="I47">
         <v>122.83984375</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>58.919921875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -1986,10 +2130,13 @@
       <c r="I48">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>68.35009765625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -2015,10 +2162,13 @@
       <c r="I49">
         <v>124.47998046875</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>65.2001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -2044,10 +2194,13 @@
       <c r="I50">
         <v>115.2900390625</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>79.669921875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -2073,10 +2226,13 @@
       <c r="I51">
         <v>45.0400390625</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>58.89990234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -2102,10 +2258,13 @@
       <c r="I52">
         <v>131.349609375</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>59.77001953125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -2131,10 +2290,13 @@
       <c r="I53">
         <v>81.14990234375</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>51.669921875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -2160,10 +2322,13 @@
       <c r="I54">
         <v>121.93994140625</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -2189,10 +2354,13 @@
       <c r="I55">
         <v>131.0595703125</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>84.39990234375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -2218,10 +2386,13 @@
       <c r="I56">
         <v>120.47998046875</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>67.77978515625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -2247,10 +2418,13 @@
       <c r="I57">
         <v>73.33984375</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>52.080078125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -2276,10 +2450,13 @@
       <c r="I58">
         <v>88.08984375</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>89.3701171875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -2305,10 +2482,13 @@
       <c r="I59">
         <v>86.43017578125</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>65.64990234375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -2334,10 +2514,13 @@
       <c r="I60">
         <v>90.5400390625</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>93.10009765625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -2363,34 +2546,40 @@
       <c r="I61">
         <v>62.929931640625</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>76.77978515625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
         <v>47</v>
       </c>
-      <c r="E62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
       <c r="H62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2602,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2421,7 +2610,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2429,7 +2618,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2437,7 +2626,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2445,7 +2634,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2453,7 +2642,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2461,7 +2650,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2469,7 +2658,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2477,7 +2666,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2485,7 +2674,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2493,7 +2682,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2501,7 +2690,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2509,7 +2698,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2517,7 +2706,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2525,7 +2714,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2533,7 +2722,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2541,7 +2730,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2549,7 +2738,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2557,7 +2746,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2565,7 +2754,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2573,7 +2762,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2581,7 +2770,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2589,7 +2778,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2597,7 +2786,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2605,7 +2794,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2613,7 +2802,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2621,7 +2810,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2629,7 +2818,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2637,7 +2826,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2645,7 +2834,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2653,7 +2842,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2661,7 +2850,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2669,7 +2858,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2677,7 +2866,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2685,7 +2874,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2693,7 +2882,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2701,7 +2890,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2709,7 +2898,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2717,7 +2906,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2725,7 +2914,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2733,7 +2922,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2741,7 +2930,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2749,7 +2938,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2757,7 +2946,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2765,7 +2954,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2773,7 +2962,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2781,7 +2970,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2789,7 +2978,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2797,7 +2986,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2805,7 +2994,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2813,7 +3002,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2821,7 +3010,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2829,7 +3018,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2837,7 +3026,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2845,7 +3034,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2853,7 +3042,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2861,7 +3050,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2869,7 +3058,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2877,7 +3066,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2885,7 +3074,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2911,7 +3100,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2919,7 +3108,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2927,7 +3116,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2935,7 +3124,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2943,7 +3132,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2951,7 +3140,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2959,7 +3148,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2967,7 +3156,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2975,7 +3164,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2983,7 +3172,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2991,7 +3180,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2999,7 +3188,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3007,7 +3196,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3015,7 +3204,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3023,7 +3212,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3031,7 +3220,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3039,7 +3228,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3047,7 +3236,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3055,7 +3244,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3063,7 +3252,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3071,7 +3260,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3079,7 +3268,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3087,7 +3276,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3095,7 +3284,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3103,7 +3292,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3111,7 +3300,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3119,7 +3308,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3127,7 +3316,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3135,7 +3324,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3143,7 +3332,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3151,7 +3340,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3159,7 +3348,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3167,7 +3356,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3175,7 +3364,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3183,7 +3372,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3191,7 +3380,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3199,7 +3388,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3207,7 +3396,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3215,7 +3404,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3223,7 +3412,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3231,7 +3420,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3239,7 +3428,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3247,7 +3436,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3255,7 +3444,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3263,7 +3452,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3271,7 +3460,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3279,7 +3468,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3287,7 +3476,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3295,7 +3484,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3303,7 +3492,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3311,7 +3500,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3319,7 +3508,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3327,7 +3516,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3335,7 +3524,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3343,7 +3532,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3351,7 +3540,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3359,7 +3548,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3367,7 +3556,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3375,7 +3564,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3383,7 +3572,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3409,7 +3598,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3417,7 +3606,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3425,7 +3614,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3433,7 +3622,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3441,7 +3630,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3449,7 +3638,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3457,7 +3646,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3465,7 +3654,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3473,7 +3662,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3481,7 +3670,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3489,7 +3678,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3497,7 +3686,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3505,7 +3694,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3513,7 +3702,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3521,7 +3710,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3529,7 +3718,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3537,7 +3726,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3545,7 +3734,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3553,7 +3742,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3561,7 +3750,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3569,7 +3758,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3577,7 +3766,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3585,7 +3774,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3593,7 +3782,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3601,7 +3790,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3609,7 +3798,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3617,7 +3806,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3625,7 +3814,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3633,7 +3822,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3641,7 +3830,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3649,7 +3838,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3657,7 +3846,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3665,7 +3854,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3673,7 +3862,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3681,7 +3870,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3689,7 +3878,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3697,7 +3886,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3705,7 +3894,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3713,7 +3902,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3721,7 +3910,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3729,7 +3918,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3737,7 +3926,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3745,7 +3934,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3753,7 +3942,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3761,7 +3950,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3769,7 +3958,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3777,7 +3966,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3785,7 +3974,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3793,7 +3982,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3801,7 +3990,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3809,7 +3998,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3817,7 +4006,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3825,7 +4014,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3833,7 +4022,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3841,7 +4030,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3849,7 +4038,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3857,7 +4046,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3865,7 +4054,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3873,7 +4062,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3881,7 +4070,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3907,7 +4096,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3915,7 +4104,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3923,7 +4112,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3931,7 +4120,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3939,7 +4128,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3947,7 +4136,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3955,7 +4144,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3963,7 +4152,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3971,7 +4160,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3979,7 +4168,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3987,7 +4176,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3995,7 +4184,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4003,7 +4192,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4011,7 +4200,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4019,7 +4208,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4027,7 +4216,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4035,7 +4224,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4043,7 +4232,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4051,7 +4240,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4059,7 +4248,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4067,7 +4256,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4075,7 +4264,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4083,7 +4272,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4091,7 +4280,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4099,7 +4288,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4107,7 +4296,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4115,7 +4304,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4123,7 +4312,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4131,7 +4320,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4139,7 +4328,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4147,7 +4336,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4155,7 +4344,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4163,7 +4352,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4171,7 +4360,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4179,7 +4368,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4187,7 +4376,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4195,7 +4384,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4203,7 +4392,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4211,7 +4400,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4219,7 +4408,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4227,7 +4416,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4235,7 +4424,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4243,7 +4432,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4251,7 +4440,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4259,7 +4448,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4267,7 +4456,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4275,7 +4464,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4283,7 +4472,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4291,7 +4480,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4299,7 +4488,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4307,7 +4496,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4315,7 +4504,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4323,7 +4512,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4331,7 +4520,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4339,7 +4528,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4347,7 +4536,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4355,7 +4544,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4363,7 +4552,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4371,7 +4560,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4379,7 +4568,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4405,7 +4594,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4413,7 +4602,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4421,7 +4610,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4429,7 +4618,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4437,7 +4626,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4445,7 +4634,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4453,7 +4642,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4461,7 +4650,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4469,7 +4658,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4477,7 +4666,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4485,7 +4674,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4493,7 +4682,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4501,7 +4690,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4509,7 +4698,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4517,7 +4706,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4525,7 +4714,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4533,7 +4722,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4541,7 +4730,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4549,7 +4738,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4557,7 +4746,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4565,7 +4754,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4573,7 +4762,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4581,7 +4770,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4589,7 +4778,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4597,7 +4786,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4605,7 +4794,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4613,7 +4802,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4621,7 +4810,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4629,7 +4818,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4637,7 +4826,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4645,7 +4834,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4653,7 +4842,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4661,7 +4850,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4669,7 +4858,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4677,7 +4866,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4685,7 +4874,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4693,7 +4882,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4701,7 +4890,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4709,7 +4898,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4717,7 +4906,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4725,7 +4914,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4733,7 +4922,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4741,7 +4930,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4749,7 +4938,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4757,7 +4946,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4765,7 +4954,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4773,7 +4962,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4781,7 +4970,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4789,7 +4978,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4797,7 +4986,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4805,7 +4994,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4813,7 +5002,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4821,7 +5010,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4829,7 +5018,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4837,7 +5026,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4845,7 +5034,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4853,7 +5042,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4861,7 +5050,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4869,7 +5058,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4877,7 +5066,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4903,7 +5092,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4911,7 +5100,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4919,7 +5108,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4927,7 +5116,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4935,7 +5124,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4943,7 +5132,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4951,7 +5140,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4959,7 +5148,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4967,7 +5156,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4975,7 +5164,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4983,7 +5172,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4991,7 +5180,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4999,7 +5188,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5007,7 +5196,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5015,7 +5204,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5023,7 +5212,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5031,7 +5220,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5039,7 +5228,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5047,7 +5236,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5055,7 +5244,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5063,7 +5252,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5071,7 +5260,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5079,7 +5268,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5087,7 +5276,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5095,7 +5284,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5103,7 +5292,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5111,7 +5300,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5119,7 +5308,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5127,7 +5316,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5135,7 +5324,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5143,7 +5332,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5151,7 +5340,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5159,7 +5348,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5167,7 +5356,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5175,7 +5364,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5183,7 +5372,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5191,7 +5380,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5199,7 +5388,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5207,7 +5396,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5215,7 +5404,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5223,7 +5412,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5231,7 +5420,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5239,7 +5428,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5247,7 +5436,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5255,7 +5444,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5263,7 +5452,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5271,7 +5460,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5279,7 +5468,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5287,7 +5476,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5295,7 +5484,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5303,7 +5492,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5311,7 +5500,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5319,7 +5508,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5327,7 +5516,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5335,7 +5524,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5343,7 +5532,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5351,7 +5540,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5359,7 +5548,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5367,7 +5556,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5375,7 +5564,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5388,13 +5577,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5419,10 +5608,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -5448,10 +5640,13 @@
       <c r="I2">
         <v>108.4501953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>60.570068359375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -5477,10 +5672,13 @@
       <c r="I3">
         <v>98.14990234375</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>65.419921875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -5506,10 +5704,13 @@
       <c r="I4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>24.6300048828125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -5535,10 +5736,13 @@
       <c r="I5">
         <v>82.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>102.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -5564,10 +5768,13 @@
       <c r="I6">
         <v>73.509765625</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -5593,10 +5800,13 @@
       <c r="I7">
         <v>100.68994140625</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>79.06982421875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -5622,10 +5832,13 @@
       <c r="I8">
         <v>103.93017578125</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>77.89990234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -5651,10 +5864,13 @@
       <c r="I9">
         <v>89.39990234375</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>65.6298828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -5680,10 +5896,13 @@
       <c r="I10">
         <v>77.240234375</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>54.97998046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -5709,10 +5928,13 @@
       <c r="I11">
         <v>134.5400390625</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>81.35009765625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -5738,10 +5960,13 @@
       <c r="I12">
         <v>96.93994140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>57.85009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -5767,10 +5992,13 @@
       <c r="I13">
         <v>94.7998046875</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>71.56982421875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -5796,10 +6024,13 @@
       <c r="I14">
         <v>112.240234375</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>67.7001953125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -5825,10 +6056,13 @@
       <c r="I15">
         <v>102.83984375</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>67.2001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -5854,10 +6088,13 @@
       <c r="I16">
         <v>98.4501953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>60.419921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -5883,10 +6120,13 @@
       <c r="I17">
         <v>125.14990234375</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>54.719970703125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -5912,10 +6152,13 @@
       <c r="I18">
         <v>98.490234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>62.969970703125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -5941,10 +6184,13 @@
       <c r="I19">
         <v>70.89013671875</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>59.02001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -5970,10 +6216,13 @@
       <c r="I20">
         <v>68.89013671875</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>98.2001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -5999,10 +6248,13 @@
       <c r="I21">
         <v>92.2900390625</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>89.7001953125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6028,10 +6280,13 @@
       <c r="I22">
         <v>106.64990234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6057,10 +6312,13 @@
       <c r="I23">
         <v>139.400390625</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>78.31982421875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6086,10 +6344,13 @@
       <c r="I24">
         <v>76.33984375</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>81.7001953125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6115,10 +6376,13 @@
       <c r="I25">
         <v>99.4501953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>73.27001953125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -6144,10 +6408,13 @@
       <c r="I26">
         <v>135.1904296875</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>74.31982421875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -6173,10 +6440,13 @@
       <c r="I27">
         <v>92.97998046875</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>60.449951171875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -6202,10 +6472,13 @@
       <c r="I28">
         <v>118.4501953125</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -6231,10 +6504,13 @@
       <c r="I29">
         <v>91.35009765625</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>114.330078125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -6260,10 +6536,13 @@
       <c r="I30">
         <v>110.14990234375</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>62.1201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -6289,10 +6568,13 @@
       <c r="I31">
         <v>80.89013671875</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>88.39990234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -6318,10 +6600,13 @@
       <c r="I32">
         <v>120.740234375</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>76.47021484375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -6347,10 +6632,13 @@
       <c r="I33">
         <v>135.490234375</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>56.8701171875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -6376,10 +6664,13 @@
       <c r="I34">
         <v>117.5498046875</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>69.47998046875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -6405,10 +6696,13 @@
       <c r="I35">
         <v>46.89990234375</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>71.22021484375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -6434,10 +6728,13 @@
       <c r="I36">
         <v>136.9404296875</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>50.320068359375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -6463,10 +6760,13 @@
       <c r="I37">
         <v>83.68994140625</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>67.68017578125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -6492,10 +6792,13 @@
       <c r="I38">
         <v>109.14990234375</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>83.89990234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -6521,10 +6824,13 @@
       <c r="I39">
         <v>98.60986328125</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>73.7001953125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -6550,10 +6856,13 @@
       <c r="I40">
         <v>102.43994140625</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>59.6201171875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -6579,10 +6888,13 @@
       <c r="I41">
         <v>97.39013671875</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>75.5498046875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -6608,10 +6920,13 @@
       <c r="I42">
         <v>112.35009765625</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>76.02001953125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -6637,10 +6952,13 @@
       <c r="I43">
         <v>125.14013671875</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>96.669921875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -6666,10 +6984,13 @@
       <c r="I44">
         <v>128.4404296875</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>66.77001953125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -6695,10 +7016,13 @@
       <c r="I45">
         <v>73.2900390625</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>66.72998046875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -6724,10 +7048,13 @@
       <c r="I46">
         <v>92.490234375</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>91.56982421875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -6753,10 +7080,13 @@
       <c r="I47">
         <v>122.83984375</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>58.919921875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -6782,10 +7112,13 @@
       <c r="I48">
         <v>93.0400390625</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>68.35009765625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -6811,10 +7144,13 @@
       <c r="I49">
         <v>124.47998046875</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>65.2001953125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -6840,10 +7176,13 @@
       <c r="I50">
         <v>115.2900390625</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>79.669921875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -6869,10 +7208,13 @@
       <c r="I51">
         <v>45.0400390625</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>58.89990234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -6898,10 +7240,13 @@
       <c r="I52">
         <v>131.349609375</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>59.77001953125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -6927,10 +7272,13 @@
       <c r="I53">
         <v>81.14990234375</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>51.669921875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -6956,10 +7304,13 @@
       <c r="I54">
         <v>121.93994140625</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -6985,10 +7336,13 @@
       <c r="I55">
         <v>131.0595703125</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>84.39990234375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -7014,10 +7368,13 @@
       <c r="I56">
         <v>120.47998046875</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <v>67.77978515625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -7043,10 +7400,13 @@
       <c r="I57">
         <v>73.33984375</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>52.080078125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -7072,10 +7432,13 @@
       <c r="I58">
         <v>88.08984375</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>89.3701171875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -7101,10 +7464,13 @@
       <c r="I59">
         <v>86.43017578125</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>65.64990234375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -7130,10 +7496,13 @@
       <c r="I60">
         <v>90.5400390625</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>93.10009765625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -7159,34 +7528,40 @@
       <c r="I61">
         <v>62.929931640625</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>76.77978515625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
         <v>47</v>
       </c>
-      <c r="E62" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
       <c r="H62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7204,307 +7579,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7527,242 +7902,242 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>785.25</v>
+        <v>863.56982421875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>771.5009765625</v>
+        <v>854.33056640625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>767.99072265625</v>
+        <v>842.310546875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>757.66064453125</v>
+        <v>828.37109375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>754.9296875</v>
+        <v>815.499755859375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>750.30029296875</v>
+        <v>809.92041015625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>740.239013671875</v>
+        <v>806.070556640625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9">
-        <v>733.81005859375</v>
+        <v>802.16015625</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B10">
-        <v>729.9091796875</v>
+        <v>802.13037109375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>726.400634765625</v>
+        <v>800.009033203125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B12">
-        <v>725.66015625</v>
+        <v>797.829833984375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>724.079833984375</v>
+        <v>794.17041015625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>721.919921875</v>
+        <v>793.3896484375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>719.71044921875</v>
+        <v>792.5595703125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>717.48046875</v>
+        <v>791.73046875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>714.65966796875</v>
+        <v>790.359130859375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>712.8203125</v>
+        <v>790.35009765625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>711.2802734375</v>
+        <v>788.8603515625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20">
-        <v>710.18994140625</v>
+        <v>786.2099609375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>709.48974609375</v>
+        <v>785.1005859375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>706.52978515625</v>
+        <v>784.0400390625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>699.80029296875</v>
+        <v>782.339599609375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>697.939697265625</v>
+        <v>782.07958984375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>696.620849609375</v>
+        <v>780.93017578125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>696.53076171875</v>
+        <v>763.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>695.7998046875</v>
+        <v>763.390869140625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>693.4892578125</v>
+        <v>760.989990234375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>689.3603515625</v>
+        <v>760.22021484375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>686.39990234375</v>
+        <v>759.669921875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>682.400390625</v>
+        <v>759.500732421875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7770,15 +8145,15 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>676.89990234375</v>
+        <v>758.9091796875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B33">
-        <v>675.689453125</v>
+        <v>757.9599609375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7786,71 +8161,71 @@
         <v>27</v>
       </c>
       <c r="B34">
-        <v>671.289794921875</v>
+        <v>745.651123046875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>667.869384765625</v>
+        <v>738.1103515625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>664.85986328125</v>
+        <v>734.609375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>663.150146484375</v>
+        <v>732.630126953125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>661.430908203125</v>
+        <v>731.869384765625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>657.560546875</v>
+        <v>728.631103515625</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>654.390380859375</v>
+        <v>724.520751953125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>649.71044921875</v>
+        <v>723.8095703125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>648.2099609375</v>
+        <v>722.070556640625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7858,151 +8233,151 @@
         <v>26</v>
       </c>
       <c r="B43">
-        <v>647.450927734375</v>
+        <v>716.58056640625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>642.109375</v>
+        <v>705.41943359375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>639.78955078125</v>
+        <v>702.929931640625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>629.480224609375</v>
+        <v>701.5299072265625</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>626.06005859375</v>
+        <v>697.090087890625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>620.310302734375</v>
+        <v>683.91015625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>616.629638671875</v>
+        <v>681.829833984375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B50">
-        <v>610.190673828125</v>
+        <v>681.02978515625</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>596.4599609375</v>
+        <v>679.80029296875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>591.65966796875</v>
+        <v>662.64990234375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>591.080078125</v>
+        <v>656.029541015625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>588.249755859375</v>
+        <v>651.43994140625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>585.51953125</v>
+        <v>648.98974609375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>575.28955078125</v>
+        <v>637.189453125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>569.5703125</v>
+        <v>636.22998046875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>568.149658203125</v>
+        <v>635.22021484375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>565.009765625</v>
+        <v>634.879638671875</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>556.7900390625</v>
+        <v>615.68994140625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>544.14990234375</v>
+        <v>596.22998046875</v>
       </c>
     </row>
   </sheetData>
@@ -8025,7 +8400,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8033,7 +8408,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8041,7 +8416,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8049,7 +8424,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8057,7 +8432,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8065,7 +8440,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8073,7 +8448,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8081,7 +8456,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8089,7 +8464,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8097,7 +8472,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8105,7 +8480,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8113,7 +8488,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8121,7 +8496,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8129,7 +8504,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8137,7 +8512,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8145,7 +8520,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8153,7 +8528,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8161,7 +8536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8169,7 +8544,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8177,7 +8552,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8185,7 +8560,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8193,7 +8568,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8201,7 +8576,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8209,7 +8584,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8217,7 +8592,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8225,7 +8600,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8233,7 +8608,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8241,7 +8616,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8249,7 +8624,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8257,7 +8632,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8265,7 +8640,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8273,7 +8648,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8281,7 +8656,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8289,7 +8664,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8297,7 +8672,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8305,7 +8680,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8313,7 +8688,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8321,7 +8696,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8329,7 +8704,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8337,7 +8712,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8345,7 +8720,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8353,7 +8728,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8361,7 +8736,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8369,7 +8744,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8377,7 +8752,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8385,7 +8760,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8393,7 +8768,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8401,7 +8776,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8409,7 +8784,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8417,7 +8792,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8425,7 +8800,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8433,7 +8808,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8441,7 +8816,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8449,7 +8824,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8457,7 +8832,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8465,7 +8840,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8473,7 +8848,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8481,7 +8856,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8489,7 +8864,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8497,7 +8872,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8523,7 +8898,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -8531,7 +8906,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -8539,7 +8914,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -8547,7 +8922,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -8555,7 +8930,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -8563,7 +8938,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -8571,7 +8946,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -8579,7 +8954,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -8587,7 +8962,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -8595,7 +8970,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -8603,7 +8978,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -8611,7 +8986,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -8619,7 +8994,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -8627,7 +9002,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -8635,7 +9010,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -8643,7 +9018,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -8651,7 +9026,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -8659,7 +9034,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -8667,7 +9042,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -8675,7 +9050,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -8683,7 +9058,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -8691,7 +9066,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -8699,7 +9074,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -8707,7 +9082,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -8715,7 +9090,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -8723,7 +9098,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -8731,7 +9106,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -8739,7 +9114,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -8747,7 +9122,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -8755,7 +9130,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -8763,7 +9138,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -8771,7 +9146,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -8779,7 +9154,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -8787,7 +9162,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -8795,7 +9170,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -8803,7 +9178,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -8811,7 +9186,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -8819,7 +9194,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -8827,7 +9202,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -8835,7 +9210,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -8843,7 +9218,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -8851,7 +9226,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -8859,7 +9234,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -8867,7 +9242,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -8875,7 +9250,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -8883,7 +9258,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -8891,7 +9266,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -8899,7 +9274,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -8907,7 +9282,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -8915,7 +9290,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -8923,7 +9298,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -8931,7 +9306,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -8939,7 +9314,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -8947,7 +9322,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -8955,7 +9330,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -8963,7 +9338,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -8971,7 +9346,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -8979,7 +9354,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -8987,7 +9362,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -8995,7 +9370,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -9021,7 +9396,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -9029,7 +9404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -9037,7 +9412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -9045,7 +9420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -9053,7 +9428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -9061,7 +9436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -9069,7 +9444,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -9077,7 +9452,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -9085,7 +9460,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -9093,7 +9468,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -9101,7 +9476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -9109,7 +9484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -9117,7 +9492,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -9125,7 +9500,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -9133,7 +9508,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -9141,7 +9516,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -9149,7 +9524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -9157,7 +9532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -9165,7 +9540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -9173,7 +9548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -9181,7 +9556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -9189,7 +9564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -9197,7 +9572,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -9205,7 +9580,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -9213,7 +9588,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -9221,7 +9596,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -9229,7 +9604,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -9237,7 +9612,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -9245,7 +9620,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -9253,7 +9628,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -9261,7 +9636,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -9269,7 +9644,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -9277,7 +9652,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -9285,7 +9660,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -9293,7 +9668,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -9301,7 +9676,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -9309,7 +9684,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -9317,7 +9692,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -9325,7 +9700,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -9333,7 +9708,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -9341,7 +9716,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -9349,7 +9724,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -9357,7 +9732,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -9365,7 +9740,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -9373,7 +9748,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -9381,7 +9756,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -9389,7 +9764,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -9397,7 +9772,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -9405,7 +9780,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -9413,7 +9788,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -9421,7 +9796,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -9429,7 +9804,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -9437,7 +9812,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -9445,7 +9820,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -9453,7 +9828,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -9461,7 +9836,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -9469,7 +9844,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -9477,7 +9852,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -9485,7 +9860,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -9493,7 +9868,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -9519,290 +9894,290 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>267.16015625</v>
+        <v>345.47998046875</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>249.38037109375</v>
+        <v>325.05029296875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>241.6806640625</v>
+        <v>320.34033203125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>236.23046875</v>
+        <v>316.00048828125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>231.9501953125</v>
+        <v>314.2001953125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>226.78955078125</v>
+        <v>309.54931640625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>226.31982421875</v>
+        <v>306.25048828125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>226.27978515625</v>
+        <v>298.55029296875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>225.1494140625</v>
+        <v>295.59033203125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>222.859375</v>
+        <v>294.099609375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>218.330078125</v>
+        <v>293.5703125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>218.31982421875</v>
+        <v>292.080078125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>217.7099609375</v>
+        <v>291.759765625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>217.5302734375</v>
+        <v>288.27001953125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>217.4296875</v>
+        <v>287.239501953125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>217.10009765625</v>
+        <v>287.18994140625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>214.240234375</v>
+        <v>286.550537109375</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19">
-        <v>213.9306640625</v>
+        <v>285.89990234375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>212.93017578125</v>
+        <v>283.52001953125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>210.240234375</v>
+        <v>282.62939453125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>208.85009765625</v>
+        <v>282.25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>208.60009765625</v>
+        <v>281.91015625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>207.85986328125</v>
+        <v>281.2802734375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>206.16015625</v>
+        <v>280.70068359375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>206.01025390625</v>
+        <v>278.64990234375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>205.89013671875</v>
+        <v>277.93994140625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>204.81005859375</v>
+        <v>277.58984375</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>203.33984375</v>
+        <v>277.349609375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>203.10009765625</v>
+        <v>276.349609375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B31">
-        <v>202.80029296875</v>
+        <v>275.89013671875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>202.7900390625</v>
+        <v>275.31005859375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>200.0400390625</v>
+        <v>274.2197265625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>198.27978515625</v>
+        <v>268.51025390625</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>196.0302734375</v>
+        <v>266.48046875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>195.83984375</v>
+        <v>265.770263671875</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>195.240234375</v>
+        <v>265.54052734375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9810,191 +10185,191 @@
         <v>21</v>
       </c>
       <c r="B38">
-        <v>190.72998046875</v>
+        <v>263.73046875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>190.68017578125</v>
+        <v>263.360107421875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>188.509765625</v>
+        <v>262.2802734375</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>188.2998046875</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>186.1103515625</v>
+        <v>259.530029296875</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>184.849609375</v>
+        <v>257.9599609375</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>180.6396484375</v>
+        <v>257.93017578125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>176.88037109375</v>
+        <v>256.830078125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>176.3798828125</v>
+        <v>253.9296875</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>175.22998046875</v>
+        <v>252.20947265625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>175.2099609375</v>
+        <v>246.5302734375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>175.1298828125</v>
+        <v>242.91015625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>173.88037109375</v>
+        <v>240.83984375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B51">
-        <v>173.509765625</v>
+        <v>235.900390625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>168.2802734375</v>
+        <v>234.22998046875</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>167.25</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B54">
-        <v>167.240234375</v>
+        <v>230.449951171875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B55">
-        <v>162.84033203125</v>
+        <v>226.26025390625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>159.5302734375</v>
+        <v>225.1796875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>153.670166015625</v>
+        <v>222.22021484375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>141.89013671875</v>
+        <v>204.2099609375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>140.93017578125</v>
+        <v>199.830078125</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>138.47998046875</v>
+        <v>190.56005859375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>132.98974609375</v>
+        <v>166.5201416015625</v>
       </c>
     </row>
   </sheetData>
@@ -10017,7 +10392,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10025,7 +10400,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10033,7 +10408,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10041,7 +10416,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10049,7 +10424,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10057,7 +10432,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10065,7 +10440,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10073,7 +10448,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10081,7 +10456,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10089,7 +10464,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10097,7 +10472,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10105,7 +10480,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10113,7 +10488,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10121,7 +10496,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10129,7 +10504,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10137,7 +10512,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10145,7 +10520,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10153,7 +10528,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10161,7 +10536,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10169,7 +10544,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10177,7 +10552,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10185,7 +10560,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10193,7 +10568,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10201,7 +10576,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10209,7 +10584,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10217,7 +10592,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10225,7 +10600,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10233,7 +10608,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10241,7 +10616,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10249,7 +10624,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10257,7 +10632,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10265,7 +10640,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10273,7 +10648,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10281,7 +10656,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10289,7 +10664,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10297,7 +10672,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10305,7 +10680,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10313,7 +10688,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10321,7 +10696,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10329,7 +10704,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10337,7 +10712,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10345,7 +10720,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10353,7 +10728,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10361,7 +10736,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10369,7 +10744,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10377,7 +10752,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10385,7 +10760,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10393,7 +10768,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10401,7 +10776,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10409,7 +10784,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10417,7 +10792,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10425,7 +10800,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10433,7 +10808,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -10441,7 +10816,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10449,7 +10824,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10457,7 +10832,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10465,7 +10840,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -10473,7 +10848,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10481,7 +10856,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10489,7 +10864,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="71">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Rodada 9</t>
+  </si>
+  <si>
+    <t>Rodada 10</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -595,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,10 +632,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -661,10 +667,13 @@
       <c r="J2">
         <v>60.570068359375</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>50.3701171875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -693,10 +702,13 @@
       <c r="J3">
         <v>65.419921875</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>53.969970703125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -725,10 +737,13 @@
       <c r="J4">
         <v>24.6300048828125</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>54.1201171875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -757,10 +772,13 @@
       <c r="J5">
         <v>102.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>78.52001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -789,10 +807,13 @@
       <c r="J6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>53.3701171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -821,10 +842,13 @@
       <c r="J7">
         <v>79.06982421875</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>88.169921875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -853,10 +877,13 @@
       <c r="J8">
         <v>77.89990234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>61.469970703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -885,10 +912,13 @@
       <c r="J9">
         <v>65.6298828125</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>59.570068359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -917,10 +947,13 @@
       <c r="J10">
         <v>54.97998046875</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>57.820068359375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -949,10 +982,13 @@
       <c r="J11">
         <v>81.35009765625</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>11.70001220703125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -981,10 +1017,13 @@
       <c r="J12">
         <v>57.85009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>51.070068359375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -1013,10 +1052,13 @@
       <c r="J13">
         <v>71.56982421875</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>72.52001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -1045,10 +1087,13 @@
       <c r="J14">
         <v>67.7001953125</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>65.8701171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -1077,10 +1122,13 @@
       <c r="J15">
         <v>67.2001953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>47.969970703125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -1109,10 +1157,13 @@
       <c r="J16">
         <v>60.419921875</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -1141,10 +1192,13 @@
       <c r="J17">
         <v>54.719970703125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>44.3701171875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1173,10 +1227,13 @@
       <c r="J18">
         <v>62.969970703125</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1205,10 +1262,13 @@
       <c r="J19">
         <v>59.02001953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>64.64990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1237,10 +1297,13 @@
       <c r="J20">
         <v>98.2001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>54.469970703125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1269,10 +1332,13 @@
       <c r="J21">
         <v>89.7001953125</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>64.669921875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1301,10 +1367,13 @@
       <c r="J22">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1333,10 +1402,13 @@
       <c r="J23">
         <v>78.31982421875</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>54.27001953125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1365,10 +1437,13 @@
       <c r="J24">
         <v>81.7001953125</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>68.669921875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1397,10 +1472,13 @@
       <c r="J25">
         <v>73.27001953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1429,10 +1507,13 @@
       <c r="J26">
         <v>74.31982421875</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>79.8701171875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1461,10 +1542,13 @@
       <c r="J27">
         <v>60.449951171875</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>69.56982421875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1493,10 +1577,13 @@
       <c r="J28">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>57.169921875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1525,10 +1612,13 @@
       <c r="J29">
         <v>114.330078125</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>78.77001953125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1557,10 +1647,13 @@
       <c r="J30">
         <v>62.1201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>57.6201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1589,10 +1682,13 @@
       <c r="J31">
         <v>88.39990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>65.97021484375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1621,10 +1717,13 @@
       <c r="J32">
         <v>76.47021484375</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>60.02001953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1653,10 +1752,13 @@
       <c r="J33">
         <v>56.8701171875</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>54.070068359375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1685,10 +1787,13 @@
       <c r="J34">
         <v>69.47998046875</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>47.8701171875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1717,10 +1822,13 @@
       <c r="J35">
         <v>71.22021484375</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>20.8499755859375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1749,10 +1857,13 @@
       <c r="J36">
         <v>50.320068359375</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>63.919921875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1781,10 +1892,13 @@
       <c r="J37">
         <v>67.68017578125</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1813,10 +1927,13 @@
       <c r="J38">
         <v>83.89990234375</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>73.669921875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1845,10 +1962,13 @@
       <c r="J39">
         <v>73.7001953125</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>84.81982421875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -1877,10 +1997,13 @@
       <c r="J40">
         <v>59.6201171875</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>54.77001953125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -1909,10 +2032,13 @@
       <c r="J41">
         <v>75.5498046875</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>83.8701171875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -1941,10 +2067,13 @@
       <c r="J42">
         <v>76.02001953125</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>65.47021484375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -1973,10 +2102,13 @@
       <c r="J43">
         <v>96.669921875</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>65.3701171875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -2005,10 +2137,13 @@
       <c r="J44">
         <v>66.77001953125</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -2037,10 +2172,13 @@
       <c r="J45">
         <v>66.72998046875</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -2069,10 +2207,13 @@
       <c r="J46">
         <v>91.56982421875</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>66.47021484375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -2101,10 +2242,13 @@
       <c r="J47">
         <v>58.919921875</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>68.97021484375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -2133,10 +2277,13 @@
       <c r="J48">
         <v>68.35009765625</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -2165,10 +2312,13 @@
       <c r="J49">
         <v>65.2001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>39.35009765625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -2197,10 +2347,13 @@
       <c r="J50">
         <v>79.669921875</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>72.27001953125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -2229,10 +2382,13 @@
       <c r="J51">
         <v>58.89990234375</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>49.27001953125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -2261,10 +2417,13 @@
       <c r="J52">
         <v>59.77001953125</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>60.77001953125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -2293,10 +2452,13 @@
       <c r="J53">
         <v>51.669921875</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>42.110107421875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -2325,10 +2487,13 @@
       <c r="J54">
         <v>73.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>76.97021484375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -2357,10 +2522,13 @@
       <c r="J55">
         <v>84.39990234375</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>69.669921875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -2389,10 +2557,13 @@
       <c r="J56">
         <v>67.77978515625</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>86.7099609375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -2421,10 +2592,13 @@
       <c r="J57">
         <v>52.080078125</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>68.02001953125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -2453,10 +2627,13 @@
       <c r="J58">
         <v>89.3701171875</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>72.7998046875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -2485,10 +2662,13 @@
       <c r="J59">
         <v>65.64990234375</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -2517,10 +2697,13 @@
       <c r="J60">
         <v>93.10009765625</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>78.97021484375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -2549,37 +2732,43 @@
       <c r="J61">
         <v>76.77978515625</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>39.39990234375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" t="s">
         <v>48</v>
       </c>
-      <c r="E62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2791,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2610,7 +2799,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2618,7 +2807,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2626,7 +2815,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2634,7 +2823,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2642,7 +2831,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2650,7 +2839,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2658,7 +2847,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2666,7 +2855,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2674,7 +2863,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2682,7 +2871,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2690,7 +2879,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2698,7 +2887,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2706,7 +2895,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2714,7 +2903,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2722,7 +2911,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2730,7 +2919,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2738,7 +2927,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2746,7 +2935,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2754,7 +2943,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2762,7 +2951,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2770,7 +2959,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2778,7 +2967,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2786,7 +2975,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2794,7 +2983,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2802,7 +2991,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2810,7 +2999,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2818,7 +3007,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2826,7 +3015,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2834,7 +3023,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2842,7 +3031,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2850,7 +3039,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2858,7 +3047,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2866,7 +3055,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2874,7 +3063,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2882,7 +3071,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2890,7 +3079,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2898,7 +3087,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2906,7 +3095,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2914,7 +3103,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2922,7 +3111,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2930,7 +3119,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2938,7 +3127,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2946,7 +3135,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2954,7 +3143,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2962,7 +3151,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2970,7 +3159,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2978,7 +3167,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2986,7 +3175,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2994,7 +3183,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3002,7 +3191,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3010,7 +3199,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3018,7 +3207,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3026,7 +3215,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3034,7 +3223,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3042,7 +3231,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3050,7 +3239,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3058,7 +3247,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3066,7 +3255,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3074,7 +3263,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3100,7 +3289,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3108,7 +3297,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3116,7 +3305,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3124,7 +3313,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3132,7 +3321,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3140,7 +3329,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3148,7 +3337,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3156,7 +3345,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3164,7 +3353,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3172,7 +3361,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3180,7 +3369,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3188,7 +3377,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3196,7 +3385,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3204,7 +3393,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3212,7 +3401,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3220,7 +3409,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3228,7 +3417,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3236,7 +3425,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3244,7 +3433,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3252,7 +3441,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3260,7 +3449,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3268,7 +3457,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3276,7 +3465,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3284,7 +3473,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3292,7 +3481,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3300,7 +3489,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3308,7 +3497,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3316,7 +3505,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3324,7 +3513,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3332,7 +3521,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3340,7 +3529,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3348,7 +3537,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3356,7 +3545,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3364,7 +3553,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3372,7 +3561,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3380,7 +3569,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3388,7 +3577,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3396,7 +3585,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3404,7 +3593,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3412,7 +3601,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3420,7 +3609,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3428,7 +3617,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3436,7 +3625,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3444,7 +3633,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3452,7 +3641,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3460,7 +3649,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3468,7 +3657,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3476,7 +3665,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3484,7 +3673,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3492,7 +3681,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3500,7 +3689,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3508,7 +3697,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3516,7 +3705,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3524,7 +3713,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3532,7 +3721,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3540,7 +3729,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3548,7 +3737,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3556,7 +3745,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3564,7 +3753,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3572,7 +3761,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3598,7 +3787,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3606,7 +3795,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3614,7 +3803,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3622,7 +3811,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3630,7 +3819,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3638,7 +3827,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3646,7 +3835,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3654,7 +3843,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3662,7 +3851,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3670,7 +3859,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3678,7 +3867,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3686,7 +3875,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3694,7 +3883,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3702,7 +3891,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3710,7 +3899,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3718,7 +3907,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3726,7 +3915,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3734,7 +3923,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3742,7 +3931,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3750,7 +3939,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3758,7 +3947,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3766,7 +3955,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3774,7 +3963,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3782,7 +3971,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3790,7 +3979,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3798,7 +3987,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3806,7 +3995,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3814,7 +4003,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3822,7 +4011,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3830,7 +4019,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3838,7 +4027,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3846,7 +4035,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3854,7 +4043,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3862,7 +4051,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3870,7 +4059,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3878,7 +4067,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3886,7 +4075,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3894,7 +4083,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3902,7 +4091,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3910,7 +4099,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3918,7 +4107,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3926,7 +4115,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3934,7 +4123,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3942,7 +4131,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3950,7 +4139,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3958,7 +4147,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3966,7 +4155,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3974,7 +4163,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3982,7 +4171,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3990,7 +4179,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3998,7 +4187,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4006,7 +4195,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4014,7 +4203,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4022,7 +4211,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4030,7 +4219,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4038,7 +4227,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4046,7 +4235,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4054,7 +4243,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4062,7 +4251,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4070,7 +4259,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4096,7 +4285,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4104,7 +4293,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4112,7 +4301,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4120,7 +4309,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4128,7 +4317,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4136,7 +4325,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4144,7 +4333,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4152,7 +4341,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4160,7 +4349,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4168,7 +4357,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4176,7 +4365,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4184,7 +4373,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4192,7 +4381,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4200,7 +4389,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4208,7 +4397,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4216,7 +4405,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4224,7 +4413,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4232,7 +4421,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4240,7 +4429,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4248,7 +4437,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4256,7 +4445,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4264,7 +4453,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4272,7 +4461,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4280,7 +4469,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4288,7 +4477,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4296,7 +4485,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4304,7 +4493,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4312,7 +4501,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4320,7 +4509,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4328,7 +4517,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4336,7 +4525,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4344,7 +4533,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4352,7 +4541,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4360,7 +4549,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4368,7 +4557,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4376,7 +4565,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4384,7 +4573,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4392,7 +4581,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4400,7 +4589,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4408,7 +4597,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4416,7 +4605,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4424,7 +4613,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4432,7 +4621,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4440,7 +4629,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4448,7 +4637,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4456,7 +4645,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4464,7 +4653,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4472,7 +4661,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4480,7 +4669,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4488,7 +4677,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4496,7 +4685,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4504,7 +4693,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4512,7 +4701,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4520,7 +4709,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4528,7 +4717,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4536,7 +4725,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4544,7 +4733,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4552,7 +4741,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4560,7 +4749,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4568,7 +4757,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4594,7 +4783,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4602,7 +4791,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4610,7 +4799,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4618,7 +4807,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4626,7 +4815,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4634,7 +4823,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4642,7 +4831,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4650,7 +4839,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4658,7 +4847,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4666,7 +4855,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4674,7 +4863,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4682,7 +4871,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4690,7 +4879,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4698,7 +4887,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4706,7 +4895,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4714,7 +4903,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4722,7 +4911,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4730,7 +4919,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4738,7 +4927,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4746,7 +4935,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4754,7 +4943,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4762,7 +4951,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4770,7 +4959,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4778,7 +4967,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4786,7 +4975,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4794,7 +4983,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4802,7 +4991,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4810,7 +4999,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4818,7 +5007,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4826,7 +5015,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4834,7 +5023,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4842,7 +5031,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4850,7 +5039,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4858,7 +5047,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4866,7 +5055,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4874,7 +5063,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4882,7 +5071,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4890,7 +5079,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4898,7 +5087,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4906,7 +5095,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4914,7 +5103,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4922,7 +5111,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4930,7 +5119,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4938,7 +5127,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4946,7 +5135,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4954,7 +5143,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4962,7 +5151,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4970,7 +5159,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4978,7 +5167,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4986,7 +5175,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4994,7 +5183,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5002,7 +5191,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5010,7 +5199,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5018,7 +5207,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5026,7 +5215,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5034,7 +5223,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5042,7 +5231,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5050,7 +5239,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5058,7 +5247,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5066,7 +5255,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5092,7 +5281,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5100,7 +5289,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5108,7 +5297,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5116,7 +5305,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5124,7 +5313,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5132,7 +5321,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5140,7 +5329,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5148,7 +5337,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5156,7 +5345,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5164,7 +5353,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5172,7 +5361,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5180,7 +5369,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5188,7 +5377,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5196,7 +5385,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5204,7 +5393,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5212,7 +5401,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5220,7 +5409,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5228,7 +5417,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5236,7 +5425,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5244,7 +5433,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5252,7 +5441,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5260,7 +5449,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5268,7 +5457,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5276,7 +5465,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5284,7 +5473,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5292,7 +5481,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5300,7 +5489,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5308,7 +5497,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5316,7 +5505,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5324,7 +5513,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5332,7 +5521,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5340,7 +5529,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5348,7 +5537,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5356,7 +5545,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5364,7 +5553,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5372,7 +5561,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5380,7 +5569,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5388,7 +5577,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5396,7 +5585,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5404,7 +5593,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5412,7 +5601,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5420,7 +5609,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5428,7 +5617,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5436,7 +5625,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5444,7 +5633,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5452,7 +5641,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5460,7 +5649,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5468,7 +5657,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5476,7 +5665,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5484,7 +5673,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5492,7 +5681,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5500,7 +5689,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5508,7 +5697,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5516,7 +5705,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5524,7 +5713,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5532,7 +5721,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5540,7 +5729,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5548,7 +5737,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5556,7 +5745,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5564,7 +5753,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5577,13 +5766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5611,10 +5800,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -5643,10 +5835,13 @@
       <c r="J2">
         <v>60.570068359375</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>50.3701171875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -5675,10 +5870,13 @@
       <c r="J3">
         <v>65.419921875</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>53.969970703125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -5707,10 +5905,13 @@
       <c r="J4">
         <v>24.6300048828125</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>54.1201171875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -5739,10 +5940,13 @@
       <c r="J5">
         <v>102.7001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>78.52001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -5771,10 +5975,13 @@
       <c r="J6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>53.3701171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -5803,10 +6010,13 @@
       <c r="J7">
         <v>79.06982421875</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>88.169921875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -5835,10 +6045,13 @@
       <c r="J8">
         <v>77.89990234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>61.469970703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -5867,10 +6080,13 @@
       <c r="J9">
         <v>65.6298828125</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>59.570068359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -5899,10 +6115,13 @@
       <c r="J10">
         <v>54.97998046875</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>57.820068359375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -5931,10 +6150,13 @@
       <c r="J11">
         <v>81.35009765625</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>11.70001220703125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -5963,10 +6185,13 @@
       <c r="J12">
         <v>57.85009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>51.070068359375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -5995,10 +6220,13 @@
       <c r="J13">
         <v>71.56982421875</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>72.52001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -6027,10 +6255,13 @@
       <c r="J14">
         <v>67.7001953125</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>65.8701171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -6059,10 +6290,13 @@
       <c r="J15">
         <v>67.2001953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>47.969970703125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -6091,10 +6325,13 @@
       <c r="J16">
         <v>60.419921875</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>40.77001953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -6123,10 +6360,13 @@
       <c r="J17">
         <v>54.719970703125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>44.3701171875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -6155,10 +6395,13 @@
       <c r="J18">
         <v>62.969970703125</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -6187,10 +6430,13 @@
       <c r="J19">
         <v>59.02001953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>64.64990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -6219,10 +6465,13 @@
       <c r="J20">
         <v>98.2001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>54.469970703125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -6251,10 +6500,13 @@
       <c r="J21">
         <v>89.7001953125</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>64.669921875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6283,10 +6535,13 @@
       <c r="J22">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6315,10 +6570,13 @@
       <c r="J23">
         <v>78.31982421875</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>54.27001953125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6347,10 +6605,13 @@
       <c r="J24">
         <v>81.7001953125</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>68.669921875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6379,10 +6640,13 @@
       <c r="J25">
         <v>73.27001953125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -6411,10 +6675,13 @@
       <c r="J26">
         <v>74.31982421875</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>79.8701171875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -6443,10 +6710,13 @@
       <c r="J27">
         <v>60.449951171875</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>69.56982421875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -6475,10 +6745,13 @@
       <c r="J28">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>57.169921875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -6507,10 +6780,13 @@
       <c r="J29">
         <v>114.330078125</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>78.77001953125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -6539,10 +6815,13 @@
       <c r="J30">
         <v>62.1201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>57.6201171875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -6571,10 +6850,13 @@
       <c r="J31">
         <v>88.39990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>65.97021484375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -6603,10 +6885,13 @@
       <c r="J32">
         <v>76.47021484375</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>60.02001953125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -6635,10 +6920,13 @@
       <c r="J33">
         <v>56.8701171875</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>54.070068359375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -6667,10 +6955,13 @@
       <c r="J34">
         <v>69.47998046875</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>47.8701171875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -6699,10 +6990,13 @@
       <c r="J35">
         <v>71.22021484375</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>20.8499755859375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -6731,10 +7025,13 @@
       <c r="J36">
         <v>50.320068359375</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>63.919921875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -6763,10 +7060,13 @@
       <c r="J37">
         <v>67.68017578125</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -6795,10 +7095,13 @@
       <c r="J38">
         <v>83.89990234375</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>73.669921875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -6827,10 +7130,13 @@
       <c r="J39">
         <v>73.7001953125</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>84.81982421875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -6859,10 +7165,13 @@
       <c r="J40">
         <v>59.6201171875</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>54.77001953125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -6891,10 +7200,13 @@
       <c r="J41">
         <v>75.5498046875</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>83.8701171875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -6923,10 +7235,13 @@
       <c r="J42">
         <v>76.02001953125</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>65.47021484375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -6955,10 +7270,13 @@
       <c r="J43">
         <v>96.669921875</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>65.3701171875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -6987,10 +7305,13 @@
       <c r="J44">
         <v>66.77001953125</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -7019,10 +7340,13 @@
       <c r="J45">
         <v>66.72998046875</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -7051,10 +7375,13 @@
       <c r="J46">
         <v>91.56982421875</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>66.47021484375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -7083,10 +7410,13 @@
       <c r="J47">
         <v>58.919921875</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>68.97021484375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -7115,10 +7445,13 @@
       <c r="J48">
         <v>68.35009765625</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -7147,10 +7480,13 @@
       <c r="J49">
         <v>65.2001953125</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>39.35009765625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -7179,10 +7515,13 @@
       <c r="J50">
         <v>79.669921875</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>72.27001953125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -7211,10 +7550,13 @@
       <c r="J51">
         <v>58.89990234375</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>49.27001953125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -7243,10 +7585,13 @@
       <c r="J52">
         <v>59.77001953125</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>60.77001953125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -7275,10 +7620,13 @@
       <c r="J53">
         <v>51.669921875</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>42.110107421875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -7307,10 +7655,13 @@
       <c r="J54">
         <v>73.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>76.97021484375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -7339,10 +7690,13 @@
       <c r="J55">
         <v>84.39990234375</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>69.669921875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -7371,10 +7725,13 @@
       <c r="J56">
         <v>67.77978515625</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>86.7099609375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -7403,10 +7760,13 @@
       <c r="J57">
         <v>52.080078125</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>68.02001953125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -7435,10 +7795,13 @@
       <c r="J58">
         <v>89.3701171875</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>72.7998046875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -7467,10 +7830,13 @@
       <c r="J59">
         <v>65.64990234375</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -7499,10 +7865,13 @@
       <c r="J60">
         <v>93.10009765625</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>78.97021484375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -7531,37 +7900,43 @@
       <c r="J61">
         <v>76.77978515625</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>39.39990234375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" t="s">
         <v>48</v>
       </c>
-      <c r="E62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7579,307 +7954,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -7902,402 +8277,402 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>863.56982421875</v>
+        <v>922.1806640625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>854.33056640625</v>
+        <v>919.70068359375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>842.310546875</v>
+        <v>917.83984375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>828.37109375</v>
+        <v>882.441162109375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>815.499755859375</v>
+        <v>878.52001953125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>809.92041015625</v>
+        <v>878.340576171875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>806.070556640625</v>
+        <v>874.800048828125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>802.16015625</v>
+        <v>867.0595703125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>802.13037109375</v>
+        <v>866.66015625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>800.009033203125</v>
+        <v>865.94970703125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>797.829833984375</v>
+        <v>865.869873046875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>794.17041015625</v>
+        <v>865.30029296875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>793.3896484375</v>
+        <v>864.6904296875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>792.5595703125</v>
+        <v>863.62060546875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>791.73046875</v>
+        <v>862.150390625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B17">
-        <v>790.359130859375</v>
+        <v>860.779052734375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>790.35009765625</v>
+        <v>859.928955078125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>788.8603515625</v>
+        <v>854.029541015625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>786.2099609375</v>
+        <v>852.009521484375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>785.1005859375</v>
+        <v>851.68017578125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>784.0400390625</v>
+        <v>847.400390625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>782.339599609375</v>
+        <v>846.0302734375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>782.07958984375</v>
+        <v>841.66015625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B25">
-        <v>780.93017578125</v>
+        <v>836.93017578125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>763.5</v>
+        <v>833.23974609375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27">
-        <v>763.390869140625</v>
+        <v>829.460693359375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>760.989990234375</v>
+        <v>829.3701171875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>760.22021484375</v>
+        <v>825.659912109375</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>759.669921875</v>
+        <v>825.570556640625</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>759.500732421875</v>
+        <v>812.879150390625</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>758.9091796875</v>
+        <v>805.8704223632812</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>757.9599609375</v>
+        <v>804.08056640625</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>745.651123046875</v>
+        <v>803.57958984375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>738.1103515625</v>
+        <v>803.290771484375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>734.609375</v>
+        <v>800.990234375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>732.630126953125</v>
+        <v>800.12109375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>731.869384765625</v>
+        <v>795.640380859375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>728.631103515625</v>
+        <v>792.4794921875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>724.520751953125</v>
+        <v>785.239501953125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>723.8095703125</v>
+        <v>781.23046875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>722.070556640625</v>
+        <v>780.500244140625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>716.58056640625</v>
+        <v>776.60107421875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>705.41943359375</v>
+        <v>764.989501953125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>702.929931640625</v>
+        <v>755.6500244140625</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B46">
-        <v>701.5299072265625</v>
+        <v>753.82958984375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>697.090087890625</v>
+        <v>747.300048828125</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>683.91015625</v>
+        <v>743.72021484375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B49">
-        <v>681.829833984375</v>
+        <v>742.739501953125</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B50">
-        <v>681.02978515625</v>
+        <v>736.489990234375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>679.80029296875</v>
+        <v>735.169921875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8305,79 +8680,79 @@
         <v>20</v>
       </c>
       <c r="B52">
-        <v>662.64990234375</v>
+        <v>734.980224609375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>656.029541015625</v>
+        <v>733.8095703125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>651.43994140625</v>
+        <v>721.179931640625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>648.98974609375</v>
+        <v>709.260009765625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B56">
-        <v>637.189453125</v>
+        <v>706.72021484375</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>636.22998046875</v>
+        <v>687.129638671875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>635.22021484375</v>
+        <v>679.299560546875</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>634.879638671875</v>
+        <v>664.9599609375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>615.68994140625</v>
+        <v>664.25</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B61">
-        <v>596.22998046875</v>
+        <v>657.0799560546875</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8775,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8408,7 +8783,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8416,7 +8791,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8424,7 +8799,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8432,7 +8807,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8440,7 +8815,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8448,7 +8823,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8456,7 +8831,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8464,7 +8839,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8472,7 +8847,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8480,7 +8855,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8488,7 +8863,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8496,7 +8871,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8504,7 +8879,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8512,7 +8887,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8520,7 +8895,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8528,7 +8903,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8536,7 +8911,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8544,7 +8919,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8552,7 +8927,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8560,7 +8935,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8568,7 +8943,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8576,7 +8951,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8584,7 +8959,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8592,7 +8967,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8600,7 +8975,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8608,7 +8983,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8616,7 +8991,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8624,7 +8999,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8632,7 +9007,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8640,7 +9015,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8648,7 +9023,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8656,7 +9031,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8664,7 +9039,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8672,7 +9047,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8680,7 +9055,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8688,7 +9063,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8696,7 +9071,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8704,7 +9079,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8712,7 +9087,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8720,7 +9095,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8728,7 +9103,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8736,7 +9111,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8744,7 +9119,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8752,7 +9127,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8760,7 +9135,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8768,7 +9143,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8776,7 +9151,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -8784,7 +9159,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8792,7 +9167,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8800,7 +9175,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8808,7 +9183,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8816,7 +9191,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8824,7 +9199,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8832,7 +9207,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -8840,7 +9215,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -8848,7 +9223,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -8856,7 +9231,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8864,7 +9239,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -8872,7 +9247,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -8898,7 +9273,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -8906,7 +9281,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -8914,7 +9289,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -8922,7 +9297,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -8930,7 +9305,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -8938,7 +9313,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -8946,7 +9321,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -8954,7 +9329,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -8962,7 +9337,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -8970,7 +9345,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -8978,7 +9353,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -8986,7 +9361,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -8994,7 +9369,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -9002,7 +9377,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -9010,7 +9385,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -9018,7 +9393,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -9026,7 +9401,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -9034,7 +9409,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -9042,7 +9417,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -9050,7 +9425,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -9058,7 +9433,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -9066,7 +9441,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -9074,7 +9449,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -9082,7 +9457,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -9090,7 +9465,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -9098,7 +9473,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -9106,7 +9481,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -9114,7 +9489,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -9122,7 +9497,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -9130,7 +9505,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -9138,7 +9513,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -9146,7 +9521,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -9154,7 +9529,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -9162,7 +9537,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -9170,7 +9545,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -9178,7 +9553,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -9186,7 +9561,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -9194,7 +9569,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -9202,7 +9577,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -9210,7 +9585,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -9218,7 +9593,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -9226,7 +9601,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -9234,7 +9609,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -9242,7 +9617,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -9250,7 +9625,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -9258,7 +9633,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -9266,7 +9641,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -9274,7 +9649,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -9282,7 +9657,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -9290,7 +9665,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -9298,7 +9673,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -9306,7 +9681,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -9314,7 +9689,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -9322,7 +9697,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -9330,7 +9705,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -9338,7 +9713,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -9346,7 +9721,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -9354,7 +9729,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -9362,7 +9737,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -9370,7 +9745,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -9396,7 +9771,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -9404,7 +9779,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -9412,7 +9787,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -9420,7 +9795,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -9428,7 +9803,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -9436,7 +9811,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -9444,7 +9819,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -9452,7 +9827,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -9460,7 +9835,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -9468,7 +9843,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -9476,7 +9851,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -9484,7 +9859,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -9492,7 +9867,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -9500,7 +9875,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -9508,7 +9883,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -9516,7 +9891,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -9524,7 +9899,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -9532,7 +9907,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -9540,7 +9915,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -9548,7 +9923,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -9556,7 +9931,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -9564,7 +9939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -9572,7 +9947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -9580,7 +9955,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -9588,7 +9963,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -9596,7 +9971,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -9604,7 +9979,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -9612,7 +9987,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -9620,7 +9995,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -9628,7 +10003,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -9636,7 +10011,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -9644,7 +10019,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -9652,7 +10027,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -9660,7 +10035,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -9668,7 +10043,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -9676,7 +10051,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -9684,7 +10059,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -9692,7 +10067,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -9700,7 +10075,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -9708,7 +10083,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -9716,7 +10091,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -9724,7 +10099,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -9732,7 +10107,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -9740,7 +10115,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -9748,7 +10123,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -9756,7 +10131,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -9764,7 +10139,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -9772,7 +10147,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -9780,7 +10155,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -9788,7 +10163,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -9796,7 +10171,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -9804,7 +10179,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -9812,7 +10187,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -9820,7 +10195,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -9828,7 +10203,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -9836,7 +10211,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -9844,7 +10219,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -9852,7 +10227,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -9860,7 +10235,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -9868,7 +10243,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -9894,482 +10269,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>345.47998046875</v>
+        <v>404.0205078125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>325.05029296875</v>
+        <v>399.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>320.34033203125</v>
+        <v>399.1103515625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>316.00048828125</v>
+        <v>395.87060546875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>314.2001953125</v>
+        <v>380.8095703125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>309.54931640625</v>
+        <v>379.5703125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>306.25048828125</v>
+        <v>379.21923828125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>298.55029296875</v>
+        <v>369.05029296875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>295.59033203125</v>
+        <v>365.51953125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>294.099609375</v>
+        <v>365.4296875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>293.5703125</v>
+        <v>363.22021484375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>292.080078125</v>
+        <v>362.52001953125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>291.759765625</v>
+        <v>360.5400390625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>288.27001953125</v>
+        <v>360.320556640625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>287.239501953125</v>
+        <v>356.809326171875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>287.18994140625</v>
+        <v>353.59033203125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>286.550537109375</v>
+        <v>351.15966796875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>285.89990234375</v>
+        <v>350.470458984375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>283.52001953125</v>
+        <v>348.72021484375</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B21">
-        <v>282.62939453125</v>
+        <v>347.39013671875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>282.25</v>
+        <v>347.38037109375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>281.91015625</v>
+        <v>347.01953125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>281.2802734375</v>
+        <v>346.81982421875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25">
-        <v>280.70068359375</v>
+        <v>346.7705078125</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>278.64990234375</v>
+        <v>345.7802734375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B27">
-        <v>277.93994140625</v>
+        <v>345.31982421875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>277.58984375</v>
+        <v>344.060546875</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>277.349609375</v>
+        <v>343.3994140625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>276.349609375</v>
+        <v>342.080078125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>275.89013671875</v>
+        <v>340.669921875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>275.31005859375</v>
+        <v>339.409912109375</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>274.2197265625</v>
+        <v>335.06005859375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>268.51025390625</v>
+        <v>332.47998046875</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>266.48046875</v>
+        <v>331.840087890625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>265.770263671875</v>
+        <v>329.6005859375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>265.54052734375</v>
+        <v>328.25048828125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>263.73046875</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>263.360107421875</v>
+        <v>324.7294921875</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>262.2802734375</v>
+        <v>322.8701171875</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>262</v>
+        <v>320.950439453125</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>259.530029296875</v>
+        <v>316.47998046875</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>257.9599609375</v>
+        <v>315.580078125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>257.93017578125</v>
+        <v>313.730224609375</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>256.830078125</v>
+        <v>307.899658203125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>253.9296875</v>
+        <v>307.2903442382812</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>252.20947265625</v>
+        <v>305.900146484375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>246.5302734375</v>
+        <v>303.900146484375</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>242.91015625</v>
+        <v>300.55029296875</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>240.83984375</v>
+        <v>300.409912109375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>235.900390625</v>
+        <v>287.30029296875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>234.22998046875</v>
+        <v>285.300048828125</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>231.25</v>
+        <v>284.6201171875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>230.449951171875</v>
+        <v>280.040283203125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>226.26025390625</v>
+        <v>278.51025390625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>225.1796875</v>
+        <v>269.849853515625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>222.22021484375</v>
+        <v>267.289794921875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>204.2099609375</v>
+        <v>258.580078125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>199.830078125</v>
+        <v>249.10009765625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B60">
-        <v>190.56005859375</v>
+        <v>225.0599365234375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>166.5201416015625</v>
+        <v>220.6402587890625</v>
       </c>
     </row>
   </sheetData>
@@ -10392,7 +10767,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10400,7 +10775,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10408,7 +10783,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10416,7 +10791,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10424,7 +10799,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10432,7 +10807,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10440,7 +10815,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10448,7 +10823,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10456,7 +10831,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10464,7 +10839,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10472,7 +10847,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10480,7 +10855,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10488,7 +10863,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10496,7 +10871,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10504,7 +10879,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10512,7 +10887,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10520,7 +10895,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10528,7 +10903,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10536,7 +10911,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10544,7 +10919,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10552,7 +10927,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10560,7 +10935,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10568,7 +10943,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10576,7 +10951,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10584,7 +10959,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10592,7 +10967,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10600,7 +10975,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10608,7 +10983,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10616,7 +10991,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10624,7 +10999,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10632,7 +11007,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10640,7 +11015,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10648,7 +11023,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10656,7 +11031,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10664,7 +11039,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10672,7 +11047,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10680,7 +11055,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10688,7 +11063,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10696,7 +11071,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10704,7 +11079,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10712,7 +11087,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10720,7 +11095,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10728,7 +11103,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10736,7 +11111,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10744,7 +11119,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10752,7 +11127,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10760,7 +11135,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10768,7 +11143,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10776,7 +11151,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10784,7 +11159,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10792,7 +11167,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10800,7 +11175,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10808,7 +11183,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -10816,7 +11191,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10824,7 +11199,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10832,7 +11207,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10840,7 +11215,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -10848,7 +11223,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10856,7 +11231,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10864,7 +11239,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="72">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Rodada 10</t>
+  </si>
+  <si>
+    <t>Rodada 11</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -598,13 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,10 +638,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -670,10 +676,13 @@
       <c r="K2">
         <v>50.3701171875</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>104.47021484375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -705,10 +714,13 @@
       <c r="K3">
         <v>53.969970703125</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -740,10 +752,13 @@
       <c r="K4">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>60.9599609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -775,10 +790,13 @@
       <c r="K5">
         <v>78.52001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -810,10 +828,13 @@
       <c r="K6">
         <v>53.3701171875</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>97.81005859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -845,10 +866,13 @@
       <c r="K7">
         <v>88.169921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>105.10986328125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -880,10 +904,13 @@
       <c r="K8">
         <v>61.469970703125</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>93.2099609375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -915,10 +942,13 @@
       <c r="K9">
         <v>59.570068359375</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>48.4599609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -950,10 +980,13 @@
       <c r="K10">
         <v>57.820068359375</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>49.35009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -985,10 +1018,13 @@
       <c r="K11">
         <v>11.70001220703125</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>101.2099609375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -1020,10 +1056,13 @@
       <c r="K12">
         <v>51.070068359375</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>81.2099609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -1055,10 +1094,13 @@
       <c r="K13">
         <v>72.52001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -1090,10 +1132,13 @@
       <c r="K14">
         <v>65.8701171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>106.81005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -1125,10 +1170,13 @@
       <c r="K15">
         <v>47.969970703125</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>73.66015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -1160,10 +1208,13 @@
       <c r="K16">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>79.91015625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -1195,10 +1246,13 @@
       <c r="K17">
         <v>44.3701171875</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>76.009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1230,10 +1284,13 @@
       <c r="K18">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1265,10 +1322,13 @@
       <c r="K19">
         <v>64.64990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>90.93994140625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1300,10 +1360,13 @@
       <c r="K20">
         <v>54.469970703125</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>82.259765625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1335,10 +1398,13 @@
       <c r="K21">
         <v>64.669921875</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>90.2099609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1370,10 +1436,13 @@
       <c r="K22">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>120.27001953125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1405,10 +1474,13 @@
       <c r="K23">
         <v>54.27001953125</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>84.740234375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1440,10 +1512,13 @@
       <c r="K24">
         <v>68.669921875</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>72.16015625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1475,10 +1550,13 @@
       <c r="K25">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>108.0400390625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1510,10 +1588,13 @@
       <c r="K26">
         <v>79.8701171875</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>105.5400390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1545,10 +1626,13 @@
       <c r="K27">
         <v>69.56982421875</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>95.93994140625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1580,10 +1664,13 @@
       <c r="K28">
         <v>57.169921875</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>118.31005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1615,10 +1702,13 @@
       <c r="K29">
         <v>78.77001953125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>81.33984375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1650,10 +1740,13 @@
       <c r="K30">
         <v>57.6201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1685,10 +1778,13 @@
       <c r="K31">
         <v>65.97021484375</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>91.91015625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1720,10 +1816,13 @@
       <c r="K32">
         <v>60.02001953125</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>80.72021484375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1755,10 +1854,13 @@
       <c r="K33">
         <v>54.070068359375</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>115.77001953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1790,10 +1892,13 @@
       <c r="K34">
         <v>47.8701171875</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>71.7099609375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1825,10 +1930,13 @@
       <c r="K35">
         <v>20.8499755859375</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>75.68017578125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1860,10 +1968,13 @@
       <c r="K36">
         <v>63.919921875</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>150.3701171875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -1895,10 +2006,13 @@
       <c r="K37">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>120.5498046875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -1930,10 +2044,13 @@
       <c r="K38">
         <v>73.669921875</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>110.509765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -1965,10 +2082,13 @@
       <c r="K39">
         <v>84.81982421875</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>62.610107421875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -2000,10 +2120,13 @@
       <c r="K40">
         <v>54.77001953125</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>134.669921875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -2035,10 +2158,13 @@
       <c r="K41">
         <v>83.8701171875</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>96.919921875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -2070,10 +2196,13 @@
       <c r="K42">
         <v>65.47021484375</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>77.41015625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -2105,10 +2234,13 @@
       <c r="K43">
         <v>65.3701171875</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>132.91015625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -2140,10 +2272,13 @@
       <c r="K44">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -2175,10 +2310,13 @@
       <c r="K45">
         <v>52.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>64.7001953125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -2210,10 +2348,13 @@
       <c r="K46">
         <v>66.47021484375</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>125.60986328125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -2245,10 +2386,13 @@
       <c r="K47">
         <v>68.97021484375</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>114.7099609375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -2280,10 +2424,13 @@
       <c r="K48">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>123.919921875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -2315,10 +2462,13 @@
       <c r="K49">
         <v>39.35009765625</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>73.16015625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -2350,10 +2500,13 @@
       <c r="K50">
         <v>72.27001953125</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>97.2099609375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -2385,10 +2538,13 @@
       <c r="K51">
         <v>49.27001953125</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>66.66015625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -2420,10 +2576,13 @@
       <c r="K52">
         <v>60.77001953125</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>122.41015625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -2455,10 +2614,13 @@
       <c r="K53">
         <v>42.110107421875</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>54.7099609375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -2490,10 +2652,13 @@
       <c r="K54">
         <v>76.97021484375</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>124.47021484375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -2525,10 +2690,13 @@
       <c r="K55">
         <v>69.669921875</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>110.27001953125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -2560,10 +2728,13 @@
       <c r="K56">
         <v>86.7099609375</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>94.41015625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -2595,10 +2766,13 @@
       <c r="K57">
         <v>68.02001953125</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>81.56005859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -2630,10 +2804,13 @@
       <c r="K58">
         <v>72.7998046875</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -2665,10 +2842,13 @@
       <c r="K59">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>95.759765625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -2700,10 +2880,13 @@
       <c r="K60">
         <v>78.97021484375</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>127.27001953125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -2735,40 +2918,46 @@
       <c r="K61">
         <v>39.39990234375</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>62.8701171875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" t="s">
         <v>49</v>
       </c>
-      <c r="E62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
-      </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2980,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2799,7 +2988,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2807,7 +2996,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2815,7 +3004,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2823,7 +3012,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2831,7 +3020,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2839,7 +3028,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2847,7 +3036,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2855,7 +3044,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2863,7 +3052,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2871,7 +3060,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2879,7 +3068,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2887,7 +3076,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2895,7 +3084,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2903,7 +3092,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2911,7 +3100,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2919,7 +3108,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2927,7 +3116,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2935,7 +3124,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2943,7 +3132,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2951,7 +3140,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2959,7 +3148,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2967,7 +3156,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2975,7 +3164,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2983,7 +3172,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2991,7 +3180,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2999,7 +3188,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3007,7 +3196,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3015,7 +3204,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3023,7 +3212,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3031,7 +3220,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3039,7 +3228,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3047,7 +3236,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3055,7 +3244,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3063,7 +3252,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3071,7 +3260,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3079,7 +3268,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3087,7 +3276,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3095,7 +3284,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3103,7 +3292,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3111,7 +3300,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3119,7 +3308,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3127,7 +3316,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3135,7 +3324,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3143,7 +3332,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3151,7 +3340,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3159,7 +3348,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3167,7 +3356,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3175,7 +3364,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3183,7 +3372,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3191,7 +3380,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3199,7 +3388,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3207,7 +3396,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3215,7 +3404,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3223,7 +3412,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3231,7 +3420,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3239,7 +3428,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3247,7 +3436,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3255,7 +3444,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3263,7 +3452,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3289,7 +3478,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3297,7 +3486,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3305,7 +3494,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3313,7 +3502,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3321,7 +3510,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3329,7 +3518,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3337,7 +3526,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3345,7 +3534,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3353,7 +3542,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3361,7 +3550,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3369,7 +3558,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3377,7 +3566,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3385,7 +3574,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3393,7 +3582,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3401,7 +3590,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3409,7 +3598,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3417,7 +3606,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3425,7 +3614,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3433,7 +3622,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3441,7 +3630,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3449,7 +3638,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3457,7 +3646,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3465,7 +3654,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3473,7 +3662,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3481,7 +3670,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3489,7 +3678,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3497,7 +3686,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3505,7 +3694,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3513,7 +3702,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3521,7 +3710,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3529,7 +3718,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3537,7 +3726,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3545,7 +3734,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3553,7 +3742,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3561,7 +3750,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3569,7 +3758,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3577,7 +3766,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3585,7 +3774,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3593,7 +3782,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3601,7 +3790,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3609,7 +3798,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3617,7 +3806,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3625,7 +3814,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3633,7 +3822,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3641,7 +3830,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3649,7 +3838,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3657,7 +3846,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3665,7 +3854,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3673,7 +3862,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3681,7 +3870,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3689,7 +3878,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3697,7 +3886,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3705,7 +3894,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3713,7 +3902,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3721,7 +3910,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3729,7 +3918,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3737,7 +3926,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3745,7 +3934,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3753,7 +3942,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3761,7 +3950,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3787,7 +3976,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3795,7 +3984,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3803,7 +3992,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3811,7 +4000,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3819,7 +4008,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3827,7 +4016,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3835,7 +4024,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3843,7 +4032,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3851,7 +4040,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3859,7 +4048,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3867,7 +4056,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3875,7 +4064,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3883,7 +4072,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3891,7 +4080,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3899,7 +4088,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3907,7 +4096,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3915,7 +4104,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3923,7 +4112,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3931,7 +4120,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3939,7 +4128,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3947,7 +4136,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3955,7 +4144,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3963,7 +4152,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3971,7 +4160,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3979,7 +4168,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3987,7 +4176,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3995,7 +4184,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4003,7 +4192,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4011,7 +4200,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4019,7 +4208,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4027,7 +4216,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4035,7 +4224,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4043,7 +4232,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4051,7 +4240,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4059,7 +4248,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4067,7 +4256,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4075,7 +4264,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4083,7 +4272,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4091,7 +4280,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4099,7 +4288,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4107,7 +4296,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4115,7 +4304,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4123,7 +4312,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4131,7 +4320,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4139,7 +4328,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4147,7 +4336,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4155,7 +4344,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4163,7 +4352,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4171,7 +4360,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4179,7 +4368,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4187,7 +4376,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4195,7 +4384,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4203,7 +4392,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4211,7 +4400,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4219,7 +4408,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4227,7 +4416,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4235,7 +4424,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4243,7 +4432,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4251,7 +4440,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4259,7 +4448,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4285,7 +4474,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4293,7 +4482,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4301,7 +4490,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4309,7 +4498,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4317,7 +4506,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4325,7 +4514,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4333,7 +4522,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4341,7 +4530,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4349,7 +4538,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4357,7 +4546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4365,7 +4554,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4373,7 +4562,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4381,7 +4570,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4389,7 +4578,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4397,7 +4586,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4405,7 +4594,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4413,7 +4602,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4421,7 +4610,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4429,7 +4618,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4437,7 +4626,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4445,7 +4634,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4453,7 +4642,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4461,7 +4650,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4469,7 +4658,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4477,7 +4666,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4485,7 +4674,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4493,7 +4682,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4501,7 +4690,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4509,7 +4698,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4517,7 +4706,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4525,7 +4714,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4533,7 +4722,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4541,7 +4730,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4549,7 +4738,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4557,7 +4746,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4565,7 +4754,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4573,7 +4762,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4581,7 +4770,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4589,7 +4778,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4597,7 +4786,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4605,7 +4794,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4613,7 +4802,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4621,7 +4810,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4629,7 +4818,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4637,7 +4826,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4645,7 +4834,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4653,7 +4842,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4661,7 +4850,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4669,7 +4858,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4677,7 +4866,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4685,7 +4874,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4693,7 +4882,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4701,7 +4890,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4709,7 +4898,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4717,7 +4906,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4725,7 +4914,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4733,7 +4922,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4741,7 +4930,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4749,7 +4938,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4757,7 +4946,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4783,7 +4972,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4791,7 +4980,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4799,7 +4988,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4807,7 +4996,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4815,7 +5004,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4823,7 +5012,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4831,7 +5020,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4839,7 +5028,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4847,7 +5036,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4855,7 +5044,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4863,7 +5052,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4871,7 +5060,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4879,7 +5068,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4887,7 +5076,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4895,7 +5084,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4903,7 +5092,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4911,7 +5100,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4919,7 +5108,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4927,7 +5116,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4935,7 +5124,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4943,7 +5132,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4951,7 +5140,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4959,7 +5148,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4967,7 +5156,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4975,7 +5164,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4983,7 +5172,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4991,7 +5180,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4999,7 +5188,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5007,7 +5196,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5015,7 +5204,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5023,7 +5212,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5031,7 +5220,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5039,7 +5228,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5047,7 +5236,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5055,7 +5244,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5063,7 +5252,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5071,7 +5260,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5079,7 +5268,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5087,7 +5276,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5095,7 +5284,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5103,7 +5292,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5111,7 +5300,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5119,7 +5308,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5127,7 +5316,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5135,7 +5324,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5143,7 +5332,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5151,7 +5340,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5159,7 +5348,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5167,7 +5356,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5175,7 +5364,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5183,7 +5372,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5191,7 +5380,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5199,7 +5388,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5207,7 +5396,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5215,7 +5404,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5223,7 +5412,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5231,7 +5420,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5239,7 +5428,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5247,7 +5436,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5255,7 +5444,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5281,7 +5470,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5289,7 +5478,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5297,7 +5486,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5305,7 +5494,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5313,7 +5502,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5321,7 +5510,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5329,7 +5518,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5337,7 +5526,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5345,7 +5534,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5353,7 +5542,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5361,7 +5550,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5369,7 +5558,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5377,7 +5566,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5385,7 +5574,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5393,7 +5582,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5401,7 +5590,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5409,7 +5598,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5417,7 +5606,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5425,7 +5614,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5433,7 +5622,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5441,7 +5630,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5449,7 +5638,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5457,7 +5646,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5465,7 +5654,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5473,7 +5662,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5481,7 +5670,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5489,7 +5678,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5497,7 +5686,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5505,7 +5694,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5513,7 +5702,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5521,7 +5710,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5529,7 +5718,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5537,7 +5726,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5545,7 +5734,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5553,7 +5742,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5561,7 +5750,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5569,7 +5758,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5577,7 +5766,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5585,7 +5774,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5593,7 +5782,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5601,7 +5790,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5609,7 +5798,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5617,7 +5806,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5625,7 +5814,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5633,7 +5822,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5641,7 +5830,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5649,7 +5838,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5657,7 +5846,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5665,7 +5854,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5673,7 +5862,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5681,7 +5870,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5689,7 +5878,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5697,7 +5886,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5705,7 +5894,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5713,7 +5902,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5721,7 +5910,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5729,7 +5918,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5737,7 +5926,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5745,7 +5934,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5753,7 +5942,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5766,13 +5955,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5803,10 +5992,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -5838,10 +6030,13 @@
       <c r="K2">
         <v>50.3701171875</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>104.47021484375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -5873,10 +6068,13 @@
       <c r="K3">
         <v>53.969970703125</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -5908,10 +6106,13 @@
       <c r="K4">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>60.9599609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -5943,10 +6144,13 @@
       <c r="K5">
         <v>78.52001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -5978,10 +6182,13 @@
       <c r="K6">
         <v>53.3701171875</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>97.81005859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -6013,10 +6220,13 @@
       <c r="K7">
         <v>88.169921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>105.10986328125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -6048,10 +6258,13 @@
       <c r="K8">
         <v>61.469970703125</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>93.2099609375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -6083,10 +6296,13 @@
       <c r="K9">
         <v>59.570068359375</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>48.4599609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -6118,10 +6334,13 @@
       <c r="K10">
         <v>57.820068359375</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>49.35009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -6153,10 +6372,13 @@
       <c r="K11">
         <v>11.70001220703125</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>101.2099609375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -6188,10 +6410,13 @@
       <c r="K12">
         <v>51.070068359375</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>81.2099609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -6223,10 +6448,13 @@
       <c r="K13">
         <v>72.52001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -6258,10 +6486,13 @@
       <c r="K14">
         <v>65.8701171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>106.81005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -6293,10 +6524,13 @@
       <c r="K15">
         <v>47.969970703125</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>73.66015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -6328,10 +6562,13 @@
       <c r="K16">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>79.91015625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -6363,10 +6600,13 @@
       <c r="K17">
         <v>44.3701171875</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>76.009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -6398,10 +6638,13 @@
       <c r="K18">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -6433,10 +6676,13 @@
       <c r="K19">
         <v>64.64990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>90.93994140625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -6468,10 +6714,13 @@
       <c r="K20">
         <v>54.469970703125</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>82.259765625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -6503,10 +6752,13 @@
       <c r="K21">
         <v>64.669921875</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>90.2099609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6538,10 +6790,13 @@
       <c r="K22">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>120.27001953125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6573,10 +6828,13 @@
       <c r="K23">
         <v>54.27001953125</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>84.740234375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6608,10 +6866,13 @@
       <c r="K24">
         <v>68.669921875</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>72.16015625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6643,10 +6904,13 @@
       <c r="K25">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>108.0400390625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -6678,10 +6942,13 @@
       <c r="K26">
         <v>79.8701171875</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>105.5400390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -6713,10 +6980,13 @@
       <c r="K27">
         <v>69.56982421875</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>95.93994140625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -6748,10 +7018,13 @@
       <c r="K28">
         <v>57.169921875</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>118.31005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -6783,10 +7056,13 @@
       <c r="K29">
         <v>78.77001953125</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>81.33984375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -6818,10 +7094,13 @@
       <c r="K30">
         <v>57.6201171875</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -6853,10 +7132,13 @@
       <c r="K31">
         <v>65.97021484375</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>91.91015625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -6888,10 +7170,13 @@
       <c r="K32">
         <v>60.02001953125</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>80.72021484375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -6923,10 +7208,13 @@
       <c r="K33">
         <v>54.070068359375</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>115.77001953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -6958,10 +7246,13 @@
       <c r="K34">
         <v>47.8701171875</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>71.7099609375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -6993,10 +7284,13 @@
       <c r="K35">
         <v>20.8499755859375</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>75.68017578125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -7028,10 +7322,13 @@
       <c r="K36">
         <v>63.919921875</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>150.3701171875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -7063,10 +7360,13 @@
       <c r="K37">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>120.5498046875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -7098,10 +7398,13 @@
       <c r="K38">
         <v>73.669921875</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>110.509765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -7133,10 +7436,13 @@
       <c r="K39">
         <v>84.81982421875</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>62.610107421875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -7168,10 +7474,13 @@
       <c r="K40">
         <v>54.77001953125</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>134.669921875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -7203,10 +7512,13 @@
       <c r="K41">
         <v>83.8701171875</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>96.919921875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -7238,10 +7550,13 @@
       <c r="K42">
         <v>65.47021484375</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>77.41015625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -7273,10 +7588,13 @@
       <c r="K43">
         <v>65.3701171875</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>132.91015625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -7308,10 +7626,13 @@
       <c r="K44">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -7343,10 +7664,13 @@
       <c r="K45">
         <v>52.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>64.7001953125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -7378,10 +7702,13 @@
       <c r="K46">
         <v>66.47021484375</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>125.60986328125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -7413,10 +7740,13 @@
       <c r="K47">
         <v>68.97021484375</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>114.7099609375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -7448,10 +7778,13 @@
       <c r="K48">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>123.919921875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -7483,10 +7816,13 @@
       <c r="K49">
         <v>39.35009765625</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>73.16015625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -7518,10 +7854,13 @@
       <c r="K50">
         <v>72.27001953125</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>97.2099609375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -7553,10 +7892,13 @@
       <c r="K51">
         <v>49.27001953125</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>66.66015625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -7588,10 +7930,13 @@
       <c r="K52">
         <v>60.77001953125</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>122.41015625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -7623,10 +7968,13 @@
       <c r="K53">
         <v>42.110107421875</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>54.7099609375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -7658,10 +8006,13 @@
       <c r="K54">
         <v>76.97021484375</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>124.47021484375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -7693,10 +8044,13 @@
       <c r="K55">
         <v>69.669921875</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>110.27001953125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -7728,10 +8082,13 @@
       <c r="K56">
         <v>86.7099609375</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>94.41015625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -7763,10 +8120,13 @@
       <c r="K57">
         <v>68.02001953125</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>81.56005859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -7798,10 +8158,13 @@
       <c r="K58">
         <v>72.7998046875</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -7833,10 +8196,13 @@
       <c r="K59">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>95.759765625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -7868,10 +8234,13 @@
       <c r="K60">
         <v>78.97021484375</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>127.27001953125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -7903,40 +8272,46 @@
       <c r="K61">
         <v>39.39990234375</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>62.8701171875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" t="s">
         <v>49</v>
       </c>
-      <c r="E62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
-      </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -7954,307 +8329,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -8277,250 +8652,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>922.1806640625</v>
+        <v>1052.61083984375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>919.70068359375</v>
+        <v>1027.720703125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>917.83984375</v>
+        <v>1002.580078125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>882.441162109375</v>
+        <v>999.3603515625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>878.52001953125</v>
+        <v>999.270263671875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>878.340576171875</v>
+        <v>998.211181640625</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>874.800048828125</v>
+        <v>990.580078125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>867.0595703125</v>
+        <v>985.5703125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>866.66015625</v>
+        <v>983.6298828125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>865.94970703125</v>
+        <v>983.189208984375</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>865.869873046875</v>
+        <v>977.5693359375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>865.30029296875</v>
+        <v>975.550537109375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>864.6904296875</v>
+        <v>973.01025390625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>863.62060546875</v>
+        <v>970.340087890625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>862.150390625</v>
+        <v>964.34033203125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>860.779052734375</v>
+        <v>964.2001953125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>859.928955078125</v>
+        <v>962.86962890625</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>854.029541015625</v>
+        <v>962.279541015625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>852.009521484375</v>
+        <v>956.08056640625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>851.68017578125</v>
+        <v>955.868896484375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>847.400390625</v>
+        <v>947.239501953125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23">
-        <v>846.0302734375</v>
+        <v>942.87060546875</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>841.66015625</v>
+        <v>941.27978515625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>836.93017578125</v>
+        <v>939.870849609375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>833.23974609375</v>
+        <v>936.18017578125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>829.460693359375</v>
+        <v>935.980712890625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>829.3701171875</v>
+        <v>929.09033203125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>825.659912109375</v>
+        <v>918.28955078125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B30">
-        <v>825.570556640625</v>
+        <v>916.190185546875</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>812.879150390625</v>
+        <v>915.869873046875</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>805.8704223632812</v>
+        <v>915.739013671875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8528,231 +8903,231 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>804.08056640625</v>
+        <v>910.81005859375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>803.57958984375</v>
+        <v>907.0803833007812</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>803.290771484375</v>
+        <v>895.99072265625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>800.990234375</v>
+        <v>894.09033203125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>800.12109375</v>
+        <v>884.630615234375</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>795.640380859375</v>
+        <v>883.049560546875</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>792.4794921875</v>
+        <v>882.380859375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>785.239501953125</v>
+        <v>880.900390625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>781.23046875</v>
+        <v>872.17041015625</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>780.500244140625</v>
+        <v>864.6396484375</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>776.60107421875</v>
+        <v>852.210205078125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>764.989501953125</v>
+        <v>850.26123046875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>755.6500244140625</v>
+        <v>837.149658203125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>753.82958984375</v>
+        <v>830.82958984375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>747.300048828125</v>
+        <v>828.16015625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>743.72021484375</v>
+        <v>823.309814453125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>742.739501953125</v>
+        <v>816.6099853515625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>736.489990234375</v>
+        <v>816.190185546875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>735.169921875</v>
+        <v>813.449462890625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>734.980224609375</v>
+        <v>802.47998046875</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>733.8095703125</v>
+        <v>799.360107421875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>721.179931640625</v>
+        <v>796.419677734375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>709.260009765625</v>
+        <v>794.340087890625</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>706.72021484375</v>
+        <v>758.610107421875</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>687.129638671875</v>
+        <v>751.829833984375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>679.299560546875</v>
+        <v>745.81005859375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>664.9599609375</v>
+        <v>734.009521484375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B60">
-        <v>664.25</v>
+        <v>732.7601318359375</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>657.0799560546875</v>
+        <v>731.6201171875</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +9150,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -8783,7 +9158,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8791,7 +9166,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8799,7 +9174,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -8807,7 +9182,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8815,7 +9190,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8823,7 +9198,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8831,7 +9206,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8839,7 +9214,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8847,7 +9222,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8855,7 +9230,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -8863,7 +9238,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8871,7 +9246,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8879,7 +9254,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8887,7 +9262,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8895,7 +9270,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8903,7 +9278,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8911,7 +9286,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8919,7 +9294,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8927,7 +9302,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8935,7 +9310,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8943,7 +9318,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8951,7 +9326,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8959,7 +9334,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8967,7 +9342,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8975,7 +9350,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8983,7 +9358,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8991,7 +9366,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8999,7 +9374,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9007,7 +9382,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9015,7 +9390,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9023,7 +9398,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9031,7 +9406,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9039,7 +9414,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9047,7 +9422,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9055,7 +9430,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9063,7 +9438,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9071,7 +9446,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9079,7 +9454,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9087,7 +9462,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9095,7 +9470,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9103,7 +9478,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9111,7 +9486,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9119,7 +9494,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9127,7 +9502,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -9135,7 +9510,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -9143,7 +9518,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -9151,7 +9526,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -9159,7 +9534,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9167,7 +9542,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -9175,7 +9550,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9183,7 +9558,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -9191,7 +9566,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9199,7 +9574,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9207,7 +9582,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9215,7 +9590,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9223,7 +9598,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9231,7 +9606,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9239,7 +9614,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9247,7 +9622,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9273,7 +9648,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -9281,7 +9656,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -9289,7 +9664,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -9297,7 +9672,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -9305,7 +9680,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -9313,7 +9688,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -9321,7 +9696,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -9329,7 +9704,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -9337,7 +9712,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -9345,7 +9720,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -9353,7 +9728,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -9361,7 +9736,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -9369,7 +9744,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -9377,7 +9752,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -9385,7 +9760,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -9393,7 +9768,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -9401,7 +9776,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -9409,7 +9784,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -9417,7 +9792,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -9425,7 +9800,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -9433,7 +9808,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -9441,7 +9816,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -9449,7 +9824,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -9457,7 +9832,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -9465,7 +9840,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -9473,7 +9848,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -9481,7 +9856,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -9489,7 +9864,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -9497,7 +9872,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -9505,7 +9880,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -9513,7 +9888,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -9521,7 +9896,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -9529,7 +9904,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -9537,7 +9912,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -9545,7 +9920,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -9553,7 +9928,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -9561,7 +9936,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -9569,7 +9944,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -9577,7 +9952,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -9585,7 +9960,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -9593,7 +9968,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -9601,7 +9976,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -9609,7 +9984,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -9617,7 +9992,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -9625,7 +10000,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -9633,7 +10008,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -9641,7 +10016,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -9649,7 +10024,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -9657,7 +10032,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -9665,7 +10040,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -9673,7 +10048,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -9681,7 +10056,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -9689,7 +10064,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -9697,7 +10072,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -9705,7 +10080,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -9713,7 +10088,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -9721,7 +10096,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -9729,7 +10104,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -9737,7 +10112,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -9745,7 +10120,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -9771,7 +10146,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -9779,7 +10154,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -9787,7 +10162,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -9795,7 +10170,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -9803,7 +10178,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -9811,7 +10186,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -9819,7 +10194,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -9827,7 +10202,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -9835,7 +10210,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -9843,7 +10218,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -9851,7 +10226,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -9859,7 +10234,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -9867,7 +10242,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -9875,7 +10250,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -9883,7 +10258,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -9891,7 +10266,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -9899,7 +10274,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -9907,7 +10282,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -9915,7 +10290,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -9923,7 +10298,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -9931,7 +10306,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -9939,7 +10314,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -9947,7 +10322,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -9955,7 +10330,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -9963,7 +10338,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -9971,7 +10346,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -9979,7 +10354,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -9987,7 +10362,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -9995,7 +10370,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -10003,7 +10378,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -10011,7 +10386,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -10019,7 +10394,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -10027,7 +10402,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -10035,7 +10410,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -10043,7 +10418,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -10051,7 +10426,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -10059,7 +10434,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -10067,7 +10442,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -10075,7 +10450,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -10083,7 +10458,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -10091,7 +10466,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -10099,7 +10474,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -10107,7 +10482,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -10115,7 +10490,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -10123,7 +10498,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -10131,7 +10506,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -10139,7 +10514,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -10147,7 +10522,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -10155,7 +10530,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -10163,7 +10538,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -10171,7 +10546,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -10179,7 +10554,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -10187,7 +10562,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -10195,7 +10570,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -10203,7 +10578,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -10211,7 +10586,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -10219,7 +10594,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -10227,7 +10602,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -10235,7 +10610,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -10243,7 +10618,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -10269,482 +10644,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>404.0205078125</v>
+        <v>531.29052734375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>399.75</v>
+        <v>512.48046875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>399.1103515625</v>
+        <v>501.41064453125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>395.87060546875</v>
+        <v>500.840576171875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>380.8095703125</v>
+        <v>493.5205078125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>379.5703125</v>
+        <v>489.4892578125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>379.21923828125</v>
+        <v>484.490234375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>369.05029296875</v>
+        <v>480.4501953125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>365.51953125</v>
+        <v>476.090576171875</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>365.4296875</v>
+        <v>475.939453125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>363.22021484375</v>
+        <v>475.33984375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>362.52001953125</v>
+        <v>475.2197265625</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>360.5400390625</v>
+        <v>474.330078125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>360.320556640625</v>
+        <v>471.4296875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>356.809326171875</v>
+        <v>470.62939453125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>353.59033203125</v>
+        <v>469.7001953125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>351.15966796875</v>
+        <v>465.8095703125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>350.470458984375</v>
+        <v>460.02978515625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>348.72021484375</v>
+        <v>459.43994140625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>347.39013671875</v>
+        <v>457.75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>347.38037109375</v>
+        <v>457.1806640625</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>347.01953125</v>
+        <v>453.43017578125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>346.81982421875</v>
+        <v>452.749267578125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>346.7705078125</v>
+        <v>450.7900390625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>345.7802734375</v>
+        <v>450.1201171875</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B27">
-        <v>345.31982421875</v>
+        <v>443.14990234375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>344.060546875</v>
+        <v>442.250244140625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>343.3994140625</v>
+        <v>437.02978515625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>342.080078125</v>
+        <v>436.5205078125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>340.669921875</v>
+        <v>436.41064453125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>339.409912109375</v>
+        <v>434.310546875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>335.06005859375</v>
+        <v>432.619873046875</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>332.47998046875</v>
+        <v>424.79052734375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B35">
-        <v>331.840087890625</v>
+        <v>424.01953125</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>329.6005859375</v>
+        <v>420.16064453125</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>328.25048828125</v>
+        <v>418.200439453125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>325.5</v>
+        <v>417.7197265625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>324.7294921875</v>
+        <v>410.759521484375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>322.8701171875</v>
+        <v>409.429931640625</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>320.950439453125</v>
+        <v>408.5003051757812</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>316.47998046875</v>
+        <v>406.77001953125</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>315.580078125</v>
+        <v>403.210205078125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B44">
-        <v>313.730224609375</v>
+        <v>397.66015625</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>307.899658203125</v>
+        <v>396.0302734375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>307.2903442382812</v>
+        <v>391.490234375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>305.900146484375</v>
+        <v>384.72998046875</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>303.900146484375</v>
+        <v>382.43017578125</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>300.55029296875</v>
+        <v>379.909912109375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B50">
-        <v>300.409912109375</v>
+        <v>379.560302734375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>287.30029296875</v>
+        <v>367.21044921875</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>285.300048828125</v>
+        <v>366.510009765625</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>284.6201171875</v>
+        <v>348.869873046875</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>280.040283203125</v>
+        <v>343.21044921875</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B55">
-        <v>278.51025390625</v>
+        <v>340.14013671875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56">
-        <v>269.849853515625</v>
+        <v>332.719970703125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>267.289794921875</v>
+        <v>329.390380859375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>258.580078125</v>
+        <v>321.999755859375</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>249.10009765625</v>
+        <v>315.76025390625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60">
-        <v>225.0599365234375</v>
+        <v>300.7401123046875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>220.6402587890625</v>
+        <v>281.6002197265625</v>
       </c>
     </row>
   </sheetData>
@@ -10767,7 +11142,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10775,7 +11150,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10783,7 +11158,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10791,7 +11166,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10799,7 +11174,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10807,7 +11182,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10815,7 +11190,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10823,7 +11198,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10831,7 +11206,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10839,7 +11214,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10847,7 +11222,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10855,7 +11230,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10863,7 +11238,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10871,7 +11246,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10879,7 +11254,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10887,7 +11262,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10895,7 +11270,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10903,7 +11278,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10911,7 +11286,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10919,7 +11294,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10927,7 +11302,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10935,7 +11310,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10943,7 +11318,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10951,7 +11326,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10959,7 +11334,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10967,7 +11342,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10975,7 +11350,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10983,7 +11358,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10991,7 +11366,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10999,7 +11374,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11007,7 +11382,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11015,7 +11390,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11023,7 +11398,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11031,7 +11406,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11039,7 +11414,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11047,7 +11422,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11055,7 +11430,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11063,7 +11438,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11071,7 +11446,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11079,7 +11454,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11087,7 +11462,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11095,7 +11470,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11103,7 +11478,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11111,7 +11486,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11119,7 +11494,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11127,7 +11502,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11135,7 +11510,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11143,7 +11518,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11151,7 +11526,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11159,7 +11534,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11167,7 +11542,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11175,7 +11550,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11183,7 +11558,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11191,7 +11566,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -11199,7 +11574,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11207,7 +11582,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -11215,7 +11590,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -11223,7 +11598,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11231,7 +11606,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11239,7 +11614,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="73">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Rodada 11</t>
+  </si>
+  <si>
+    <t>Rodada 12</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -601,13 +604,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,10 +644,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -679,10 +685,13 @@
       <c r="L2">
         <v>104.47021484375</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>89.60986328125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -717,10 +726,13 @@
       <c r="L3">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>44.4599609375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -755,10 +767,13 @@
       <c r="L4">
         <v>60.9599609375</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>66.66015625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -793,10 +808,13 @@
       <c r="L5">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -831,10 +849,13 @@
       <c r="L6">
         <v>97.81005859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>69.2998046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -869,10 +890,13 @@
       <c r="L7">
         <v>105.10986328125</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -907,10 +931,13 @@
       <c r="L8">
         <v>93.2099609375</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>58.840087890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -945,10 +972,13 @@
       <c r="L9">
         <v>48.4599609375</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>36.56005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -983,10 +1013,13 @@
       <c r="L10">
         <v>49.35009765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>8.30999755859375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -1021,10 +1054,13 @@
       <c r="L11">
         <v>101.2099609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>66.83984375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -1059,10 +1095,13 @@
       <c r="L12">
         <v>81.2099609375</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>48.9599609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -1097,10 +1136,13 @@
       <c r="L13">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>68.66015625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -1135,10 +1177,13 @@
       <c r="L14">
         <v>106.81005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>85.259765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -1173,10 +1218,13 @@
       <c r="L15">
         <v>73.66015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>35.5400390625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -1211,10 +1259,13 @@
       <c r="L16">
         <v>79.91015625</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>71.2099609375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -1249,10 +1300,13 @@
       <c r="L17">
         <v>76.009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>54.090087890625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -1287,10 +1341,13 @@
       <c r="L18">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>56.260009765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -1325,10 +1382,13 @@
       <c r="L19">
         <v>90.93994140625</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>48.360107421875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -1363,10 +1423,13 @@
       <c r="L20">
         <v>82.259765625</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>44.77001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -1401,10 +1464,13 @@
       <c r="L21">
         <v>90.2099609375</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -1439,10 +1505,13 @@
       <c r="L22">
         <v>120.27001953125</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>58.4599609375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -1477,10 +1546,13 @@
       <c r="L23">
         <v>84.740234375</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>59.47998046875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -1515,10 +1587,13 @@
       <c r="L24">
         <v>72.16015625</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>73.66015625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -1553,10 +1628,13 @@
       <c r="L25">
         <v>108.0400390625</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -1591,10 +1669,13 @@
       <c r="L26">
         <v>105.5400390625</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>69.91015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -1629,10 +1710,13 @@
       <c r="L27">
         <v>95.93994140625</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>54.27001953125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -1667,10 +1751,13 @@
       <c r="L28">
         <v>118.31005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>65.81005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -1705,10 +1792,13 @@
       <c r="L29">
         <v>81.33984375</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>59.909912109375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -1743,10 +1833,13 @@
       <c r="L30">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>57.56005859375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -1781,10 +1874,13 @@
       <c r="L31">
         <v>91.91015625</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>66.60009765625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -1819,10 +1915,13 @@
       <c r="L32">
         <v>80.72021484375</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>57.780029296875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -1857,10 +1956,13 @@
       <c r="L33">
         <v>115.77001953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>63.56005859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -1895,10 +1997,13 @@
       <c r="L34">
         <v>71.7099609375</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>93.509765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -1933,10 +2038,13 @@
       <c r="L35">
         <v>75.68017578125</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>34.760009765625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -1971,10 +2079,13 @@
       <c r="L36">
         <v>150.3701171875</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>57.699951171875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -2009,10 +2120,13 @@
       <c r="L37">
         <v>120.5498046875</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>66.9599609375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -2047,10 +2161,13 @@
       <c r="L38">
         <v>110.509765625</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -2085,10 +2202,13 @@
       <c r="L39">
         <v>62.610107421875</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>72.8798828125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -2123,10 +2243,13 @@
       <c r="L40">
         <v>134.669921875</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>64.83984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -2161,10 +2284,13 @@
       <c r="L41">
         <v>96.919921875</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>50.10009765625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -2199,10 +2325,13 @@
       <c r="L42">
         <v>77.41015625</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>67.31005859375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -2237,10 +2366,13 @@
       <c r="L43">
         <v>132.91015625</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -2275,10 +2407,13 @@
       <c r="L44">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>72.41015625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -2313,10 +2448,13 @@
       <c r="L45">
         <v>64.7001953125</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>51.860107421875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -2351,10 +2489,13 @@
       <c r="L46">
         <v>125.60986328125</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>55.760009765625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -2389,10 +2530,13 @@
       <c r="L47">
         <v>114.7099609375</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>95.66015625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -2427,10 +2571,13 @@
       <c r="L48">
         <v>123.919921875</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>40.739990234375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -2465,10 +2612,13 @@
       <c r="L49">
         <v>73.16015625</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>30.43994140625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -2503,10 +2653,13 @@
       <c r="L50">
         <v>97.2099609375</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>71.9599609375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -2541,10 +2694,13 @@
       <c r="L51">
         <v>66.66015625</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>35.8798828125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -2579,10 +2735,13 @@
       <c r="L52">
         <v>122.41015625</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>65.85986328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -2617,10 +2776,13 @@
       <c r="L53">
         <v>54.7099609375</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>33.3701171875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -2655,10 +2817,13 @@
       <c r="L54">
         <v>124.47021484375</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>62.760009765625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -2693,10 +2858,13 @@
       <c r="L55">
         <v>110.27001953125</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>79.35986328125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -2731,10 +2899,13 @@
       <c r="L56">
         <v>94.41015625</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>71.06005859375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -2769,10 +2940,13 @@
       <c r="L57">
         <v>81.56005859375</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>29.8499755859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -2807,10 +2981,13 @@
       <c r="L58">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>49.719970703125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -2845,10 +3022,13 @@
       <c r="L59">
         <v>95.759765625</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>41.860107421875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -2883,10 +3063,13 @@
       <c r="L60">
         <v>127.27001953125</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>76.56005859375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -2921,43 +3104,49 @@
       <c r="L61">
         <v>62.8701171875</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>47.06005859375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
         <v>50</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
         <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3169,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2988,7 +3177,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2996,7 +3185,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3004,7 +3193,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3012,7 +3201,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3020,7 +3209,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3028,7 +3217,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3036,7 +3225,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3044,7 +3233,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3052,7 +3241,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3060,7 +3249,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3068,7 +3257,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3076,7 +3265,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3084,7 +3273,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3092,7 +3281,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3100,7 +3289,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3108,7 +3297,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3116,7 +3305,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3124,7 +3313,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3132,7 +3321,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3140,7 +3329,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3148,7 +3337,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3156,7 +3345,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3164,7 +3353,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3172,7 +3361,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3180,7 +3369,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3188,7 +3377,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3196,7 +3385,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3204,7 +3393,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3212,7 +3401,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3220,7 +3409,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3228,7 +3417,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3236,7 +3425,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3244,7 +3433,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3252,7 +3441,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3260,7 +3449,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3268,7 +3457,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3276,7 +3465,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3284,7 +3473,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3292,7 +3481,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3300,7 +3489,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3308,7 +3497,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3316,7 +3505,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3324,7 +3513,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3332,7 +3521,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3340,7 +3529,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3348,7 +3537,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3356,7 +3545,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3364,7 +3553,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3372,7 +3561,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3380,7 +3569,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3388,7 +3577,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3396,7 +3585,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3404,7 +3593,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3412,7 +3601,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3420,7 +3609,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3428,7 +3617,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3436,7 +3625,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3444,7 +3633,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3452,7 +3641,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3478,7 +3667,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3486,7 +3675,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3494,7 +3683,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3502,7 +3691,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3510,7 +3699,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3518,7 +3707,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3526,7 +3715,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3534,7 +3723,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3542,7 +3731,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3550,7 +3739,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3558,7 +3747,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3566,7 +3755,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3574,7 +3763,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3582,7 +3771,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3590,7 +3779,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3598,7 +3787,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3606,7 +3795,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3614,7 +3803,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3622,7 +3811,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3630,7 +3819,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3638,7 +3827,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3646,7 +3835,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3654,7 +3843,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3662,7 +3851,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3670,7 +3859,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3678,7 +3867,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3686,7 +3875,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3694,7 +3883,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3702,7 +3891,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3710,7 +3899,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3718,7 +3907,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3726,7 +3915,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3734,7 +3923,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3742,7 +3931,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3750,7 +3939,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3758,7 +3947,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3766,7 +3955,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3774,7 +3963,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3782,7 +3971,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3790,7 +3979,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3798,7 +3987,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3806,7 +3995,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3814,7 +4003,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3822,7 +4011,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3830,7 +4019,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3838,7 +4027,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3846,7 +4035,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3854,7 +4043,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3862,7 +4051,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3870,7 +4059,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3878,7 +4067,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3886,7 +4075,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3894,7 +4083,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3902,7 +4091,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3910,7 +4099,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3918,7 +4107,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3926,7 +4115,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3934,7 +4123,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3942,7 +4131,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3950,7 +4139,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3976,7 +4165,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3984,7 +4173,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3992,7 +4181,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4000,7 +4189,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4008,7 +4197,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4016,7 +4205,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4024,7 +4213,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4032,7 +4221,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4040,7 +4229,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4048,7 +4237,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4056,7 +4245,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4064,7 +4253,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4072,7 +4261,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4080,7 +4269,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4088,7 +4277,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4096,7 +4285,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4104,7 +4293,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4112,7 +4301,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4120,7 +4309,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4128,7 +4317,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4136,7 +4325,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4144,7 +4333,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4152,7 +4341,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4160,7 +4349,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4168,7 +4357,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4176,7 +4365,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4184,7 +4373,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4192,7 +4381,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4200,7 +4389,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4208,7 +4397,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4216,7 +4405,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4224,7 +4413,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4232,7 +4421,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4240,7 +4429,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4248,7 +4437,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4256,7 +4445,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4264,7 +4453,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4272,7 +4461,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4280,7 +4469,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4288,7 +4477,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4296,7 +4485,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4304,7 +4493,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4312,7 +4501,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4320,7 +4509,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4328,7 +4517,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4336,7 +4525,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4344,7 +4533,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4352,7 +4541,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4360,7 +4549,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4368,7 +4557,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4376,7 +4565,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4384,7 +4573,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4392,7 +4581,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4400,7 +4589,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4408,7 +4597,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4416,7 +4605,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4424,7 +4613,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4432,7 +4621,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4440,7 +4629,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4448,7 +4637,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4474,7 +4663,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4482,7 +4671,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4490,7 +4679,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4498,7 +4687,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4506,7 +4695,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4514,7 +4703,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4522,7 +4711,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4530,7 +4719,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4538,7 +4727,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4546,7 +4735,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4554,7 +4743,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4562,7 +4751,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4570,7 +4759,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4578,7 +4767,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4586,7 +4775,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4594,7 +4783,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4602,7 +4791,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4610,7 +4799,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4618,7 +4807,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4626,7 +4815,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4634,7 +4823,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4642,7 +4831,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4650,7 +4839,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4658,7 +4847,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4666,7 +4855,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4674,7 +4863,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4682,7 +4871,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4690,7 +4879,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4698,7 +4887,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4706,7 +4895,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4714,7 +4903,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4722,7 +4911,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4730,7 +4919,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4738,7 +4927,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4746,7 +4935,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4754,7 +4943,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4762,7 +4951,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4770,7 +4959,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4778,7 +4967,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4786,7 +4975,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4794,7 +4983,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4802,7 +4991,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4810,7 +4999,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4818,7 +5007,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4826,7 +5015,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4834,7 +5023,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4842,7 +5031,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4850,7 +5039,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4858,7 +5047,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4866,7 +5055,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4874,7 +5063,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4882,7 +5071,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4890,7 +5079,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4898,7 +5087,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4906,7 +5095,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4914,7 +5103,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4922,7 +5111,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4930,7 +5119,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4938,7 +5127,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4946,7 +5135,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4972,7 +5161,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4980,7 +5169,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4988,7 +5177,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4996,7 +5185,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5004,7 +5193,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5012,7 +5201,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5020,7 +5209,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5028,7 +5217,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5036,7 +5225,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5044,7 +5233,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5052,7 +5241,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5060,7 +5249,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5068,7 +5257,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5076,7 +5265,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5084,7 +5273,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5092,7 +5281,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5100,7 +5289,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5108,7 +5297,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5116,7 +5305,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5124,7 +5313,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5132,7 +5321,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5140,7 +5329,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5148,7 +5337,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5156,7 +5345,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5164,7 +5353,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5172,7 +5361,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5180,7 +5369,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5188,7 +5377,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5196,7 +5385,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5204,7 +5393,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5212,7 +5401,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5220,7 +5409,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5228,7 +5417,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5236,7 +5425,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5244,7 +5433,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5252,7 +5441,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5260,7 +5449,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5268,7 +5457,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5276,7 +5465,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5284,7 +5473,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5292,7 +5481,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5300,7 +5489,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5308,7 +5497,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5316,7 +5505,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5324,7 +5513,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5332,7 +5521,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5340,7 +5529,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5348,7 +5537,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5356,7 +5545,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5364,7 +5553,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5372,7 +5561,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5380,7 +5569,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5388,7 +5577,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5396,7 +5585,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5404,7 +5593,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5412,7 +5601,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5420,7 +5609,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5428,7 +5617,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5436,7 +5625,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5444,7 +5633,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5470,7 +5659,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5478,7 +5667,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5486,7 +5675,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5494,7 +5683,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5502,7 +5691,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5510,7 +5699,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5518,7 +5707,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5526,7 +5715,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5534,7 +5723,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5542,7 +5731,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5550,7 +5739,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5558,7 +5747,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5566,7 +5755,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5574,7 +5763,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5582,7 +5771,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5590,7 +5779,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5598,7 +5787,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5606,7 +5795,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5614,7 +5803,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5622,7 +5811,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5630,7 +5819,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5638,7 +5827,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5646,7 +5835,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5654,7 +5843,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5662,7 +5851,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5670,7 +5859,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5678,7 +5867,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5686,7 +5875,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5694,7 +5883,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5702,7 +5891,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5710,7 +5899,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5718,7 +5907,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5726,7 +5915,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5734,7 +5923,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5742,7 +5931,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5750,7 +5939,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5758,7 +5947,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5766,7 +5955,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5774,7 +5963,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5782,7 +5971,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5790,7 +5979,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5798,7 +5987,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5806,7 +5995,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5814,7 +6003,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5822,7 +6011,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5830,7 +6019,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5838,7 +6027,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5846,7 +6035,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5854,7 +6043,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5862,7 +6051,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5870,7 +6059,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5878,7 +6067,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5886,7 +6075,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5894,7 +6083,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5902,7 +6091,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5910,7 +6099,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5918,7 +6107,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5926,7 +6115,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5934,7 +6123,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5942,7 +6131,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5955,13 +6144,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5995,10 +6184,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -6033,10 +6225,13 @@
       <c r="L2">
         <v>104.47021484375</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>89.60986328125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -6071,10 +6266,13 @@
       <c r="L3">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>44.4599609375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -6109,10 +6307,13 @@
       <c r="L4">
         <v>60.9599609375</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>66.66015625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -6147,10 +6348,13 @@
       <c r="L5">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -6185,10 +6389,13 @@
       <c r="L6">
         <v>97.81005859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>69.2998046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -6223,10 +6430,13 @@
       <c r="L7">
         <v>105.10986328125</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -6261,10 +6471,13 @@
       <c r="L8">
         <v>93.2099609375</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>58.840087890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -6299,10 +6512,13 @@
       <c r="L9">
         <v>48.4599609375</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>36.56005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -6337,10 +6553,13 @@
       <c r="L10">
         <v>49.35009765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>8.30999755859375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -6375,10 +6594,13 @@
       <c r="L11">
         <v>101.2099609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>66.83984375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -6413,10 +6635,13 @@
       <c r="L12">
         <v>81.2099609375</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>48.9599609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -6451,10 +6676,13 @@
       <c r="L13">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>68.66015625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -6489,10 +6717,13 @@
       <c r="L14">
         <v>106.81005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>85.259765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -6527,10 +6758,13 @@
       <c r="L15">
         <v>73.66015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>35.5400390625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -6565,10 +6799,13 @@
       <c r="L16">
         <v>79.91015625</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>71.2099609375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -6603,10 +6840,13 @@
       <c r="L17">
         <v>76.009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>54.090087890625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -6641,10 +6881,13 @@
       <c r="L18">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>56.260009765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -6679,10 +6922,13 @@
       <c r="L19">
         <v>90.93994140625</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>48.360107421875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -6717,10 +6963,13 @@
       <c r="L20">
         <v>82.259765625</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>44.77001953125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -6755,10 +7004,13 @@
       <c r="L21">
         <v>90.2099609375</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -6793,10 +7045,13 @@
       <c r="L22">
         <v>120.27001953125</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>58.4599609375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -6831,10 +7086,13 @@
       <c r="L23">
         <v>84.740234375</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>59.47998046875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -6869,10 +7127,13 @@
       <c r="L24">
         <v>72.16015625</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>73.66015625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -6907,10 +7168,13 @@
       <c r="L25">
         <v>108.0400390625</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>72.58984375</v>
@@ -6945,10 +7209,13 @@
       <c r="L26">
         <v>105.5400390625</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>69.91015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>72.5498046875</v>
@@ -6983,10 +7250,13 @@
       <c r="L27">
         <v>95.93994140625</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>54.27001953125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>72.3798828125</v>
@@ -7021,10 +7291,13 @@
       <c r="L28">
         <v>118.31005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>65.81005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>72.2900390625</v>
@@ -7059,10 +7332,13 @@
       <c r="L29">
         <v>81.33984375</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>59.909912109375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>72.240234375</v>
@@ -7097,10 +7373,13 @@
       <c r="L30">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>57.56005859375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>71.08984375</v>
@@ -7135,10 +7414,13 @@
       <c r="L31">
         <v>91.91015625</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>66.60009765625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>70.18994140625</v>
@@ -7173,10 +7455,13 @@
       <c r="L32">
         <v>80.72021484375</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>57.780029296875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>69.4501953125</v>
@@ -7211,10 +7496,13 @@
       <c r="L33">
         <v>115.77001953125</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>63.56005859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>69.39990234375</v>
@@ -7249,10 +7537,13 @@
       <c r="L34">
         <v>71.7099609375</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>93.509765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>68.47998046875</v>
@@ -7287,10 +7578,13 @@
       <c r="L35">
         <v>75.68017578125</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>34.760009765625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>68.39990234375</v>
@@ -7325,10 +7619,13 @@
       <c r="L36">
         <v>150.3701171875</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>57.699951171875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>67.990234375</v>
@@ -7363,10 +7660,13 @@
       <c r="L37">
         <v>120.5498046875</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>66.9599609375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>67.68994140625</v>
@@ -7401,10 +7701,13 @@
       <c r="L38">
         <v>110.509765625</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>67.14013671875</v>
@@ -7439,10 +7742,13 @@
       <c r="L39">
         <v>62.610107421875</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>72.8798828125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>66.68994140625</v>
@@ -7477,10 +7783,13 @@
       <c r="L40">
         <v>134.669921875</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>64.83984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>66.60009765625</v>
@@ -7515,10 +7824,13 @@
       <c r="L41">
         <v>96.919921875</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>50.10009765625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>66.5</v>
@@ -7553,10 +7865,13 @@
       <c r="L42">
         <v>77.41015625</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>67.31005859375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>66.2001953125</v>
@@ -7591,10 +7906,13 @@
       <c r="L43">
         <v>132.91015625</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>66.14990234375</v>
@@ -7629,10 +7947,13 @@
       <c r="L44">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>72.41015625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>65.39990234375</v>
@@ -7667,10 +7988,13 @@
       <c r="L45">
         <v>64.7001953125</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>51.860107421875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>64.7900390625</v>
@@ -7705,10 +8029,13 @@
       <c r="L46">
         <v>125.60986328125</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>55.760009765625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>64</v>
@@ -7743,10 +8070,13 @@
       <c r="L47">
         <v>114.7099609375</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>95.66015625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>63.64990234375</v>
@@ -7781,10 +8111,13 @@
       <c r="L48">
         <v>123.919921875</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>40.739990234375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>63.5</v>
@@ -7819,10 +8152,13 @@
       <c r="L49">
         <v>73.16015625</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>30.43994140625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>63.489990234375</v>
@@ -7857,10 +8193,13 @@
       <c r="L50">
         <v>97.2099609375</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>71.9599609375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>63.080078125</v>
@@ -7895,10 +8234,13 @@
       <c r="L51">
         <v>66.66015625</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>35.8798828125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>61.550048828125</v>
@@ -7933,10 +8275,13 @@
       <c r="L52">
         <v>122.41015625</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>65.85986328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>61.14990234375</v>
@@ -7971,10 +8316,13 @@
       <c r="L53">
         <v>54.7099609375</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>33.3701171875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>60.550048828125</v>
@@ -8009,10 +8357,13 @@
       <c r="L54">
         <v>124.47021484375</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>62.760009765625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -8047,10 +8398,13 @@
       <c r="L55">
         <v>110.27001953125</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>79.35986328125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>58.989990234375</v>
@@ -8085,10 +8439,13 @@
       <c r="L56">
         <v>94.41015625</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>71.06005859375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>56.3798828125</v>
@@ -8123,10 +8480,13 @@
       <c r="L57">
         <v>81.56005859375</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>29.8499755859375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>53.639892578125</v>
@@ -8161,10 +8521,13 @@
       <c r="L58">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>49.719970703125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>50.030029296875</v>
@@ -8199,10 +8562,13 @@
       <c r="L59">
         <v>95.759765625</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>41.860107421875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>47.929931640625</v>
@@ -8237,10 +8603,13 @@
       <c r="L60">
         <v>127.27001953125</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>76.56005859375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>72.97998046875</v>
@@ -8275,43 +8644,49 @@
       <c r="L61">
         <v>62.8701171875</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>47.06005859375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
         <v>50</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
         <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8329,307 +8704,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -8652,482 +9027,482 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>1052.61083984375</v>
+        <v>1109.07080078125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>1027.720703125</v>
+        <v>1097.630859375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>1002.580078125</v>
+        <v>1077.8896484375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>999.3603515625</v>
+        <v>1064.2001953125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>999.270263671875</v>
+        <v>1062.06005859375</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>998.211181640625</v>
+        <v>1062.0302734375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>990.580078125</v>
+        <v>1061.771240234375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>985.5703125</v>
+        <v>1059.949951171875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>983.6298828125</v>
+        <v>1049.049072265625</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>983.189208984375</v>
+        <v>1047.510498046875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>977.5693359375</v>
+        <v>1046.8291015625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>975.550537109375</v>
+        <v>1044.0302734375</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B14">
-        <v>973.01025390625</v>
+        <v>1041.639404296875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>970.340087890625</v>
+        <v>1040.76025390625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>964.34033203125</v>
+        <v>1031.320068359375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>964.2001953125</v>
+        <v>1030.150390625</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>962.86962890625</v>
+        <v>1028.770263671875</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>962.279541015625</v>
+        <v>1021.43994140625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>956.08056640625</v>
+        <v>1013.94970703125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>955.868896484375</v>
+        <v>1012.9697265625</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>947.239501953125</v>
+        <v>1012.54052734375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>942.87060546875</v>
+        <v>1012.281005859375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>941.27978515625</v>
+        <v>1010.53955078125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B25">
-        <v>939.870849609375</v>
+        <v>1010.138916015625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>936.18017578125</v>
+        <v>1006.07958984375</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B27">
-        <v>935.980712890625</v>
+        <v>1000.650634765625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>929.09033203125</v>
+        <v>996.400390625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>918.28955078125</v>
+        <v>992.24072265625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>916.190185546875</v>
+        <v>983.150146484375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>915.869873046875</v>
+        <v>973.9202270507812</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>915.739013671875</v>
+        <v>968.3701171875</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>910.81005859375</v>
+        <v>967.869873046875</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>907.0803833007812</v>
+        <v>962.5908203125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>895.99072265625</v>
+        <v>960.198974609375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>894.09033203125</v>
+        <v>952.349365234375</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>884.630615234375</v>
+        <v>952.1103515625</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>883.049560546875</v>
+        <v>951.790283203125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>882.380859375</v>
+        <v>945.719970703125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>880.900390625</v>
+        <v>944.54052734375</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>872.17041015625</v>
+        <v>938.2998046875</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>864.6396484375</v>
+        <v>927.15087890625</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>852.210205078125</v>
+        <v>920.530517578125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>850.26123046875</v>
+        <v>908.209716796875</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>837.149658203125</v>
+        <v>896.8203125</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>830.82958984375</v>
+        <v>885.80126953125</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>828.16015625</v>
+        <v>883.2701416015625</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B48">
-        <v>823.309814453125</v>
+        <v>880.549560546875</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>816.6099853515625</v>
+        <v>877.39990234375</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>816.190185546875</v>
+        <v>869.299560546875</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>813.449462890625</v>
+        <v>865.150146484375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>802.47998046875</v>
+        <v>850.009521484375</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>799.360107421875</v>
+        <v>846.420166015625</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B54">
-        <v>796.419677734375</v>
+        <v>844.340087890625</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>794.340087890625</v>
+        <v>824.780029296875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>758.610107421875</v>
+        <v>803.68994140625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B57">
-        <v>751.829833984375</v>
+        <v>775.6600341796875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>745.81005859375</v>
+        <v>767.5201416015625</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>734.009521484375</v>
+        <v>767.5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>732.7601318359375</v>
+        <v>767.379638671875</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>731.6201171875</v>
+        <v>766.9201049804688</v>
       </c>
     </row>
   </sheetData>
@@ -9150,7 +9525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9158,7 +9533,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9166,7 +9541,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9174,7 +9549,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9182,7 +9557,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9190,7 +9565,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9198,7 +9573,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9206,7 +9581,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9214,7 +9589,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9222,7 +9597,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9230,7 +9605,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9238,7 +9613,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9246,7 +9621,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9254,7 +9629,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -9262,7 +9637,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -9270,7 +9645,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9278,7 +9653,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9286,7 +9661,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -9294,7 +9669,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9302,7 +9677,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9310,7 +9685,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9318,7 +9693,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9326,7 +9701,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9334,7 +9709,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9342,7 +9717,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9350,7 +9725,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9358,7 +9733,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9366,7 +9741,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9374,7 +9749,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9382,7 +9757,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9390,7 +9765,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9398,7 +9773,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9406,7 +9781,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9414,7 +9789,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9422,7 +9797,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9430,7 +9805,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9438,7 +9813,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9446,7 +9821,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9454,7 +9829,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9462,7 +9837,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9470,7 +9845,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9478,7 +9853,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9486,7 +9861,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9494,7 +9869,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -9502,7 +9877,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -9510,7 +9885,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -9518,7 +9893,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -9526,7 +9901,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -9534,7 +9909,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -9542,7 +9917,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -9550,7 +9925,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9558,7 +9933,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -9566,7 +9941,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9574,7 +9949,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9582,7 +9957,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9590,7 +9965,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9598,7 +9973,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9606,7 +9981,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9614,7 +9989,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9622,7 +9997,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9648,7 +10023,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -9656,7 +10031,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -9664,7 +10039,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -9672,7 +10047,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -9680,7 +10055,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -9688,7 +10063,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -9696,7 +10071,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>84.68994140625</v>
@@ -9704,7 +10079,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>83.990234375</v>
@@ -9712,7 +10087,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>82.97998046875</v>
@@ -9720,7 +10095,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>82.68017578125</v>
@@ -9728,7 +10103,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>82.490234375</v>
@@ -9736,7 +10111,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>81.9501953125</v>
@@ -9744,7 +10119,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>80.25</v>
@@ -9752,7 +10127,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>79.9501953125</v>
@@ -9760,7 +10135,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>79.2998046875</v>
@@ -9768,7 +10143,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>78.7998046875</v>
@@ -9776,7 +10151,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>77.580078125</v>
@@ -9784,7 +10159,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>76.7900390625</v>
@@ -9792,7 +10167,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>75.330078125</v>
@@ -9800,7 +10175,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>74.68994140625</v>
@@ -9808,7 +10183,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>74.68994140625</v>
@@ -9816,7 +10191,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>74.08984375</v>
@@ -9824,7 +10199,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>73.77978515625</v>
@@ -9832,7 +10207,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>73.08984375</v>
@@ -9840,7 +10215,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>72.97998046875</v>
@@ -9848,7 +10223,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>72.58984375</v>
@@ -9856,7 +10231,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>72.5498046875</v>
@@ -9864,7 +10239,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>72.3798828125</v>
@@ -9872,7 +10247,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>72.2900390625</v>
@@ -9880,7 +10255,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>72.240234375</v>
@@ -9888,7 +10263,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>71.08984375</v>
@@ -9896,7 +10271,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>70.18994140625</v>
@@ -9904,7 +10279,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>69.4501953125</v>
@@ -9912,7 +10287,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>69.39990234375</v>
@@ -9920,7 +10295,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>68.47998046875</v>
@@ -9928,7 +10303,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>68.39990234375</v>
@@ -9936,7 +10311,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>67.990234375</v>
@@ -9944,7 +10319,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>67.68994140625</v>
@@ -9952,7 +10327,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>67.14013671875</v>
@@ -9960,7 +10335,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>66.68994140625</v>
@@ -9968,7 +10343,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>66.60009765625</v>
@@ -9976,7 +10351,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>66.5</v>
@@ -9984,7 +10359,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>66.2001953125</v>
@@ -9992,7 +10367,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>66.14990234375</v>
@@ -10000,7 +10375,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>65.39990234375</v>
@@ -10008,7 +10383,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>64.7900390625</v>
@@ -10016,7 +10391,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>64</v>
@@ -10024,7 +10399,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>63.64990234375</v>
@@ -10032,7 +10407,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>63.5</v>
@@ -10040,7 +10415,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>63.489990234375</v>
@@ -10048,7 +10423,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>63.080078125</v>
@@ -10056,7 +10431,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>61.550048828125</v>
@@ -10064,7 +10439,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>61.14990234375</v>
@@ -10072,7 +10447,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>60.550048828125</v>
@@ -10080,7 +10455,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>59</v>
@@ -10088,7 +10463,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>58.989990234375</v>
@@ -10096,7 +10471,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>56.3798828125</v>
@@ -10104,7 +10479,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>53.639892578125</v>
@@ -10112,7 +10487,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>50.030029296875</v>
@@ -10120,7 +10495,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>47.929931640625</v>
@@ -10146,7 +10521,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>473.93017578125</v>
@@ -10154,7 +10529,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>457.33056640625</v>
@@ -10162,7 +10537,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>457.22998046875</v>
@@ -10170,7 +10545,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>455.82958984375</v>
@@ -10178,7 +10553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>454.310546875</v>
@@ -10186,7 +10561,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>453.83984375</v>
@@ -10194,7 +10569,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>453.72021484375</v>
@@ -10202,7 +10577,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>452.67041015625</v>
@@ -10210,7 +10585,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>448.0498046875</v>
@@ -10218,7 +10593,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>445.19970703125</v>
@@ -10226,7 +10601,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>444</v>
@@ -10234,7 +10609,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>441.17041015625</v>
@@ -10242,7 +10617,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>439.45068359375</v>
@@ -10250,7 +10625,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>438.61962890625</v>
@@ -10258,7 +10633,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>438.3701171875</v>
@@ -10266,7 +10641,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>437.7998046875</v>
@@ -10274,7 +10649,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>436.82958984375</v>
@@ -10282,7 +10657,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>434.39013671875</v>
@@ -10290,7 +10665,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>433.93994140625</v>
@@ -10298,7 +10673,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>433.89013671875</v>
@@ -10306,7 +10681,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>430.56982421875</v>
@@ -10314,7 +10689,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>429.9296875</v>
@@ -10322,7 +10697,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>423.3701171875</v>
@@ -10330,7 +10705,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>419.51953125</v>
@@ -10338,7 +10713,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>419.150390625</v>
@@ -10346,7 +10721,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>418.06982421875</v>
@@ -10354,7 +10729,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>416.540283203125</v>
@@ -10362,7 +10737,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>416.150390625</v>
@@ -10370,7 +10745,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>415.89990234375</v>
@@ -10378,7 +10753,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>413.790283203125</v>
@@ -10386,7 +10761,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>411.170166015625</v>
@@ -10394,7 +10769,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>405.389404296875</v>
@@ -10402,7 +10777,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>404.740234375</v>
@@ -10410,7 +10785,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>404.6396484375</v>
@@ -10418,7 +10793,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>403.89013671875</v>
@@ -10426,7 +10801,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>403.840576171875</v>
@@ -10434,7 +10809,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>394.259765625</v>
@@ -10442,7 +10817,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>393.66015625</v>
@@ -10450,7 +10825,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>393.19970703125</v>
@@ -10458,7 +10833,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>390.750732421875</v>
@@ -10466,7 +10841,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>387.749755859375</v>
@@ -10474,7 +10849,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>384.979736328125</v>
@@ -10482,7 +10857,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>380.58935546875</v>
@@ -10490,7 +10865,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>376.040283203125</v>
@@ -10498,7 +10873,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>367.18994140625</v>
@@ -10506,7 +10881,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>364.60009765625</v>
@@ -10514,7 +10889,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>363.5400390625</v>
@@ -10522,7 +10897,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>353.170166015625</v>
@@ -10530,7 +10905,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>352.77978515625</v>
@@ -10538,7 +10913,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>350.85986328125</v>
@@ -10546,7 +10921,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>349.2900390625</v>
@@ -10554,7 +10929,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>346.23974609375</v>
@@ -10562,7 +10937,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>343.219482421875</v>
@@ -10570,7 +10945,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>334.809814453125</v>
@@ -10578,7 +10953,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>331.890380859375</v>
@@ -10586,7 +10961,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>328.490234375</v>
@@ -10594,7 +10969,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>324.849853515625</v>
@@ -10602,7 +10977,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>319.849609375</v>
@@ -10610,7 +10985,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>309.300048828125</v>
@@ -10618,7 +10993,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>302.93994140625</v>
@@ -10644,7 +11019,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>531.29052734375</v>
@@ -10652,7 +11027,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>512.48046875</v>
@@ -10660,7 +11035,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>501.41064453125</v>
@@ -10668,7 +11043,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>500.840576171875</v>
@@ -10676,7 +11051,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>493.5205078125</v>
@@ -10684,7 +11059,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>489.4892578125</v>
@@ -10692,7 +11067,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>484.490234375</v>
@@ -10700,7 +11075,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>480.4501953125</v>
@@ -10708,7 +11083,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>476.090576171875</v>
@@ -10716,7 +11091,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>475.939453125</v>
@@ -10724,7 +11099,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>475.33984375</v>
@@ -10732,7 +11107,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>475.2197265625</v>
@@ -10740,7 +11115,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>474.330078125</v>
@@ -10748,7 +11123,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>471.4296875</v>
@@ -10756,7 +11131,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>470.62939453125</v>
@@ -10764,7 +11139,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>469.7001953125</v>
@@ -10772,7 +11147,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>465.8095703125</v>
@@ -10780,7 +11155,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>460.02978515625</v>
@@ -10788,7 +11163,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>459.43994140625</v>
@@ -10796,7 +11171,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>457.75</v>
@@ -10804,7 +11179,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>457.1806640625</v>
@@ -10812,7 +11187,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>453.43017578125</v>
@@ -10820,7 +11195,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>452.749267578125</v>
@@ -10828,7 +11203,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>450.7900390625</v>
@@ -10836,7 +11211,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>450.1201171875</v>
@@ -10844,7 +11219,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>443.14990234375</v>
@@ -10852,7 +11227,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>442.250244140625</v>
@@ -10860,7 +11235,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>437.02978515625</v>
@@ -10868,7 +11243,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>436.5205078125</v>
@@ -10876,7 +11251,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>436.41064453125</v>
@@ -10884,7 +11259,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>434.310546875</v>
@@ -10892,7 +11267,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>432.619873046875</v>
@@ -10900,7 +11275,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>424.79052734375</v>
@@ -10908,7 +11283,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>424.01953125</v>
@@ -10916,7 +11291,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>420.16064453125</v>
@@ -10924,7 +11299,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>418.200439453125</v>
@@ -10932,7 +11307,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>417.7197265625</v>
@@ -10940,7 +11315,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>410.759521484375</v>
@@ -10948,7 +11323,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>409.429931640625</v>
@@ -10956,7 +11331,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>408.5003051757812</v>
@@ -10964,7 +11339,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>406.77001953125</v>
@@ -10972,7 +11347,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>403.210205078125</v>
@@ -10980,7 +11355,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>397.66015625</v>
@@ -10988,7 +11363,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>396.0302734375</v>
@@ -10996,7 +11371,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>391.490234375</v>
@@ -11004,7 +11379,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47">
         <v>384.72998046875</v>
@@ -11012,7 +11387,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>382.43017578125</v>
@@ -11020,7 +11395,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>379.909912109375</v>
@@ -11028,7 +11403,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>379.560302734375</v>
@@ -11036,7 +11411,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>367.21044921875</v>
@@ -11044,7 +11419,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>366.510009765625</v>
@@ -11052,7 +11427,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>348.869873046875</v>
@@ -11060,7 +11435,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>343.21044921875</v>
@@ -11068,7 +11443,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>340.14013671875</v>
@@ -11076,7 +11451,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>332.719970703125</v>
@@ -11084,7 +11459,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>329.390380859375</v>
@@ -11092,7 +11467,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>321.999755859375</v>
@@ -11100,7 +11475,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>315.76025390625</v>
@@ -11108,7 +11483,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>300.7401123046875</v>
@@ -11116,7 +11491,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>281.6002197265625</v>
@@ -11142,66 +11517,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>95.66015625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>94.259765625</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>93.509765625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>89.60986328125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>0</v>
+